--- a/FinalProject/data/pet-store-data.xlsx
+++ b/FinalProject/data/pet-store-data.xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21225" windowHeight="7185" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="cart_items" sheetId="1" r:id="rId1"/>
     <sheet name="users" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:H13"/>
 </workbook>
 </file>
 
@@ -1415,8 +1416,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1583,6 +1584,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1629,7 +1638,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1661,9 +1670,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1695,6 +1705,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1870,20 +1881,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.140625" customWidth="1"/>
     <col min="2" max="2" width="108" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1891,7 +1902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>445</v>
       </c>
@@ -1899,7 +1910,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>447</v>
       </c>
@@ -1907,7 +1918,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>449</v>
       </c>
@@ -1915,7 +1926,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>452</v>
       </c>
@@ -1923,7 +1934,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>454</v>
       </c>
@@ -1931,7 +1942,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>455</v>
       </c>
@@ -1939,7 +1950,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>458</v>
       </c>
@@ -1947,7 +1958,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>460</v>
       </c>
@@ -1955,7 +1966,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>462</v>
       </c>
@@ -1963,7 +1974,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>463</v>
       </c>
@@ -1989,14 +2000,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L51"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="4" width="17.28515625" style="3"/>
     <col min="5" max="5" width="25.85546875" style="3" customWidth="1"/>
@@ -2005,7 +2016,7 @@
     <col min="8" max="16384" width="17.28515625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="30.75" thickBot="1">
+    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -2043,7 +2054,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="44.25" thickBot="1">
+    <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -2081,7 +2092,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="44.25" thickBot="1">
+    <row r="3" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -2119,7 +2130,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="58.5" thickBot="1">
+    <row r="4" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -2157,7 +2168,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="58.5" thickBot="1">
+    <row r="5" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -2195,7 +2206,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="44.25" thickBot="1">
+    <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -2233,7 +2244,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="44.25" thickBot="1">
+    <row r="7" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -2271,7 +2282,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="44.25" thickBot="1">
+    <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -2309,7 +2320,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="44.25" thickBot="1">
+    <row r="9" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -2347,7 +2358,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="58.5" thickBot="1">
+    <row r="10" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>9</v>
       </c>
@@ -2385,7 +2396,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="58.5" thickBot="1">
+    <row r="11" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -2423,7 +2434,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="58.5" thickBot="1">
+    <row r="12" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -2461,7 +2472,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="44.25" thickBot="1">
+    <row r="13" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
         <v>12</v>
       </c>
@@ -2499,7 +2510,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="44.25" thickBot="1">
+    <row r="14" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -2537,7 +2548,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="44.25" thickBot="1">
+    <row r="15" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -2575,7 +2586,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="44.25" thickBot="1">
+    <row r="16" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7">
         <v>15</v>
       </c>
@@ -2613,7 +2624,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="44.25" thickBot="1">
+    <row r="17" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -2651,7 +2662,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="44.25" thickBot="1">
+    <row r="18" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -2689,7 +2700,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="44.25" thickBot="1">
+    <row r="19" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7">
         <v>18</v>
       </c>
@@ -2727,7 +2738,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="44.25" thickBot="1">
+    <row r="20" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -2765,7 +2776,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="44.25" thickBot="1">
+    <row r="21" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -2803,7 +2814,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="44.25" thickBot="1">
+    <row r="22" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7">
         <v>21</v>
       </c>
@@ -2841,7 +2852,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="58.5" thickBot="1">
+    <row r="23" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -2879,7 +2890,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="44.25" thickBot="1">
+    <row r="24" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -2917,7 +2928,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="58.5" thickBot="1">
+    <row r="25" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7">
         <v>24</v>
       </c>
@@ -2955,7 +2966,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="58.5" thickBot="1">
+    <row r="26" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -2993,7 +3004,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="58.5" thickBot="1">
+    <row r="27" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -3031,7 +3042,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="44.25" thickBot="1">
+    <row r="28" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7">
         <v>27</v>
       </c>
@@ -3069,7 +3080,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="58.5" thickBot="1">
+    <row r="29" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -3107,7 +3118,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="44.25" thickBot="1">
+    <row r="30" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -3145,7 +3156,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="58.5" thickBot="1">
+    <row r="31" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="7">
         <v>30</v>
       </c>
@@ -3183,7 +3194,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="44.25" thickBot="1">
+    <row r="32" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -3221,7 +3232,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="58.5" thickBot="1">
+    <row r="33" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>32</v>
       </c>
@@ -3259,7 +3270,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="44.25" thickBot="1">
+    <row r="34" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="7">
         <v>33</v>
       </c>
@@ -3297,7 +3308,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="58.5" thickBot="1">
+    <row r="35" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>34</v>
       </c>
@@ -3335,7 +3346,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="58.5" thickBot="1">
+    <row r="36" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>35</v>
       </c>
@@ -3373,7 +3384,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="44.25" thickBot="1">
+    <row r="37" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="7">
         <v>36</v>
       </c>
@@ -3411,7 +3422,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="44.25" thickBot="1">
+    <row r="38" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>37</v>
       </c>
@@ -3449,7 +3460,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="58.5" thickBot="1">
+    <row r="39" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <v>38</v>
       </c>
@@ -3487,7 +3498,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="44.25" thickBot="1">
+    <row r="40" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="7">
         <v>39</v>
       </c>
@@ -3525,7 +3536,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="44.25" thickBot="1">
+    <row r="41" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>40</v>
       </c>
@@ -3563,7 +3574,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="58.5" thickBot="1">
+    <row r="42" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <v>41</v>
       </c>
@@ -3601,7 +3612,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="44.25" thickBot="1">
+    <row r="43" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="7">
         <v>42</v>
       </c>
@@ -3639,7 +3650,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="58.5" thickBot="1">
+    <row r="44" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>43</v>
       </c>
@@ -3677,7 +3688,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="58.5" thickBot="1">
+    <row r="45" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <v>44</v>
       </c>
@@ -3715,7 +3726,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="44.25" thickBot="1">
+    <row r="46" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="7">
         <v>45</v>
       </c>
@@ -3753,7 +3764,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="58.5" thickBot="1">
+    <row r="47" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
         <v>46</v>
       </c>
@@ -3791,7 +3802,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="44.25" thickBot="1">
+    <row r="48" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
         <v>47</v>
       </c>
@@ -3829,7 +3840,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="44.25" thickBot="1">
+    <row r="49" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="7">
         <v>48</v>
       </c>
@@ -3867,7 +3878,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="44.25" thickBot="1">
+    <row r="50" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
         <v>49</v>
       </c>
@@ -3905,7 +3916,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="44.25" thickBot="1">
+    <row r="51" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="4">
         <v>50</v>
       </c>

--- a/FinalProject/data/pet-store-data.xlsx
+++ b/FinalProject/data/pet-store-data.xlsx
@@ -11,7 +11,7 @@
     <sheet name="users" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:H13"/>
+  <oleSize ref="A1:J13"/>
 </workbook>
 </file>
 
@@ -2004,7 +2004,7 @@
   <dimension ref="A1:L51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/FinalProject/data/pet-store-data.xlsx
+++ b/FinalProject/data/pet-store-data.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21225" windowHeight="7185" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="cart_items" sheetId="1" r:id="rId1"/>
     <sheet name="users" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <oleSize ref="A1:J13"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -1416,8 +1415,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1584,14 +1583,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1638,7 +1629,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1670,10 +1661,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1705,7 +1695,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1881,20 +1870,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="28.140625" customWidth="1"/>
     <col min="2" max="2" width="108" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1902,7 +1891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" s="12" t="s">
         <v>445</v>
       </c>
@@ -1910,7 +1899,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="12" t="s">
         <v>447</v>
       </c>
@@ -1918,7 +1907,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" s="12" t="s">
         <v>449</v>
       </c>
@@ -1926,7 +1915,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" s="12" t="s">
         <v>452</v>
       </c>
@@ -1934,7 +1923,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" s="12" t="s">
         <v>454</v>
       </c>
@@ -1942,7 +1931,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" s="12" t="s">
         <v>455</v>
       </c>
@@ -1950,7 +1939,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" s="12" t="s">
         <v>458</v>
       </c>
@@ -1958,7 +1947,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9" s="12" t="s">
         <v>460</v>
       </c>
@@ -1966,7 +1955,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10" s="12" t="s">
         <v>462</v>
       </c>
@@ -1974,7 +1963,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11" s="12" t="s">
         <v>463</v>
       </c>
@@ -2000,14 +1989,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="4" width="17.28515625" style="3"/>
     <col min="5" max="5" width="25.85546875" style="3" customWidth="1"/>
@@ -2016,7 +2005,7 @@
     <col min="8" max="16384" width="17.28515625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="30.75" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -2054,7 +2043,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="44.25" thickBot="1">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -2092,7 +2081,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="44.25" thickBot="1">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -2130,7 +2119,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="58.5" thickBot="1">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -2168,7 +2157,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="58.5" thickBot="1">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -2206,7 +2195,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="44.25" thickBot="1">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -2244,7 +2233,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="44.25" thickBot="1">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -2282,7 +2271,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="44.25" thickBot="1">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -2320,7 +2309,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" ht="44.25" thickBot="1">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -2358,7 +2347,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" ht="58.5" thickBot="1">
       <c r="A10" s="7">
         <v>9</v>
       </c>
@@ -2396,7 +2385,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" ht="58.5" thickBot="1">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -2434,7 +2423,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" ht="58.5" thickBot="1">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -2472,7 +2461,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" ht="44.25" thickBot="1">
       <c r="A13" s="7">
         <v>12</v>
       </c>
@@ -2510,7 +2499,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" ht="44.25" thickBot="1">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -2548,7 +2537,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" ht="44.25" thickBot="1">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -2586,7 +2575,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" ht="44.25" thickBot="1">
       <c r="A16" s="7">
         <v>15</v>
       </c>
@@ -2624,7 +2613,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" ht="44.25" thickBot="1">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -2662,7 +2651,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" ht="44.25" thickBot="1">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -2700,7 +2689,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" ht="44.25" thickBot="1">
       <c r="A19" s="7">
         <v>18</v>
       </c>
@@ -2738,7 +2727,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" ht="44.25" thickBot="1">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -2776,7 +2765,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" ht="44.25" thickBot="1">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -2814,7 +2803,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" ht="44.25" thickBot="1">
       <c r="A22" s="7">
         <v>21</v>
       </c>
@@ -2852,7 +2841,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" ht="58.5" thickBot="1">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -2890,7 +2879,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" ht="44.25" thickBot="1">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -2928,7 +2917,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" ht="58.5" thickBot="1">
       <c r="A25" s="7">
         <v>24</v>
       </c>
@@ -2966,7 +2955,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" ht="58.5" thickBot="1">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -3004,7 +2993,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" ht="58.5" thickBot="1">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -3042,7 +3031,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" ht="44.25" thickBot="1">
       <c r="A28" s="7">
         <v>27</v>
       </c>
@@ -3080,7 +3069,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" ht="58.5" thickBot="1">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -3118,7 +3107,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" ht="44.25" thickBot="1">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -3156,7 +3145,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" ht="58.5" thickBot="1">
       <c r="A31" s="7">
         <v>30</v>
       </c>
@@ -3194,7 +3183,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" ht="44.25" thickBot="1">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -3232,7 +3221,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" ht="58.5" thickBot="1">
       <c r="A33" s="4">
         <v>32</v>
       </c>
@@ -3270,7 +3259,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" ht="44.25" thickBot="1">
       <c r="A34" s="7">
         <v>33</v>
       </c>
@@ -3308,7 +3297,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" ht="58.5" thickBot="1">
       <c r="A35" s="4">
         <v>34</v>
       </c>
@@ -3346,7 +3335,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" ht="58.5" thickBot="1">
       <c r="A36" s="4">
         <v>35</v>
       </c>
@@ -3384,7 +3373,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" ht="44.25" thickBot="1">
       <c r="A37" s="7">
         <v>36</v>
       </c>
@@ -3422,7 +3411,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" ht="44.25" thickBot="1">
       <c r="A38" s="4">
         <v>37</v>
       </c>
@@ -3460,7 +3449,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" ht="58.5" thickBot="1">
       <c r="A39" s="4">
         <v>38</v>
       </c>
@@ -3498,7 +3487,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" ht="44.25" thickBot="1">
       <c r="A40" s="7">
         <v>39</v>
       </c>
@@ -3536,7 +3525,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" ht="44.25" thickBot="1">
       <c r="A41" s="4">
         <v>40</v>
       </c>
@@ -3574,7 +3563,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" ht="58.5" thickBot="1">
       <c r="A42" s="4">
         <v>41</v>
       </c>
@@ -3612,7 +3601,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" ht="44.25" thickBot="1">
       <c r="A43" s="7">
         <v>42</v>
       </c>
@@ -3650,7 +3639,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" ht="58.5" thickBot="1">
       <c r="A44" s="4">
         <v>43</v>
       </c>
@@ -3688,7 +3677,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" ht="58.5" thickBot="1">
       <c r="A45" s="4">
         <v>44</v>
       </c>
@@ -3726,7 +3715,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" ht="44.25" thickBot="1">
       <c r="A46" s="7">
         <v>45</v>
       </c>
@@ -3764,7 +3753,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" ht="58.5" thickBot="1">
       <c r="A47" s="4">
         <v>46</v>
       </c>
@@ -3802,7 +3791,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" ht="44.25" thickBot="1">
       <c r="A48" s="4">
         <v>47</v>
       </c>
@@ -3840,7 +3829,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" ht="44.25" thickBot="1">
       <c r="A49" s="7">
         <v>48</v>
       </c>
@@ -3878,7 +3867,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" ht="44.25" thickBot="1">
       <c r="A50" s="4">
         <v>49</v>
       </c>
@@ -3916,7 +3905,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" ht="44.25" thickBot="1">
       <c r="A51" s="4">
         <v>50</v>
       </c>

--- a/FinalProject/data/pet-store-data.xlsx
+++ b/FinalProject/data/pet-store-data.xlsx
@@ -4,18 +4,18 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950"/>
+    <workbookView windowHeight="7950" windowWidth="20055" xWindow="240" yWindow="60"/>
   </bookViews>
   <sheets>
-    <sheet name="cart_items" sheetId="1" r:id="rId1"/>
-    <sheet name="users" sheetId="2" r:id="rId2"/>
+    <sheet name="cart_items" r:id="rId1" sheetId="1"/>
+    <sheet name="users" r:id="rId2" sheetId="2"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1984" uniqueCount="1915">
   <si>
     <t>ITEM_ID</t>
   </si>
@@ -1410,12 +1410,4363 @@
   </si>
   <si>
     <t>https://petstore.octoperf.com/actions/Catalog.action?viewItem=&amp;itemId=EST-13</t>
+  </si>
+  <si>
+    <t>48tVxCUkGJELCCXy9TAPu</t>
+  </si>
+  <si>
+    <t>VVkV4GT4rbTNAu5wrcrHd</t>
+  </si>
+  <si>
+    <t>KrbN4t6rfiRdf_wrafISb</t>
+  </si>
+  <si>
+    <t>m225bNfwKJySDOB7m5Qu4</t>
+  </si>
+  <si>
+    <t>f1IOTKQ6i1Kc2EPLRNkAC</t>
+  </si>
+  <si>
+    <t>P1NEY0ZNCDDYOZtR-J_3g</t>
+  </si>
+  <si>
+    <t>XU4IMHfRTUbFQFxVV2zeK</t>
+  </si>
+  <si>
+    <t>nkBrrIiKYJy8dt5MDK0H3</t>
+  </si>
+  <si>
+    <t>AFYbnctlJVmqMtIiGRqPS</t>
+  </si>
+  <si>
+    <t>kGX7RhqzWLcMBFfQP8mK5</t>
+  </si>
+  <si>
+    <t>60c3AuRXmyOcaxH7tL8iN</t>
+  </si>
+  <si>
+    <t>2IweiJQjaNMjSu5yFZcSE</t>
+  </si>
+  <si>
+    <t>-2WAkA5eRtXnUVPZvl5ge</t>
+  </si>
+  <si>
+    <t>jmmlhTuG4scf9uNk8gQ0b</t>
+  </si>
+  <si>
+    <t>mBfXRDTxtxTonG0MuJfEE</t>
+  </si>
+  <si>
+    <t>KuUFLFBccbTp7hkE4Jnw7</t>
+  </si>
+  <si>
+    <t>alu7anjO4B5umgUDhRM2X</t>
+  </si>
+  <si>
+    <t>YAtaGNQWUL611ACbr1l76</t>
+  </si>
+  <si>
+    <t>5SkzVjaKOuoegiHBXlniw</t>
+  </si>
+  <si>
+    <t>16hrMH_TVw1epv1204kIN</t>
+  </si>
+  <si>
+    <t>C3SQSBCIgXvZx_f9ckcmG</t>
+  </si>
+  <si>
+    <t>SdX3qxzE1uEVCJ2Ele6CQ</t>
+  </si>
+  <si>
+    <t>wS42koyvcGPnFw3ikf19G</t>
+  </si>
+  <si>
+    <t>4f76TC__y3e3szsfssidG</t>
+  </si>
+  <si>
+    <t>xPXtRKqDhZrjz06jnTKyP</t>
+  </si>
+  <si>
+    <t>13U7xTWB8Kb6LLSuLVB_m</t>
+  </si>
+  <si>
+    <t>7vTD7oFFk8jPJbD5fqjAm</t>
+  </si>
+  <si>
+    <t>bouJl9VKcqPSP6fO1mfR7</t>
+  </si>
+  <si>
+    <t>CC_db5ExJbzGubgG1o0QP</t>
+  </si>
+  <si>
+    <t>5HuFR2PujCXjVXyzGxmGi</t>
+  </si>
+  <si>
+    <t>5eifhxsKUXNT-JQg-KRuB</t>
+  </si>
+  <si>
+    <t>a5JNU1n30WnTyLcciZ42N</t>
+  </si>
+  <si>
+    <t>xub6aSe_xo3MXhJUWfbM2</t>
+  </si>
+  <si>
+    <t>sGdupJ9qxId6FZzDTXIhb</t>
+  </si>
+  <si>
+    <t>rA4vlULR0BLOlq1YHfavo</t>
+  </si>
+  <si>
+    <t>Ye1-0FCzBfZVXqWJAliX3</t>
+  </si>
+  <si>
+    <t>xC18ExxrG5RS_8b3FfuZ8</t>
+  </si>
+  <si>
+    <t>hGe65Vrg88Mz9fBnYRWq-</t>
+  </si>
+  <si>
+    <t>oKKVFXbD8b5l3ythEdcO1</t>
+  </si>
+  <si>
+    <t>xyz-UXYO4gfWD2TqKtKij</t>
+  </si>
+  <si>
+    <t>To6JOa3ba38_aargplPHp</t>
+  </si>
+  <si>
+    <t>NU61xJ17ab46Oy48bp6_p</t>
+  </si>
+  <si>
+    <t>VeyikD_liljPG-Ylevct_</t>
+  </si>
+  <si>
+    <t>OIMq5f04ljAs1u-p_aONI</t>
+  </si>
+  <si>
+    <t>n0n129l5eXivmxEEFT0oN</t>
+  </si>
+  <si>
+    <t>bCrh6VaR4aWnGorNAhwwV</t>
+  </si>
+  <si>
+    <t>wQ2H15syEdqZ_bU6tmvwV</t>
+  </si>
+  <si>
+    <t>Jc9zrWSR0cyz6nO9hFYkd</t>
+  </si>
+  <si>
+    <t>OD7gYyIgno7AsE-_19YRs</t>
+  </si>
+  <si>
+    <t>Y1p3TnsSxPw2fW-xU9sLp</t>
+  </si>
+  <si>
+    <t>cyfE5uS3hf-REaq2D1P9g</t>
+  </si>
+  <si>
+    <t>w_VbTDsoiCPiLFI8O_HGS</t>
+  </si>
+  <si>
+    <t>9G_uGcqT1u0iqQeDKrQ2c</t>
+  </si>
+  <si>
+    <t>Q8p1P3yyr7bLjn0MT-bXU</t>
+  </si>
+  <si>
+    <t>3DwrYRdw23--zfYB3fOKr</t>
+  </si>
+  <si>
+    <t>zfdOyaWPcl8rjwDkHhTl0</t>
+  </si>
+  <si>
+    <t>rtj3QvmmHO4TQbUvHpuSO</t>
+  </si>
+  <si>
+    <t>KSmi9IzXZRgMuOMyUwULH</t>
+  </si>
+  <si>
+    <t>1iWHyE4K2BBI4rzmwNX0z</t>
+  </si>
+  <si>
+    <t>GqjYVNbCFX6mWLNUr_BKV</t>
+  </si>
+  <si>
+    <t>KxcnCQSNvJRHkqCoiVAod</t>
+  </si>
+  <si>
+    <t>_te4AYQ3Boa_MQLpvVJai</t>
+  </si>
+  <si>
+    <t>npQPLlAozLFUiE_NoLRhK</t>
+  </si>
+  <si>
+    <t>2F6sj_MKc7wvKo_V4uBoN</t>
+  </si>
+  <si>
+    <t>mCI2ZtoIVxoJoglc_Fv2k</t>
+  </si>
+  <si>
+    <t>ZTFO_SPBD_5jqbw18Jdm8</t>
+  </si>
+  <si>
+    <t>oSdA-VhM5EeL69XhG8X0e</t>
+  </si>
+  <si>
+    <t>qN901fKj8EweTxFaEePJR</t>
+  </si>
+  <si>
+    <t>kaBiUjiRG6UFEiQDbEOXy</t>
+  </si>
+  <si>
+    <t>9KJi5bdtUk7VtJkujizOD</t>
+  </si>
+  <si>
+    <t>IyPJItQqgwLIc6AxvDrfp</t>
+  </si>
+  <si>
+    <t>bLMtwy7lMFpXmYFeY18FD</t>
+  </si>
+  <si>
+    <t>RCq8dBnzLzQbl8cU-arSJ</t>
+  </si>
+  <si>
+    <t>8lYND5a5QkBC7bTU1h-bA</t>
+  </si>
+  <si>
+    <t>kHZhjI-c0b6HdIin1FQs-</t>
+  </si>
+  <si>
+    <t>3AMkXGEK-lhyxXDWQz7r5</t>
+  </si>
+  <si>
+    <t>JqgNndYQJffMsNdtDpfvY</t>
+  </si>
+  <si>
+    <t>hb6mboqCOflBUvrPsQ6pP</t>
+  </si>
+  <si>
+    <t>zDu4MErZE0nYEs_kTbxc4</t>
+  </si>
+  <si>
+    <t>aNX7hB3QnyyxdYlnxbHC1</t>
+  </si>
+  <si>
+    <t>6v77yBuTwKBUD8VtGavvF</t>
+  </si>
+  <si>
+    <t>OPinaUmyzM8lvdpD1yxH-</t>
+  </si>
+  <si>
+    <t>SoOrAhd5Mmum2CmiA7Zq2</t>
+  </si>
+  <si>
+    <t>w4nTg5VN2LPDY7-CZosry</t>
+  </si>
+  <si>
+    <t>p6lJAK3w7bCSm7OR7aK6Z</t>
+  </si>
+  <si>
+    <t>vYT5GnIUjHPip58hNA-uQ</t>
+  </si>
+  <si>
+    <t>4QAIjEZVl1kCjc1DV7zJ-</t>
+  </si>
+  <si>
+    <t>3ArYUNjqTvSMUWhBkLcNV</t>
+  </si>
+  <si>
+    <t>MAI5jKsavdhQINxb5Q_oX</t>
+  </si>
+  <si>
+    <t>zXLY0sqlS-x9hLc_bpt_f</t>
+  </si>
+  <si>
+    <t>GWApGupku7dKv7i3P6RXp</t>
+  </si>
+  <si>
+    <t>cyvXVPkzZifBJtIQ-NLx9</t>
+  </si>
+  <si>
+    <t>_4Bd4GfM9lIJPzUQerqos</t>
+  </si>
+  <si>
+    <t>QZN-QKESfKvEM6vcukWFp</t>
+  </si>
+  <si>
+    <t>oAuiIld5zchYFnGWthgDn</t>
+  </si>
+  <si>
+    <t>sE6S10kpMwKfSQACjsVAE</t>
+  </si>
+  <si>
+    <t>PUEdJD5BpT3lTyQo-JowF</t>
+  </si>
+  <si>
+    <t>_p7dpjmDmd-Oa5VVJ1cdq</t>
+  </si>
+  <si>
+    <t>eX4EdJ7a7zzcQjX_wGEyo</t>
+  </si>
+  <si>
+    <t>ZlL48CvZW8o-Y2qpL5-Z3</t>
+  </si>
+  <si>
+    <t>07THmVPt5rIjg8l8-wjgj</t>
+  </si>
+  <si>
+    <t>GlCtw9tp_eFq54r8zmsrj</t>
+  </si>
+  <si>
+    <t>p7fQ3mDAYXn4hHRvdYAN_</t>
+  </si>
+  <si>
+    <t>Pzx7uxaU5IbKN_G74KFtr</t>
+  </si>
+  <si>
+    <t>f7ZtDUmMa11MMunxelIFM</t>
+  </si>
+  <si>
+    <t>IOUbcZCSkGKlt2GDa--g-</t>
+  </si>
+  <si>
+    <t>E03WfHoMO40vei2BEKM98</t>
+  </si>
+  <si>
+    <t>xvH-lnyX1MX17gxjoXz7W</t>
+  </si>
+  <si>
+    <t>XhnmYLwZNktQg8-7V8pF1</t>
+  </si>
+  <si>
+    <t>F8y27sWEWG_pJAkjd-Uoz</t>
+  </si>
+  <si>
+    <t>27ChKtnIpglNCtTWuCKJD</t>
+  </si>
+  <si>
+    <t>HSXPQnOR9mEN4iA3bIKF-</t>
+  </si>
+  <si>
+    <t>UV3uSt_dbNXO4z67pOywx</t>
+  </si>
+  <si>
+    <t>aHkPM5-rDRfYZJGRnJ17-</t>
+  </si>
+  <si>
+    <t>LjZ0NTUbw8gtvgWozqQ2x</t>
+  </si>
+  <si>
+    <t>upjAIN1WeAbu4eZee78P0</t>
+  </si>
+  <si>
+    <t>xXPk8xhls-dx1pSz9IQkj</t>
+  </si>
+  <si>
+    <t>3GdjdxjwNURn_4DEnt8c6</t>
+  </si>
+  <si>
+    <t>mmFRkwwME5Nnj7inWlnY0</t>
+  </si>
+  <si>
+    <t>gL5RwuKIRmcNHSfQh9tuw</t>
+  </si>
+  <si>
+    <t>A61_UD34BgNCxWJyktCqH</t>
+  </si>
+  <si>
+    <t>7dLlyEfIllnZXEZUXzV3K</t>
+  </si>
+  <si>
+    <t>4Q3vJyFB5lY9i3i_fO_Nl</t>
+  </si>
+  <si>
+    <t>I_yL3lF0Nv8funa3ST4Xp</t>
+  </si>
+  <si>
+    <t>4FnclJArEz8jyhcw9wY7L</t>
+  </si>
+  <si>
+    <t>I6JfYUHdEE-cEbZgE4ZcF</t>
+  </si>
+  <si>
+    <t>_tBia7GoBhSXquk_35PPf</t>
+  </si>
+  <si>
+    <t>r8FJNzmoj1F4CYTk3wldE</t>
+  </si>
+  <si>
+    <t>ryI8vmF-uRsO3WpKLqmo2</t>
+  </si>
+  <si>
+    <t>H5O1a0vvYwWGqXORa31Xk</t>
+  </si>
+  <si>
+    <t>UBYLsc6rvTmaCb5mFVVvs</t>
+  </si>
+  <si>
+    <t>qDcy4srilzdd3994V6n6s</t>
+  </si>
+  <si>
+    <t>kzNYddDXAIp85pKZdQ9df</t>
+  </si>
+  <si>
+    <t>Yi9R8dRmu-jGnYwtLs8q7</t>
+  </si>
+  <si>
+    <t>7qryMxAfa42TEYtD2ymP6</t>
+  </si>
+  <si>
+    <t>_iFuxybMBwR3m73CNuck-</t>
+  </si>
+  <si>
+    <t>l2um3w_FMOmMC3ry9xELQ</t>
+  </si>
+  <si>
+    <t>aaBS71iZuBaZrZt_hOyBU</t>
+  </si>
+  <si>
+    <t>vAdteTPLHrexoxg7Gc-8f</t>
+  </si>
+  <si>
+    <t>6Nc-DU6Zu4FP4Fwz6HWx6</t>
+  </si>
+  <si>
+    <t>cpLIJUR8M4-kFGejpQd6l</t>
+  </si>
+  <si>
+    <t>7EhNPOzm_n60jMxgWLbe1</t>
+  </si>
+  <si>
+    <t>pqJ_Sfp6bSMIXqutg-9W1</t>
+  </si>
+  <si>
+    <t>D91iL9ESeKEccNxraFP2j</t>
+  </si>
+  <si>
+    <t>_WSCd68RDflLbL2C53Ayg</t>
+  </si>
+  <si>
+    <t>EVsLMUiQOSFnmby4R7Z-c</t>
+  </si>
+  <si>
+    <t>xvwoU--vR4C8QzUeaQJIw</t>
+  </si>
+  <si>
+    <t>pfP8nGwJyXzeLUS_FkqUE</t>
+  </si>
+  <si>
+    <t>M71ceUrt3wnecTociAx-r</t>
+  </si>
+  <si>
+    <t>Yr4Ia1SIGUth1nfTjrHN5</t>
+  </si>
+  <si>
+    <t>4g0LAcQWYLll28pgV6BuS</t>
+  </si>
+  <si>
+    <t>WSQi8iqOg6qCp-SmZGHN5</t>
+  </si>
+  <si>
+    <t>kvjm-hGskCJmnR9iMud4U</t>
+  </si>
+  <si>
+    <t>iD-7AtlaIMOl34TMZWmxU</t>
+  </si>
+  <si>
+    <t>PQArSm7ZDWTwNabahDUou</t>
+  </si>
+  <si>
+    <t>vV3ESrxfLzk99QZKuMns3</t>
+  </si>
+  <si>
+    <t>JRjAP31zr1t724ia6kwTk</t>
+  </si>
+  <si>
+    <t>w985qoUpKrWeq1hZ1aJsA</t>
+  </si>
+  <si>
+    <t>wbcA36r-ijfT2IlWhCl0i</t>
+  </si>
+  <si>
+    <t>VPjb9yTrU5wy3rAz4GmAF</t>
+  </si>
+  <si>
+    <t>oHQRAOkzc7rbQGna7Lgxx</t>
+  </si>
+  <si>
+    <t>Z6NuI5leNRHoUNitThHM2</t>
+  </si>
+  <si>
+    <t>jjBNiIyIk9HVPA1XBGnhK</t>
+  </si>
+  <si>
+    <t>_e77AexDPauZX3qTwQA2l</t>
+  </si>
+  <si>
+    <t>P_6wuobdpmCszOuaMyJja</t>
+  </si>
+  <si>
+    <t>1Tz6_HjJxcB70wmAbIwaw</t>
+  </si>
+  <si>
+    <t>ujsuz2Z-edY5AQXuM5KDz</t>
+  </si>
+  <si>
+    <t>i_Zueyc783kyOWZDZQUCM</t>
+  </si>
+  <si>
+    <t>OELnOA5JkN-xuoT8xQH2U</t>
+  </si>
+  <si>
+    <t>iAXbEl12VfTwI3JsZ0TpZ</t>
+  </si>
+  <si>
+    <t>VCx0WdDOjhQu3A9kCHluW</t>
+  </si>
+  <si>
+    <t>wIc0mJZBGhoQWyXPpVpKn</t>
+  </si>
+  <si>
+    <t>YyxmpC1GRMzlBL5kHi7Ys</t>
+  </si>
+  <si>
+    <t>J1r1dfNDtMdNeVGefAdtY</t>
+  </si>
+  <si>
+    <t>8NIxCo67gqzXyOk1-8tc-</t>
+  </si>
+  <si>
+    <t>yCBG6W8PTLkMvc1aESxAM</t>
+  </si>
+  <si>
+    <t>Lv__Hkr4mV-W0fU_Q5Rr9</t>
+  </si>
+  <si>
+    <t>eOSR4U-sfqbTwJFRiVyPU</t>
+  </si>
+  <si>
+    <t>3KThRVMpMIXt7oW_482Ao</t>
+  </si>
+  <si>
+    <t>vO3E6aKrdstonWTzcIAfX</t>
+  </si>
+  <si>
+    <t>tosm7AIFH14fxFVVrPnsc</t>
+  </si>
+  <si>
+    <t>SoUvhHkVR42PRB-041sHf</t>
+  </si>
+  <si>
+    <t>c455aMVsIl0NLn-I6SZ9Q</t>
+  </si>
+  <si>
+    <t>7i_5uTVs9ntvV7BohJ0UB</t>
+  </si>
+  <si>
+    <t>hEQQ2j7aVmjFHBHfsdryn</t>
+  </si>
+  <si>
+    <t>W6YpUmBgI5f2RjINhoBXW</t>
+  </si>
+  <si>
+    <t>gG5TEQfPvPavu_T6tEqiD</t>
+  </si>
+  <si>
+    <t>dJxjaHLOjS-v_uJ2k9tub</t>
+  </si>
+  <si>
+    <t>_Le74Ty6QPG8z6uAq2nrI</t>
+  </si>
+  <si>
+    <t>csyUjEhJlm6IcJqnEdZ5A</t>
+  </si>
+  <si>
+    <t>oXMJx6oHrwssTg2q2ioA7</t>
+  </si>
+  <si>
+    <t>OKbZSBHybYHDTSA3nDO1c</t>
+  </si>
+  <si>
+    <t>X6uie0V-4tU_bSfsYcrro</t>
+  </si>
+  <si>
+    <t>cCj4MswjdlT1Cf4OviNFZ</t>
+  </si>
+  <si>
+    <t>aE_ii0ZUMxs6AFwR2o836</t>
+  </si>
+  <si>
+    <t>6pY3FzY6HCPLpOP3Gnug3</t>
+  </si>
+  <si>
+    <t>Fj1fEI_a2EJ3SU6BJCqSp</t>
+  </si>
+  <si>
+    <t>K0_7fCFjwIBUbE2Qe6wXz</t>
+  </si>
+  <si>
+    <t>zgiid50NIyFaw4JvDhxsb</t>
+  </si>
+  <si>
+    <t>mD7iH15VUvwl_BKQynf0x</t>
+  </si>
+  <si>
+    <t>BPeqRN3lOCRhot55_bGMI</t>
+  </si>
+  <si>
+    <t>rqNTAsFpl5fczYhyUYkfT</t>
+  </si>
+  <si>
+    <t>VxOExCIB0pCNmLxlD7Xiw</t>
+  </si>
+  <si>
+    <t>dN_zwZ3nPrNUPg_Jiw9F0</t>
+  </si>
+  <si>
+    <t>eMXNLOrIzZLj2I1PFTi9J</t>
+  </si>
+  <si>
+    <t>HLh1uBtxR5cvHRg4TXRft</t>
+  </si>
+  <si>
+    <t>qCmOulg5Mma5qO5rrNf_-</t>
+  </si>
+  <si>
+    <t>KN8Cy8g-ESqicRDDKzXgk</t>
+  </si>
+  <si>
+    <t>qp9jHnra6LwsHzaHhNlUy</t>
+  </si>
+  <si>
+    <t>q-Maivj5_yW8ca2Zie4mo</t>
+  </si>
+  <si>
+    <t>6E7yv6sJwDkA7LcRDImkn</t>
+  </si>
+  <si>
+    <t>o0Tu7_ynhIS48IuVaI6_Q</t>
+  </si>
+  <si>
+    <t>7NIHS_92usNFcIk1tB5tz</t>
+  </si>
+  <si>
+    <t>sjFrsONHSPubOFuHTUpuE</t>
+  </si>
+  <si>
+    <t>TYVBB_32XwCkpzF_WLpfN</t>
+  </si>
+  <si>
+    <t>ui4qOwnRAhHAKkCeNEhZg</t>
+  </si>
+  <si>
+    <t>9vOwF-CPV_v-Q8LszGxU7</t>
+  </si>
+  <si>
+    <t>ibaxRvuyBeFepffpQ-CmF</t>
+  </si>
+  <si>
+    <t>KbxPZspk-laUhCwRczMhm</t>
+  </si>
+  <si>
+    <t>VwfqfWSJm0Q5sxtITiikB</t>
+  </si>
+  <si>
+    <t>jWDZV93SiOeK_mEL0jd25</t>
+  </si>
+  <si>
+    <t>FX5O6_nj2CCWEjldaIYr0</t>
+  </si>
+  <si>
+    <t>eaQvXOEiG__r6tBdponHH</t>
+  </si>
+  <si>
+    <t>wp3FzfzuFrZUT44NqrlIl</t>
+  </si>
+  <si>
+    <t>S9bqIBv0cNDG0UHbuiwQb</t>
+  </si>
+  <si>
+    <t>2NFwM9e74C8HwRcp1g2_T</t>
+  </si>
+  <si>
+    <t>Guvm2nwsQOpMsOhRIyZ7a</t>
+  </si>
+  <si>
+    <t>DuxSA_4tEWhvJWTt490s_</t>
+  </si>
+  <si>
+    <t>G1OCWFdLB6NFqSkFXsnuw</t>
+  </si>
+  <si>
+    <t>fX56gE8f-PwP8DROX8i5E</t>
+  </si>
+  <si>
+    <t>D8PwP4SbCFc81-8M_aLIh</t>
+  </si>
+  <si>
+    <t>4eq5AuNED7rHl9TXJ633e</t>
+  </si>
+  <si>
+    <t>M4N9rcPN7_DLggJrKS48U</t>
+  </si>
+  <si>
+    <t>lj5T2pdPdcsd7Q_tIw63X</t>
+  </si>
+  <si>
+    <t>kmdTvEKULn9nZGmmBObXZ</t>
+  </si>
+  <si>
+    <t>kcO5-JsYUdQpcRkEHYJRg</t>
+  </si>
+  <si>
+    <t>q7Cd5M9IvifQjWNX4kGBq</t>
+  </si>
+  <si>
+    <t>_NpzaxwB1lQZ40p7vRmEd</t>
+  </si>
+  <si>
+    <t>6gQU-5vYempy_z4iETYri</t>
+  </si>
+  <si>
+    <t>mQS_rz6TjbKv-sVgIk71k</t>
+  </si>
+  <si>
+    <t>ASx_eQw2yewvKdW1zfocz</t>
+  </si>
+  <si>
+    <t>IMfEW6a8C4d-couox_sCd</t>
+  </si>
+  <si>
+    <t>wFSst6AMfTtNjxD8R0EhC</t>
+  </si>
+  <si>
+    <t>3x764nYybuElJFp0XSniS</t>
+  </si>
+  <si>
+    <t>UMGY7_sPxzOLCoJ-VYJcI</t>
+  </si>
+  <si>
+    <t>utekfoxZEnhE-WlsdK7ct</t>
+  </si>
+  <si>
+    <t>U_LKYcazO1FbyWPQAStYW</t>
+  </si>
+  <si>
+    <t>0f9Fg6yaNtEQxWmpyKvqN</t>
+  </si>
+  <si>
+    <t>D0IrGNCXOo96lkLmi-rmb</t>
+  </si>
+  <si>
+    <t>hFwzXdPoK_JWoEqiy7BTF</t>
+  </si>
+  <si>
+    <t>0rRpyfX9hg6FnVfe2Mcze</t>
+  </si>
+  <si>
+    <t>mn87V_yhZ8LOk3QpzJyKK</t>
+  </si>
+  <si>
+    <t>rwvnMUcLtzYF4zJZcMun8</t>
+  </si>
+  <si>
+    <t>aRQWMYVv4U9-8i5G4lYjk</t>
+  </si>
+  <si>
+    <t>QRCI-KVKFBCZtE6VY7c4N</t>
+  </si>
+  <si>
+    <t>sBdVGZT76zTn4iukhP1vX</t>
+  </si>
+  <si>
+    <t>99QFKyNHbTLGAT68cLmZw</t>
+  </si>
+  <si>
+    <t>XzUuc4-LP2wB4Im-KpZRO</t>
+  </si>
+  <si>
+    <t>9ZzuFiih4TCha2D7Ingqu</t>
+  </si>
+  <si>
+    <t>f0kwvQ3By16MzY5-6oPYl</t>
+  </si>
+  <si>
+    <t>GmQbHF3Ic_gJJT-bpDWxv</t>
+  </si>
+  <si>
+    <t>OeW1p4znTQSVV7MCWe3Z1</t>
+  </si>
+  <si>
+    <t>PgvnVY3BMlXpme2TFAyuo</t>
+  </si>
+  <si>
+    <t>506BtWdhodXod2vmSPqm7</t>
+  </si>
+  <si>
+    <t>5M9Ic9P_xgiVYxVPH2g5s</t>
+  </si>
+  <si>
+    <t>d8Fs0L28wzhNj-x-dT4-j</t>
+  </si>
+  <si>
+    <t>Qe_VCFD_DtgMNLBRVMcCS</t>
+  </si>
+  <si>
+    <t>6w8Mf5nbEtiZfDrUU2Cb0</t>
+  </si>
+  <si>
+    <t>JRLCbBiZpCrkxjyQkvY-e</t>
+  </si>
+  <si>
+    <t>G2P29Juy4suLw49CB9RBB</t>
+  </si>
+  <si>
+    <t>M4BRuEf4LR3HcxmhL8pCs</t>
+  </si>
+  <si>
+    <t>puv0VdOZEaVowHarUUIE5</t>
+  </si>
+  <si>
+    <t>RaWRS-zStHbm0hqr0CCXX</t>
+  </si>
+  <si>
+    <t>nmc36k_M5HDadsuX7tJo2</t>
+  </si>
+  <si>
+    <t>APiUe12KjpXYbO_u2OVZp</t>
+  </si>
+  <si>
+    <t>rgb882ZM3H9Aqe8wCUGG5</t>
+  </si>
+  <si>
+    <t>qyg4LwpXjSYHIFqwKurmm</t>
+  </si>
+  <si>
+    <t>vFkn63lHSteGK2uxnZKaa</t>
+  </si>
+  <si>
+    <t>MSYBX-rgvtFp1so_EnYXm</t>
+  </si>
+  <si>
+    <t>XuTvejzQR6ZC8FDxXSu2J</t>
+  </si>
+  <si>
+    <t>BHW5HSvIOLkdiLFbYc5XN</t>
+  </si>
+  <si>
+    <t>4rNbZ60P6J-dtE9AQm7vJ</t>
+  </si>
+  <si>
+    <t>UgL7fPGIX20D9pStr_a2h</t>
+  </si>
+  <si>
+    <t>Nf-ihS60AXEgdY6bj9jDC</t>
+  </si>
+  <si>
+    <t>jzNMxxJ386YGwmaiHG7S6</t>
+  </si>
+  <si>
+    <t>ydRWGNIj5Fgk5ajPSTSb0</t>
+  </si>
+  <si>
+    <t>vdupWLAAfRyhVGlSz-2vf</t>
+  </si>
+  <si>
+    <t>JZ2nizYA2bLkiVzFF9qD2</t>
+  </si>
+  <si>
+    <t>yuQWa3QCt0zJkpuEa7Y7s</t>
+  </si>
+  <si>
+    <t>42EHdR4ddXQcM6GyunSUf</t>
+  </si>
+  <si>
+    <t>2sqTwOnXlEY0o9R2NeAqr</t>
+  </si>
+  <si>
+    <t>ELUOCf1U0iLFkW8FrOjHY</t>
+  </si>
+  <si>
+    <t>Ubw12N8vfKv7gKbPsSCGv</t>
+  </si>
+  <si>
+    <t>Xnrj7irdcX_KbwAj0oUSM</t>
+  </si>
+  <si>
+    <t>PSzw-j2eLjNV9ugEUQ-xZ</t>
+  </si>
+  <si>
+    <t>9GcELjRus5W6Pf_joYV7H</t>
+  </si>
+  <si>
+    <t>QXgS22H0QJ2AcQcpqa2Er</t>
+  </si>
+  <si>
+    <t>hlM6mPey9QgOlx1dxD-XN</t>
+  </si>
+  <si>
+    <t>Ee6I7azT8G8_7Q_1VX0x6</t>
+  </si>
+  <si>
+    <t>wrpBw3e1MswXvHFLWDzh4</t>
+  </si>
+  <si>
+    <t>zqy5UeLkzid9tduTWLaN7</t>
+  </si>
+  <si>
+    <t>39MwITXaGgtppaft4NVTk</t>
+  </si>
+  <si>
+    <t>iZqa1USckQDzoGQ71kFVZ</t>
+  </si>
+  <si>
+    <t>Q7Hn_TnDKOgBukXbel8cO</t>
+  </si>
+  <si>
+    <t>CI6OBo-7kPkIRpuU7A-on</t>
+  </si>
+  <si>
+    <t>pwjV7mhlM571Xom222ecw</t>
+  </si>
+  <si>
+    <t>v6ZwsgCQgdAksFJGBcCAr</t>
+  </si>
+  <si>
+    <t>rpBUVdGUt7jYl-MI_eKjq</t>
+  </si>
+  <si>
+    <t>YoHE-_NsbX_feu2gfs1pd</t>
+  </si>
+  <si>
+    <t>0aYgRn76RXnssPqzY9C-p</t>
+  </si>
+  <si>
+    <t>vVcOkCfuJlHPbzwBdh_eU</t>
+  </si>
+  <si>
+    <t>OY4GJocySpqQROFHU2WEn</t>
+  </si>
+  <si>
+    <t>9wkeZGkGePz_SAiyMQsCN</t>
+  </si>
+  <si>
+    <t>sel0TBCqrsT513OsuI_X0</t>
+  </si>
+  <si>
+    <t>tKbtCvwrf3_02utOOTNSY</t>
+  </si>
+  <si>
+    <t>I-WZpJ_bsEMMM7WMgHWQu</t>
+  </si>
+  <si>
+    <t>uZ7J1o8DxprmWLqt-aQ6A</t>
+  </si>
+  <si>
+    <t>WhXy_yOkJ0xjyQHOqRSbK</t>
+  </si>
+  <si>
+    <t>mj3rjattJ_coYyb7URt7i</t>
+  </si>
+  <si>
+    <t>_zt8JDXWwYSjD_MCOJ8Fc</t>
+  </si>
+  <si>
+    <t>wgM143ZOjUVMF1KP1UBKi</t>
+  </si>
+  <si>
+    <t>_a3y33H76s_8FEwnYh30d</t>
+  </si>
+  <si>
+    <t>uwKXC_Wy0k7RJ3fLp5HNx</t>
+  </si>
+  <si>
+    <t>c6oqy4SDi3Pu_JWNvh3ih</t>
+  </si>
+  <si>
+    <t>9yvk_MeXfsGnWlQqJNjd_</t>
+  </si>
+  <si>
+    <t>VxDcNvgs_-igOXwgT4RaB</t>
+  </si>
+  <si>
+    <t>3kbkW6UebhPeEGFPItZ9r</t>
+  </si>
+  <si>
+    <t>95CMqZ2XNcFfYEbpLYd6-</t>
+  </si>
+  <si>
+    <t>fMV8xqn8-jbBSOVeRbkPQ</t>
+  </si>
+  <si>
+    <t>VvIgEz9MJ9v9ofhDK7TVm</t>
+  </si>
+  <si>
+    <t>wCClnP1LjhThKsrOkQ9nk</t>
+  </si>
+  <si>
+    <t>7XAAVgH1EkV1Z121I6wWl</t>
+  </si>
+  <si>
+    <t>88upGKje_15AqGoiFXn1L</t>
+  </si>
+  <si>
+    <t>EsChx-zbgmn0pQovqk9oE</t>
+  </si>
+  <si>
+    <t>lKn9g7IP_d0FTcj7JcOgM</t>
+  </si>
+  <si>
+    <t>TplUb3EWuq00t6ii5EQwe</t>
+  </si>
+  <si>
+    <t>vf1xtc7n1K1WF-9JFVyy2</t>
+  </si>
+  <si>
+    <t>mIGbwqCNtUkCOLpVlXyHB</t>
+  </si>
+  <si>
+    <t>GxFxzpj3l2ouKhXdglVqu</t>
+  </si>
+  <si>
+    <t>PkBLR_7RYcuxCvoKmyF7k</t>
+  </si>
+  <si>
+    <t>9-_MpMfvUt3MoOL650xho</t>
+  </si>
+  <si>
+    <t>GRwUOSE5FwNAsEgUDW5ox</t>
+  </si>
+  <si>
+    <t>KMhN2w92AqNch7pj3zHfK</t>
+  </si>
+  <si>
+    <t>JK_lR3LdzB1gKJYoRSHA-</t>
+  </si>
+  <si>
+    <t>bf7cD3A4-jivMSFEeiQt5</t>
+  </si>
+  <si>
+    <t>J4ZLlM9273D5APJUeeU3H</t>
+  </si>
+  <si>
+    <t>p9RkrJiwQ8-PrfANDs6I5</t>
+  </si>
+  <si>
+    <t>naupZ64jYjd8eT7GgoOBF</t>
+  </si>
+  <si>
+    <t>Hkpry30imJqvrGPUp2YN0</t>
+  </si>
+  <si>
+    <t>6KMxCZvIGlLQk_8L3nfpa</t>
+  </si>
+  <si>
+    <t>eGfox9GIYKAlKRfrwxL5h</t>
+  </si>
+  <si>
+    <t>1QicPODOUYv5tIdSixnot</t>
+  </si>
+  <si>
+    <t>p5dCPA-QiwfhnU9rKIV9t</t>
+  </si>
+  <si>
+    <t>apceltIGQtZFgongrorUx</t>
+  </si>
+  <si>
+    <t>8gEKrpXdKoRKXB1M2DOoN</t>
+  </si>
+  <si>
+    <t>ydunClukDbuDvhyuDkzYe</t>
+  </si>
+  <si>
+    <t>Zodj5_GeVtVldz6LpQeM-</t>
+  </si>
+  <si>
+    <t>gJetid9sequ-Xzf_XNQEd</t>
+  </si>
+  <si>
+    <t>1tJvWaT9M57RAo3RRPG8R</t>
+  </si>
+  <si>
+    <t>umG6XdtU0fi8KLxy901BT</t>
+  </si>
+  <si>
+    <t>R_U-13POB_8QNovETe9ug</t>
+  </si>
+  <si>
+    <t>NqtzaRju4ZF95Vxt9Uirg</t>
+  </si>
+  <si>
+    <t>T4y6bgVZziJoRnXFVMX6h</t>
+  </si>
+  <si>
+    <t>PcM-9hSG5TOw3IWxbAHPN</t>
+  </si>
+  <si>
+    <t>K1o0hCsn5GlXswxjHYGWk</t>
+  </si>
+  <si>
+    <t>qUlOa5tV6lMF8YvnqPl_u</t>
+  </si>
+  <si>
+    <t>VUaLUUQE0d0kKZM1boofe</t>
+  </si>
+  <si>
+    <t>W6cNlLhAhsVdXNdd3bK35</t>
+  </si>
+  <si>
+    <t>oS9z2X0s1_57lzkaCrsJm</t>
+  </si>
+  <si>
+    <t>e_U3cvpUProRgzuQUmmBt</t>
+  </si>
+  <si>
+    <t>pSvhbt3loAIA8O7zl7ftE</t>
+  </si>
+  <si>
+    <t>a9rj2QW5_KZuwH2dfOeaT</t>
+  </si>
+  <si>
+    <t>AHb7JxKH1gnT3bEV19Hyo</t>
+  </si>
+  <si>
+    <t>2SssnB3QpUPyqShkDCyeB</t>
+  </si>
+  <si>
+    <t>bMdofCXVJ76d02DhBTg0t</t>
+  </si>
+  <si>
+    <t>VEiq1bMuQycCgaZyEqAqU</t>
+  </si>
+  <si>
+    <t>IfyAIsR6ksaJOkPyOvTZN</t>
+  </si>
+  <si>
+    <t>bZbTdQHS2DK7kF_D_JlTM</t>
+  </si>
+  <si>
+    <t>iAjvSsQz6bFtDkuiPOVEu</t>
+  </si>
+  <si>
+    <t>wiF22jbJYCFidHTXiqiuo</t>
+  </si>
+  <si>
+    <t>N5HYc3vx_6mePX4Kmc3vC</t>
+  </si>
+  <si>
+    <t>gjFKz0AV0QpKjTnVLZe6M</t>
+  </si>
+  <si>
+    <t>HiBVKf2BMMSfEbZL9EXjc</t>
+  </si>
+  <si>
+    <t>OShHTkcDIYmVMWu7xxHUI</t>
+  </si>
+  <si>
+    <t>6DUC1jEG9AUwgVFqRsy3s</t>
+  </si>
+  <si>
+    <t>XYgc8Rag6_Jfo99_FugNb</t>
+  </si>
+  <si>
+    <t>dMj0qsHsmkff5PfpUjTPn</t>
+  </si>
+  <si>
+    <t>7GiytcVYr0GYAp1ybdvOh</t>
+  </si>
+  <si>
+    <t>O4sYiWsGZUs1IsFsBW9v6</t>
+  </si>
+  <si>
+    <t>JnKyoXNwlX3vzrOdJ-r0D</t>
+  </si>
+  <si>
+    <t>b4nVbuNVBVTbzCjdAV0bQ</t>
+  </si>
+  <si>
+    <t>w8m1LLaLcnZ4hZQ_nafIH</t>
+  </si>
+  <si>
+    <t>pzs66O7QXNzclDgUbSBxD</t>
+  </si>
+  <si>
+    <t>HtNARoB6OJrnANocUV6FX</t>
+  </si>
+  <si>
+    <t>43m5mCxOROCMa0uBGdNXT</t>
+  </si>
+  <si>
+    <t>ryXklvROQTJxWhQCh9YfT</t>
+  </si>
+  <si>
+    <t>B7JyjSdn39O7IKiJswSWK</t>
+  </si>
+  <si>
+    <t>vTpAwXMaaKTcaxd2YcHqe</t>
+  </si>
+  <si>
+    <t>Fob7KOJAPAPqWfcHNbW-s</t>
+  </si>
+  <si>
+    <t>f1BBQc4gqv_t7LHJLZdpr</t>
+  </si>
+  <si>
+    <t>QwroSEmWv86HqfBNVQfy9</t>
+  </si>
+  <si>
+    <t>yq4Y6fTgKZQ5-BP0XfeMb</t>
+  </si>
+  <si>
+    <t>EMm8W1-vMx_2QrkpD0cp0</t>
+  </si>
+  <si>
+    <t>L8X93XxtthPrAJ2D7teSd</t>
+  </si>
+  <si>
+    <t>-gEPiRPmVz1Ww_ZcIJOMq</t>
+  </si>
+  <si>
+    <t>hqAx4UISOXmP2ive86jkY</t>
+  </si>
+  <si>
+    <t>RtPw6cMhktzX_uY1vFjVq</t>
+  </si>
+  <si>
+    <t>G7j8g-0ZizoM0TyWpFJTo</t>
+  </si>
+  <si>
+    <t>3fSKjDIxv0xcJo_lRy-wT</t>
+  </si>
+  <si>
+    <t>rRSkg6nomNzK4gguhA5gl</t>
+  </si>
+  <si>
+    <t>_HI-JbAxpbmNEGLE3pKfD</t>
+  </si>
+  <si>
+    <t>5xxQINSfwiuqgUklvEmXf</t>
+  </si>
+  <si>
+    <t>Kh9bON3UfHwlarAneOebu</t>
+  </si>
+  <si>
+    <t>sCzy2NL5aSRbPP3elyj3W</t>
+  </si>
+  <si>
+    <t>KmVLFNRzu7mehGKNUDKkZ</t>
+  </si>
+  <si>
+    <t>WxkstuKQCykpQid-9FXOo</t>
+  </si>
+  <si>
+    <t>glvATbn3hBQo29J0JqfRf</t>
+  </si>
+  <si>
+    <t>JdinCLfkSJK3MP_ajnw9s</t>
+  </si>
+  <si>
+    <t>QASxy-A56eO5mE7w9VvpU</t>
+  </si>
+  <si>
+    <t>yZpUdLy2gj1E9Sx0bz-i3</t>
+  </si>
+  <si>
+    <t>q8iDDVF-fpCfEsJaaj7VV</t>
+  </si>
+  <si>
+    <t>OnsJVrl1QQtOoqlr6vRRi</t>
+  </si>
+  <si>
+    <t>W_E48rzpd4HR8NElpYvX9</t>
+  </si>
+  <si>
+    <t>cLrm2oKNEjSXaEzKTNlqS</t>
+  </si>
+  <si>
+    <t>elAVvieDauA4d0RewqdcK</t>
+  </si>
+  <si>
+    <t>IRf5eMXQd1aZ7_t-VHKrL</t>
+  </si>
+  <si>
+    <t>DCwN007Zf8mVwi-FLVDTL</t>
+  </si>
+  <si>
+    <t>cU9IkTJQZhoutBLbS9v7Y</t>
+  </si>
+  <si>
+    <t>Pej8iSRSvr2tEG2C-RuIE</t>
+  </si>
+  <si>
+    <t>S5ZRmDd7VSHaDtDiejwH6</t>
+  </si>
+  <si>
+    <t>dZWt-pPatZcyHiq3p6gvn</t>
+  </si>
+  <si>
+    <t>YaeaVSLSyyjee8IgZmKtM</t>
+  </si>
+  <si>
+    <t>eGbXInG95THpl2eHwGgMX</t>
+  </si>
+  <si>
+    <t>LHf3N5eNaICLgA09mgKbn</t>
+  </si>
+  <si>
+    <t>M8Je14HsffPajJvFBRWGo</t>
+  </si>
+  <si>
+    <t>cj66n51A1RR8Wozm9xCgk</t>
+  </si>
+  <si>
+    <t>rI0uat9HVOqitAiulTr_f</t>
+  </si>
+  <si>
+    <t>80qT8Hez9iNMNg5J7qAxA</t>
+  </si>
+  <si>
+    <t>s9Zq78iOeMVy8YDyUK9yg</t>
+  </si>
+  <si>
+    <t>LLTEKK21t7RNN4P-b68th</t>
+  </si>
+  <si>
+    <t>2f1qeHi-GoFIkQ91Dk1tr</t>
+  </si>
+  <si>
+    <t>ihR625cs2A85p4yvRITt-</t>
+  </si>
+  <si>
+    <t>PC4HbuBjpmZaI3djRNaVw</t>
+  </si>
+  <si>
+    <t>NwGD4ezLM-3X1eFXMtShZ</t>
+  </si>
+  <si>
+    <t>l_mGiB08YAZhxmQRenlQf</t>
+  </si>
+  <si>
+    <t>u09lSF1G0YTZM8k2huENk</t>
+  </si>
+  <si>
+    <t>ELmJer2PF6jdQVkdkBAzC</t>
+  </si>
+  <si>
+    <t>TXUsnSXC7HEDnqksG8bZE</t>
+  </si>
+  <si>
+    <t>DJiTGQdx4Ul3BMy_pCtfP</t>
+  </si>
+  <si>
+    <t>loxkWKi1K9_1T9uD7rb5f</t>
+  </si>
+  <si>
+    <t>fhzRhdTNZ7-drX7603g2J</t>
+  </si>
+  <si>
+    <t>PTmy3dtXRb8NXKmY0yzuk</t>
+  </si>
+  <si>
+    <t>JJiMcjaMN-YTmh3SwTY2T</t>
+  </si>
+  <si>
+    <t>-gu4VcHOUXVlViil8lsVV</t>
+  </si>
+  <si>
+    <t>JMgJ8E2m4fpZKKFH8GybV</t>
+  </si>
+  <si>
+    <t>wApRi4fBuFsOgGDagc-lh</t>
+  </si>
+  <si>
+    <t>X4DtQ_SK8SbD9tlzrJFYF</t>
+  </si>
+  <si>
+    <t>qze_z6ub66Dsc8EjezbxX</t>
+  </si>
+  <si>
+    <t>FOxH0doZK2LFzYCpeKvdl</t>
+  </si>
+  <si>
+    <t>WjAPiVIpMyYd93uGFhMhw</t>
+  </si>
+  <si>
+    <t>vG46Q_SPCNm7ijDYfUV-L</t>
+  </si>
+  <si>
+    <t>33vhH4A3s4ewx1rbbQ-Nf</t>
+  </si>
+  <si>
+    <t>NG5qAmuIEjByi1CoGZzlP</t>
+  </si>
+  <si>
+    <t>kqoLW1bKxLSq2TN5XjPSj</t>
+  </si>
+  <si>
+    <t>vFgG97yAkPF_hQzr4BBIl</t>
+  </si>
+  <si>
+    <t>9w2znlwdbojJYu37VkLB0</t>
+  </si>
+  <si>
+    <t>mFnVKrTwr11iagS0LdeR7</t>
+  </si>
+  <si>
+    <t>37v14TZ_n2u8K_du-HSfz</t>
+  </si>
+  <si>
+    <t>QQM_dhoR5tH-4rZ43oDYa</t>
+  </si>
+  <si>
+    <t>N40RNCLVwiErgDxilFCm9</t>
+  </si>
+  <si>
+    <t>6ns8HP4uqzsaPX2-aQS-q</t>
+  </si>
+  <si>
+    <t>emHMgjagA9v9amej3TvtY</t>
+  </si>
+  <si>
+    <t>jPRoy2cpU27UQiFYc9uL3</t>
+  </si>
+  <si>
+    <t>F0OSP5JAVM02UhuIsXZMr</t>
+  </si>
+  <si>
+    <t>R7cJCNJ_f_5N74f17ydis</t>
+  </si>
+  <si>
+    <t>vmTXYdPA-oaOXTT9q2tG5</t>
+  </si>
+  <si>
+    <t>PmO-Qrd0cNNqOOwHAY2et</t>
+  </si>
+  <si>
+    <t>Q8YaSqblOUxw3C04hTd_P</t>
+  </si>
+  <si>
+    <t>AQrq5eWi8A6FCnY8hT1j-</t>
+  </si>
+  <si>
+    <t>GXmqCdSApxVxAUsql0669</t>
+  </si>
+  <si>
+    <t>4ENpREf-1PIdkPmPAeJpU</t>
+  </si>
+  <si>
+    <t>oKlKeBltcku1mXHjdGxh7</t>
+  </si>
+  <si>
+    <t>WPwDI-KrrJCZO7-G4FIkW</t>
+  </si>
+  <si>
+    <t>LuyEVl4fJFqJSda00FM4G</t>
+  </si>
+  <si>
+    <t>CMCtoYY2mWrBa_lxKU8Gg</t>
+  </si>
+  <si>
+    <t>1mHL5JQ0FyKESPCRMuXZK</t>
+  </si>
+  <si>
+    <t>lrP3pWaQgJmwMGfZjCV9Z</t>
+  </si>
+  <si>
+    <t>a-IX5C2fJSko_YGMU5YND</t>
+  </si>
+  <si>
+    <t>C_KtMXG4UYKO_UH289t1_</t>
+  </si>
+  <si>
+    <t>WfFRKpjUAFcQ4J5NDwQp8</t>
+  </si>
+  <si>
+    <t>gElni4Fb8gn3IbAsDSlwC</t>
+  </si>
+  <si>
+    <t>3FoMrhqJgcSBiWJG2XpjZ</t>
+  </si>
+  <si>
+    <t>UpkkccE0x0FMv2SE7PKSe</t>
+  </si>
+  <si>
+    <t>qV3cn32TW-wzAjoAqbXAV</t>
+  </si>
+  <si>
+    <t>ALffg1RLgAiynJN2OKNNW</t>
+  </si>
+  <si>
+    <t>uFtRq2mCzQzWJ7kxuL2qk</t>
+  </si>
+  <si>
+    <t>z1AKewbkaBSBH5C1IVvum</t>
+  </si>
+  <si>
+    <t>Gpgbffk-zxXp2sqWNqemZ</t>
+  </si>
+  <si>
+    <t>ih-KUQXREOqf6wkwBoWyW</t>
+  </si>
+  <si>
+    <t>UH1ivBbbUY8p8c7FgP9HF</t>
+  </si>
+  <si>
+    <t>4Vw5kRqDrmRHxT7js28VQ</t>
+  </si>
+  <si>
+    <t>T-JgGWZPK6cW9Xy273S0J</t>
+  </si>
+  <si>
+    <t>Q9EPdVQ2DvXVhY1pNx52H</t>
+  </si>
+  <si>
+    <t>8pZWtrkNETfeeZZLwzVTJ</t>
+  </si>
+  <si>
+    <t>IFc82_Z7KIWz3TnI-BJtA</t>
+  </si>
+  <si>
+    <t>Qol82FXeBg-My14C2GV3P</t>
+  </si>
+  <si>
+    <t>dhGevayAISPH3CX3oQCHt</t>
+  </si>
+  <si>
+    <t>LpoMybIquIXZ1aYH7Miwd</t>
+  </si>
+  <si>
+    <t>Z175-7n0iumimrvrg__E_</t>
+  </si>
+  <si>
+    <t>go1MdbnGclhPEbnwFfFjr</t>
+  </si>
+  <si>
+    <t>GPFHQi4SWnbHk9vuL0ooV</t>
+  </si>
+  <si>
+    <t>b3gMooKioxYyTmwuZgZ8_</t>
+  </si>
+  <si>
+    <t>GlCn_SUNH8cPun_f67Q3l</t>
+  </si>
+  <si>
+    <t>PwgffMiFb1s2gBYzzRHiM</t>
+  </si>
+  <si>
+    <t>9_7BetnhYgN9ezPLDU-Cg</t>
+  </si>
+  <si>
+    <t>inQjxLPhJo4UfVMuSOofp</t>
+  </si>
+  <si>
+    <t>Gxwxyq2MkLgzYAe07yzGf</t>
+  </si>
+  <si>
+    <t>MiRsb1zdFK3gZknph8oL6</t>
+  </si>
+  <si>
+    <t>OiIVIBkkkReAZ9TOKQJVZ</t>
+  </si>
+  <si>
+    <t>7WuMyU0V7UOmq1bUjBS00</t>
+  </si>
+  <si>
+    <t>5fepsMlmVIXegPGjKUZZH</t>
+  </si>
+  <si>
+    <t>NkJDeX2VSuG8m_XalOmrv</t>
+  </si>
+  <si>
+    <t>VrG8Pelsl2hy_v6I4Cc62</t>
+  </si>
+  <si>
+    <t>T0vXXJwURb74kVU-Upgge</t>
+  </si>
+  <si>
+    <t>G95UdhBzqGE5RXWZTp9sR</t>
+  </si>
+  <si>
+    <t>BErh8Z-r36EIJlFSXcJ_I</t>
+  </si>
+  <si>
+    <t>Dpn5k-hHwgzCLxSpFVmdm</t>
+  </si>
+  <si>
+    <t>NxxEI7krTM-9BcbaS2B0w</t>
+  </si>
+  <si>
+    <t>57p5y-P8IG9Oi5hkop5g0</t>
+  </si>
+  <si>
+    <t>I4d-ammPU_2aLYyPqfnZC</t>
+  </si>
+  <si>
+    <t>Jnuogrk5dcFayg6Lz_vIN</t>
+  </si>
+  <si>
+    <t>qzvrvNNDrJGEkRQOgC0mb</t>
+  </si>
+  <si>
+    <t>HRPeXR_1BcuhaX2nZ2b6p</t>
+  </si>
+  <si>
+    <t>WN7_hdcad-Sp-BorG_XQ7</t>
+  </si>
+  <si>
+    <t>rFTX0Ex-SjffxE61XmGCT</t>
+  </si>
+  <si>
+    <t>vU6t6rCF58gwfxYGQXJXQ</t>
+  </si>
+  <si>
+    <t>U1LZrspI5TGQg02ENk5LN</t>
+  </si>
+  <si>
+    <t>3CyoYOObU7P2x_vUb3XqP</t>
+  </si>
+  <si>
+    <t>HJ-gjCgf-Lc7NSv_7-X5M</t>
+  </si>
+  <si>
+    <t>6-VjgH6IA8-6ZzuLeWLNs</t>
+  </si>
+  <si>
+    <t>LksWKBJ_i10QvKmtav85D</t>
+  </si>
+  <si>
+    <t>zQfc7qwgzmiZdAggFm2YI</t>
+  </si>
+  <si>
+    <t>YNnxO3roykh-3wATJaXON</t>
+  </si>
+  <si>
+    <t>JY91Ms6toWCidI4i552HJ</t>
+  </si>
+  <si>
+    <t>g0iAK9560wThr64E1nnfC</t>
+  </si>
+  <si>
+    <t>FcHf7WCWZpkX1nva-zWnN</t>
+  </si>
+  <si>
+    <t>aLSkK5r6IXlbh-6HLGmUY</t>
+  </si>
+  <si>
+    <t>x5_RjKYUYTXGy6uEeYWPK</t>
+  </si>
+  <si>
+    <t>jDSJkq_Cj1w28GaCvjJkJ</t>
+  </si>
+  <si>
+    <t>cISkjGsEtL5TPfJJxpYn-</t>
+  </si>
+  <si>
+    <t>7DNy1X1jV5keA5hNeAF8l</t>
+  </si>
+  <si>
+    <t>vbzVFXenBhAJdIQfumbL9</t>
+  </si>
+  <si>
+    <t>u4VnQCIW-jkrWWeWSRMvH</t>
+  </si>
+  <si>
+    <t>v66UQ6CwWUwZKHRmZhNCB</t>
+  </si>
+  <si>
+    <t>BU8khVDww9A-JqBxO7TR8</t>
+  </si>
+  <si>
+    <t>2e4zEoyo-1jN8PWAlAmnb</t>
+  </si>
+  <si>
+    <t>0yMh0yxPxK89tJOFFGMpy</t>
+  </si>
+  <si>
+    <t>NiXOHNMxpG9-Z3VpDzk5M</t>
+  </si>
+  <si>
+    <t>jtMjgowcaIcNXYDHUVvYO</t>
+  </si>
+  <si>
+    <t>QoBVMAZJonEXk4OlB4_M7</t>
+  </si>
+  <si>
+    <t>hi7M8OSovOSjuEntSBwHX</t>
+  </si>
+  <si>
+    <t>KPHXAQOmiuINstmKcpddf</t>
+  </si>
+  <si>
+    <t>E_bBbDrDsNefr4gjaR0hp</t>
+  </si>
+  <si>
+    <t>wgDLnE1FPTnbiuUUdJBMD</t>
+  </si>
+  <si>
+    <t>r4QUSGg17RFn7NCGsHGJ2</t>
+  </si>
+  <si>
+    <t>ISGOA2RmSQD8343PbKIeG</t>
+  </si>
+  <si>
+    <t>0beAmBrz2Gl9s6HD9ATND</t>
+  </si>
+  <si>
+    <t>NyS7JgDKMh43f-cdLDhOm</t>
+  </si>
+  <si>
+    <t>yAWm_ywomeWsDvDTSU-kC</t>
+  </si>
+  <si>
+    <t>EtDuM_0jsGiqX6tpwWVJ8</t>
+  </si>
+  <si>
+    <t>zDMh4oK5cuJ75CeUOKRt0</t>
+  </si>
+  <si>
+    <t>jyCb582v6rYw_q7BBIfOF</t>
+  </si>
+  <si>
+    <t>1GOdNJNqGuQqxPaI8RI8J</t>
+  </si>
+  <si>
+    <t>nmVZ1NQ8B26eK40aN5aYj</t>
+  </si>
+  <si>
+    <t>xf7egMwxoRBn54M6OMEQo</t>
+  </si>
+  <si>
+    <t>DlCz82vcIw7-OU36NU3ye</t>
+  </si>
+  <si>
+    <t>d-OYb-wyk-2h3YEdy9z6M</t>
+  </si>
+  <si>
+    <t>WoHJMHglPiTBFgYXBAw8m</t>
+  </si>
+  <si>
+    <t>1UWR83gXzHP8GpIjA5YAS</t>
+  </si>
+  <si>
+    <t>EeMVpmUY7Q3I8eH_0k1zB</t>
+  </si>
+  <si>
+    <t>11W3HFOalrtQutU7CeyJ_</t>
+  </si>
+  <si>
+    <t>ChnNY6lfVXQfjunMyH0oz</t>
+  </si>
+  <si>
+    <t>Tw4qVY7xZWe2qqH1x19am</t>
+  </si>
+  <si>
+    <t>Hzmo0HbiQjmlJodocrcug</t>
+  </si>
+  <si>
+    <t>er2c4sgjvnFyJy09YtxaL</t>
+  </si>
+  <si>
+    <t>Z8gIwQo1gHd1SMLlNWk1S</t>
+  </si>
+  <si>
+    <t>AlT-P5FcPCK_TETBi45cs</t>
+  </si>
+  <si>
+    <t>FKubwyG10X27ubjhxaSmy</t>
+  </si>
+  <si>
+    <t>Uol1cjO8u1SHO1uwDDVtB</t>
+  </si>
+  <si>
+    <t>ww2PE-otuFV0F_NP9BZEu</t>
+  </si>
+  <si>
+    <t>XIzL7dot0sLUWokqB5XuV</t>
+  </si>
+  <si>
+    <t>glUvHnmH87IkBh0cqUvUb</t>
+  </si>
+  <si>
+    <t>t44FDkvNEOGNstTt51xgK</t>
+  </si>
+  <si>
+    <t>8oXsAAOlsFN9gcg2DSf8e</t>
+  </si>
+  <si>
+    <t>M4UQxopW2dwYmFb_J8DXT</t>
+  </si>
+  <si>
+    <t>G1ISlwSiAO01aOyC8o-g-</t>
+  </si>
+  <si>
+    <t>MA6n622lJDCQ_Ys7-lTMc</t>
+  </si>
+  <si>
+    <t>b2US-e3z8KR8hQlKBRo3N</t>
+  </si>
+  <si>
+    <t>wrkFLzrLLVXBqlp1WCPzK</t>
+  </si>
+  <si>
+    <t>DQp69Ip2D9flJs9dyIBye</t>
+  </si>
+  <si>
+    <t>v9HhbWSjuFlm9Qai2ryp2</t>
+  </si>
+  <si>
+    <t>ma4_gEJwAN9j2_OO7wr-N</t>
+  </si>
+  <si>
+    <t>sLaUqY9OrNMRDfMf_7qnS</t>
+  </si>
+  <si>
+    <t>o7bRAaB0EouzSMxVLjIDH</t>
+  </si>
+  <si>
+    <t>GMfH0MYkzGxbVfgWR9ZRg</t>
+  </si>
+  <si>
+    <t>oAVHElsP75hlVvR6-bAi3</t>
+  </si>
+  <si>
+    <t>zKZa9fJITjyU3-Qn2ktd0</t>
+  </si>
+  <si>
+    <t>EjL5P5T8qc2C7hxWQB6Ic</t>
+  </si>
+  <si>
+    <t>GR0WM4cT7Wv7WXmKDmp9q</t>
+  </si>
+  <si>
+    <t>u_QyDDXsbiPWZjKKTJNnT</t>
+  </si>
+  <si>
+    <t>bf3-WBob9Qd-478AUNk7A</t>
+  </si>
+  <si>
+    <t>IUXfM_GS0JjWjmyLkYnEN</t>
+  </si>
+  <si>
+    <t>EAuqEoeIe-0268dIAWUJG</t>
+  </si>
+  <si>
+    <t>8Cxs-aCJbypEos-X6wDCE</t>
+  </si>
+  <si>
+    <t>rKK9AWW56tlbyYW-oMbXX</t>
+  </si>
+  <si>
+    <t>mXGXKVOeHdswqYmpdHhnd</t>
+  </si>
+  <si>
+    <t>LNyc4XX_hTheHG998c9zW</t>
+  </si>
+  <si>
+    <t>teoBkX-nk8jvdnT4uKJP2</t>
+  </si>
+  <si>
+    <t>y-28DAvU1Erw4nIgMwHO3</t>
+  </si>
+  <si>
+    <t>BnNCTME01ZpSwiwIp1z9R</t>
+  </si>
+  <si>
+    <t>PG5q4QYALd1IU_RjU38dO</t>
+  </si>
+  <si>
+    <t>d1MxctIjd3TmB-THCEQrs</t>
+  </si>
+  <si>
+    <t>cZ_JVH_sWODpwBZcGn1eA</t>
+  </si>
+  <si>
+    <t>GBPioIRanvWP0zALpLpL9</t>
+  </si>
+  <si>
+    <t>QDOPnnd5XHan1-BBv9NbF</t>
+  </si>
+  <si>
+    <t>KsuYWrStizv--dW1Tasek</t>
+  </si>
+  <si>
+    <t>4rfTlgtuPTCWMM6wm_2-f</t>
+  </si>
+  <si>
+    <t>CeWTgAArJnZY6K9k-MhBG</t>
+  </si>
+  <si>
+    <t>noU6w_lft5IBOHlIYI6Hp</t>
+  </si>
+  <si>
+    <t>iLEzEK57zkc2-oqQTld5c</t>
+  </si>
+  <si>
+    <t>snnsZDWFqO8QQ59vyMvXp</t>
+  </si>
+  <si>
+    <t>ozUueLA3s2h-wNNvY4_ue</t>
+  </si>
+  <si>
+    <t>hM4pdMU5iDiCnooMDxc1g</t>
+  </si>
+  <si>
+    <t>5pffX25XLVqnfkqA4xAZY</t>
+  </si>
+  <si>
+    <t>uPaAWPbFTBy6BN8JHyelW</t>
+  </si>
+  <si>
+    <t>C5yryqTJSJaWLnalVqBYT</t>
+  </si>
+  <si>
+    <t>NpTR_L-j_zBxkJx5PSXMl</t>
+  </si>
+  <si>
+    <t>O7lrYSH69HIfChZbxKgD4</t>
+  </si>
+  <si>
+    <t>NJSvRUTpOW0uzxaOnVSWt</t>
+  </si>
+  <si>
+    <t>0ZV7_SPD_v6iXyd3W4Urf</t>
+  </si>
+  <si>
+    <t>YCDjPiSRjGdzgdItKyO8Q</t>
+  </si>
+  <si>
+    <t>_Z8RJksPfNhxjqtE5DowS</t>
+  </si>
+  <si>
+    <t>nWCUeAVpf5-9l0ORn6GJs</t>
+  </si>
+  <si>
+    <t>zS0XzOt9IIbIttD460cH3</t>
+  </si>
+  <si>
+    <t>XABE_kvSzUwbirQZGwnSh</t>
+  </si>
+  <si>
+    <t>zEinlDnL_wNF9vYhuY55t</t>
+  </si>
+  <si>
+    <t>xeYy3UpIsI1YxTLtlEMiF</t>
+  </si>
+  <si>
+    <t>BZjuIyhVl9qOEiLZN95bU</t>
+  </si>
+  <si>
+    <t>Ex23D8WeGyHeRHXiYGNq2</t>
+  </si>
+  <si>
+    <t>mmQu7OnWfCbFfe-p6km-e</t>
+  </si>
+  <si>
+    <t>7f0kz74qaD_QQ1Nde7b5z</t>
+  </si>
+  <si>
+    <t>HSW1n0KH4-lChzBQ5XUHk</t>
+  </si>
+  <si>
+    <t>ahhSolwEwnWBlTN6m8t0c</t>
+  </si>
+  <si>
+    <t>Ibkh2lcg8XQJgZ_9f7AW5</t>
+  </si>
+  <si>
+    <t>OEwc0XIPN3zh2k3gzHW9C</t>
+  </si>
+  <si>
+    <t>xjI9zFpQ-R48qyb4gTyJ3</t>
+  </si>
+  <si>
+    <t>S7rTFnml-7K0IEK1mqmFm</t>
+  </si>
+  <si>
+    <t>6DAm3THavm2nHADXeVEFw</t>
+  </si>
+  <si>
+    <t>QtthRrWt2JLeaUdStX5B8</t>
+  </si>
+  <si>
+    <t>_88XneoT6NFYwqafof00w</t>
+  </si>
+  <si>
+    <t>bFtYNVZaGVVRcse_B_8PW</t>
+  </si>
+  <si>
+    <t>IFeIR27fsHRrA7DAeR_28</t>
+  </si>
+  <si>
+    <t>igEAmrqQJr9pNbBp9T2zD</t>
+  </si>
+  <si>
+    <t>u77CyuwXj9oMBpF4HPcd_</t>
+  </si>
+  <si>
+    <t>GA4JAj-JXmaNiy5FuZlAl</t>
+  </si>
+  <si>
+    <t>-oF9B6OEbWqfLNoe9vDkc</t>
+  </si>
+  <si>
+    <t>fK7sBtZl1qAD_Z5YsOhwA</t>
+  </si>
+  <si>
+    <t>6AkxvRhOE-FRLI8E6-v2e</t>
+  </si>
+  <si>
+    <t>d_k93zvZqCdZrER_uEBX8</t>
+  </si>
+  <si>
+    <t>_9-hUr0vVQGA-zUWXS9-N</t>
+  </si>
+  <si>
+    <t>n12vgPiSRpGSLArwBOVLU</t>
+  </si>
+  <si>
+    <t>bTCuvNcC2QZ7yAsE0g5Fl</t>
+  </si>
+  <si>
+    <t>nnpLhbnXnoko8Qqnr6CGH</t>
+  </si>
+  <si>
+    <t>33tcoLw0p7DjkoqrnntF8</t>
+  </si>
+  <si>
+    <t>P3m73nNNLCtwscxgzmBnt</t>
+  </si>
+  <si>
+    <t>fEm3KxuTlMgp6XXXRxvOb</t>
+  </si>
+  <si>
+    <t>Ls4M_PEJ8c2VsGyjBBR8g</t>
+  </si>
+  <si>
+    <t>ui1h-8ZsxnauhlCtt-Ro8</t>
+  </si>
+  <si>
+    <t>1BKmam9-xDVJNwnfzWpDe</t>
+  </si>
+  <si>
+    <t>DwId-F8lfySd-l1Io5lbQ</t>
+  </si>
+  <si>
+    <t>GvgCQ8bWjl1Y0nAnufQ-l</t>
+  </si>
+  <si>
+    <t>VYaoOQX-Yx9WvT8yIr_LJ</t>
+  </si>
+  <si>
+    <t>R_x5jmxBZmM4_8GDBwPIh</t>
+  </si>
+  <si>
+    <t>63Hr0cuDAvPB-1SblqRk8</t>
+  </si>
+  <si>
+    <t>DL0WAUFM24aVi269QKjdZ</t>
+  </si>
+  <si>
+    <t>DHDKsj-k5NMMYUnQwgKbu</t>
+  </si>
+  <si>
+    <t>v9bAMMLIs6mWeJNH43jFh</t>
+  </si>
+  <si>
+    <t>VY3hbVd3bFyxMl6GFxovS</t>
+  </si>
+  <si>
+    <t>-OzvtHzmCqJm5fMRtJu8u</t>
+  </si>
+  <si>
+    <t>TupHCtl42C6q0o_HtR6r1</t>
+  </si>
+  <si>
+    <t>gSTKFlttcPuDeJfg1NJz8</t>
+  </si>
+  <si>
+    <t>ff_-1GZy_ZkjKZa5AVXVA</t>
+  </si>
+  <si>
+    <t>nNy2LNGlJ5JuL_joFYMFt</t>
+  </si>
+  <si>
+    <t>0BRRLqwQKjQ4txLvg_IwV</t>
+  </si>
+  <si>
+    <t>OfdKPVHF_FCMSQq6bHeBG</t>
+  </si>
+  <si>
+    <t>TSTwJ1tZCrbbzMoaPy7L6</t>
+  </si>
+  <si>
+    <t>DMTgkyrGk_eylkpvn_JsV</t>
+  </si>
+  <si>
+    <t>P_wVfXSH6bRX8LJ4sBf56</t>
+  </si>
+  <si>
+    <t>6k9ETjSp5HGnbPhoZS3YJ</t>
+  </si>
+  <si>
+    <t>HkFAWz893xNPZ5QJoM4fO</t>
+  </si>
+  <si>
+    <t>f6RKkHdjMAvJ3YjHLhWan</t>
+  </si>
+  <si>
+    <t>SuPHwa_IJId0CGhQHo7H-</t>
+  </si>
+  <si>
+    <t>BAW2LQzzTztIPnYQ3b4uT</t>
+  </si>
+  <si>
+    <t>fZEbKrpBjrUTWpNwIJgeJ</t>
+  </si>
+  <si>
+    <t>9tig2Dv7EYiPWhuhGAza4</t>
+  </si>
+  <si>
+    <t>fPQcb7pHNWi7FXA60cJ8c</t>
+  </si>
+  <si>
+    <t>1DCjKTSRSdIOq8mtT6ocO</t>
+  </si>
+  <si>
+    <t>yHEB0dzXm-J4S9j3wHGBH</t>
+  </si>
+  <si>
+    <t>MVB0hn9lwCn89EJLx7fm0</t>
+  </si>
+  <si>
+    <t>8AOnn9uluIjV9dtueq3ut</t>
+  </si>
+  <si>
+    <t>5PnpRb3pVS3nr7G2boyJH</t>
+  </si>
+  <si>
+    <t>1VcEaR5buHvnFMcYV2JxK</t>
+  </si>
+  <si>
+    <t>XsTk6K41__oN7UwoRTiUC</t>
+  </si>
+  <si>
+    <t>3gnDyfXeaZHA2-YoRk-7y</t>
+  </si>
+  <si>
+    <t>_-wVDDQJPcGyI1D8Z58Ri</t>
+  </si>
+  <si>
+    <t>oo5D7dNA_nY-QtDJUEhAt</t>
+  </si>
+  <si>
+    <t>3NpE6_TdpWs_NO64OdKwl</t>
+  </si>
+  <si>
+    <t>nF7X-iO3EyRWPlMYPIbBL</t>
+  </si>
+  <si>
+    <t>vvl479PedPo12gNf_4HZD</t>
+  </si>
+  <si>
+    <t>2k5CWuHzGjTzfNpsuvwZ2</t>
+  </si>
+  <si>
+    <t>Q4Kd1A3gh88MKMKVxVbGm</t>
+  </si>
+  <si>
+    <t>jBYjuyrdjpXHWNKtRYFqp</t>
+  </si>
+  <si>
+    <t>riWKIQiRV-Qm-TUwC_p9z</t>
+  </si>
+  <si>
+    <t>MiXgG60DeL36JufU9mMJk</t>
+  </si>
+  <si>
+    <t>PngIOKlYAImhmBOtjKU9V</t>
+  </si>
+  <si>
+    <t>tzpJmiHX1lKJyTnYoQxUg</t>
+  </si>
+  <si>
+    <t>OWaaI0B5YOUpuBVb_iPh6</t>
+  </si>
+  <si>
+    <t>Z-fCeb5vHdrjjBByDG8rm</t>
+  </si>
+  <si>
+    <t>nTLsbmsZVILh4xnKf93U1</t>
+  </si>
+  <si>
+    <t>bsbsZeyC7GC9Mw0JGZfRM</t>
+  </si>
+  <si>
+    <t>vXschbTkjowFnkzNzeWwp</t>
+  </si>
+  <si>
+    <t>JsOJ6rqUso3va7V_KSVzj</t>
+  </si>
+  <si>
+    <t>RCHdWEwrUQanPcPyAYR4g</t>
+  </si>
+  <si>
+    <t>B1WzGDErcrYQfRiYaUnTE</t>
+  </si>
+  <si>
+    <t>X930rXTR7390uZAK1mOpf</t>
+  </si>
+  <si>
+    <t>AikdjGwzCL7l59uib_QpO</t>
+  </si>
+  <si>
+    <t>Mo-qvdWZ3A6LfYTPOge7q</t>
+  </si>
+  <si>
+    <t>oXEqV6MYwdw5Ob0TscvTV</t>
+  </si>
+  <si>
+    <t>crVqRApAkmSKjK4vNrKHs</t>
+  </si>
+  <si>
+    <t>cfZYUIw53LuvP6k-PLVHH</t>
+  </si>
+  <si>
+    <t>0-dwweAogggRGjJ_5EmDb</t>
+  </si>
+  <si>
+    <t>_Wr_RMhTqexTx8H0HjQCl</t>
+  </si>
+  <si>
+    <t>WapT7zmFZ7G0Kiz8kShsQ</t>
+  </si>
+  <si>
+    <t>Ro-JmKMACQMqkHbYCmDi0</t>
+  </si>
+  <si>
+    <t>_IAA8gbEPz3swMoAR5Ui-</t>
+  </si>
+  <si>
+    <t>zRnj6FwkO38mJiG40OZuk</t>
+  </si>
+  <si>
+    <t>LR_YmJFKUenEokn-3fDUR</t>
+  </si>
+  <si>
+    <t>M4NnF90kI2Bdo_zJLYT-1</t>
+  </si>
+  <si>
+    <t>AERSScMWtLEBoOfrHwp9J</t>
+  </si>
+  <si>
+    <t>FThSZZtt_1hgTCh16PkvW</t>
+  </si>
+  <si>
+    <t>FF_DU-bZbMsx4_7qzNXAo</t>
+  </si>
+  <si>
+    <t>sIPp3WnLx27DuHoC2clk0</t>
+  </si>
+  <si>
+    <t>b2BU9pModBj9O_C8ZirDQ</t>
+  </si>
+  <si>
+    <t>q0lUWaQ2sN3PRb2ervbFi</t>
+  </si>
+  <si>
+    <t>X02l4FS0l6tZgBhCEQmIS</t>
+  </si>
+  <si>
+    <t>kvoNPJGo7OBUaC4qtTrYW</t>
+  </si>
+  <si>
+    <t>8FHTxWhd7wTYzmOqXcwFa</t>
+  </si>
+  <si>
+    <t>bKVn2W5-omK9wD0r06lsF</t>
+  </si>
+  <si>
+    <t>ECQRLPGib205ZHhUXz718</t>
+  </si>
+  <si>
+    <t>GKy-Glsmtld-Tumt-QePD</t>
+  </si>
+  <si>
+    <t>H5s-PdsMnCuMDX0q7cST_</t>
+  </si>
+  <si>
+    <t>mOPdotP6E1Vvi_u9P2yu9</t>
+  </si>
+  <si>
+    <t>ZSJEaFd1XgVHf7Rwv5ij7</t>
+  </si>
+  <si>
+    <t>INx6lPJ0K31iOF4Jjd7m1</t>
+  </si>
+  <si>
+    <t>tLAUSlkbpw-b9P3n0U1Z0</t>
+  </si>
+  <si>
+    <t>kQmy9Yp2E8aosXa0QaKfy</t>
+  </si>
+  <si>
+    <t>eh_GtQPoQ9i9BIiczrsg1</t>
+  </si>
+  <si>
+    <t>kh2IzHfD6KpJ7ort-dcjE</t>
+  </si>
+  <si>
+    <t>ecskDTkjNQHo7ZSQmNqgx</t>
+  </si>
+  <si>
+    <t>06ldmzU-FVUVnnC-azb3h</t>
+  </si>
+  <si>
+    <t>3rYDBiE80M8Z2BSYbcMRz</t>
+  </si>
+  <si>
+    <t>0ZuxDHyLALVB97OryiNSN</t>
+  </si>
+  <si>
+    <t>WrtYimw-VeN7nYWb8f1rW</t>
+  </si>
+  <si>
+    <t>R5Ktae0JSqpuQvREeQjYM</t>
+  </si>
+  <si>
+    <t>8OZPsOq7LpGsIwEJNm6HU</t>
+  </si>
+  <si>
+    <t>NngRmXKOm6S97sr5_BgAW</t>
+  </si>
+  <si>
+    <t>Y8RBeALI8hVIox4evykXO</t>
+  </si>
+  <si>
+    <t>sLUDkLtdv1ZX5UjV_Wpu6</t>
+  </si>
+  <si>
+    <t>ShSq4ipu-wSNZUToW_mYK</t>
+  </si>
+  <si>
+    <t>f1_l0m8MSMf2UF0Ea_x0A</t>
+  </si>
+  <si>
+    <t>3fN1F0qAw3Fx5Q7Iaqwp_</t>
+  </si>
+  <si>
+    <t>DMpmZZ-8woeYgZ3PfEmGu</t>
+  </si>
+  <si>
+    <t>zNS96qs43qBT_wshUdlSL</t>
+  </si>
+  <si>
+    <t>XuXsLEtQxYBoysj8L-UlC</t>
+  </si>
+  <si>
+    <t>KB8gH2bTQQz_LTzymvRgU</t>
+  </si>
+  <si>
+    <t>2rWWJsr5du2nviWx51eP_</t>
+  </si>
+  <si>
+    <t>u3NuMe771MkeK7uhkwmvS</t>
+  </si>
+  <si>
+    <t>M6PZQ0qAHGk3pATjdEdrm</t>
+  </si>
+  <si>
+    <t>q60JvZ2EvnUPsPXDV4oTO</t>
+  </si>
+  <si>
+    <t>9bdFW-kbDrLYZh3hD4tHx</t>
+  </si>
+  <si>
+    <t>NxSXMRzauN_SnorFP8RtG</t>
+  </si>
+  <si>
+    <t>Brwz4ZzZ7oPK8Sx25ojbz</t>
+  </si>
+  <si>
+    <t>1uu2KSAw8FLawgQYi-eEV</t>
+  </si>
+  <si>
+    <t>oTp-8zV1U0s1NY_hvGAQf</t>
+  </si>
+  <si>
+    <t>AcrOu__1P6dTQfQaEIXqo</t>
+  </si>
+  <si>
+    <t>0o9T4JPbnyQ0-l12XF5Zq</t>
+  </si>
+  <si>
+    <t>qDrg0y2SSub0A-jpHBPT3</t>
+  </si>
+  <si>
+    <t>12CtY39GNn5kEzhbdavyO</t>
+  </si>
+  <si>
+    <t>eFRytdfdds31wHz1tWHIe</t>
+  </si>
+  <si>
+    <t>oOpUktdavVjGfZrtjU-Ir</t>
+  </si>
+  <si>
+    <t>oO5JQbYREF_8a5KY9j9rt</t>
+  </si>
+  <si>
+    <t>Uh1rO5yeDvHCEF2sLVE5W</t>
+  </si>
+  <si>
+    <t>Y1ZSwjsVdSapruLwiDJZh</t>
+  </si>
+  <si>
+    <t>wuNGUfQXe5vmeAib0ojb_</t>
+  </si>
+  <si>
+    <t>ZC5vtALOkk8kVWfwmWwE6</t>
+  </si>
+  <si>
+    <t>BCud9WQ0meH2-WifOMMUB</t>
+  </si>
+  <si>
+    <t>V-aMFeTa06d-9cbTzRwhC</t>
+  </si>
+  <si>
+    <t>2gDJqsX6BQ9uEkhYHzmq5</t>
+  </si>
+  <si>
+    <t>ld5Zx6eOe3hBiJx3ln11Y</t>
+  </si>
+  <si>
+    <t>gZquy-bMkasS1gRQ9aZoB</t>
+  </si>
+  <si>
+    <t>qVZaOuDSxfmkEOa7K-B_Q</t>
+  </si>
+  <si>
+    <t>9mnhIxgxI4xi2xrmRO80A</t>
+  </si>
+  <si>
+    <t>tam8Y-KtO6iP4hx_4wNLg</t>
+  </si>
+  <si>
+    <t>6iCGJ_EBDrdZWZISKPCOE</t>
+  </si>
+  <si>
+    <t>bYO3ixkNcQExJ_wa1RtZ1</t>
+  </si>
+  <si>
+    <t>kfzyBDcXY6bVXUL6Rup9E</t>
+  </si>
+  <si>
+    <t>UrLw3Z3f854rquKXS7Wd_</t>
+  </si>
+  <si>
+    <t>lug6t7N1T8Bm1nwHsS6Dl</t>
+  </si>
+  <si>
+    <t>Yd25yaNKmht96qUFCmjpZ</t>
+  </si>
+  <si>
+    <t>3o2ygSRymKVfTgfvQZs5Z</t>
+  </si>
+  <si>
+    <t>dnx7AVSaBOUGsvXYF24au</t>
+  </si>
+  <si>
+    <t>_Ha3j_-7uIwLQ1tneZEpv</t>
+  </si>
+  <si>
+    <t>qRQ3COeIfOqyAHBjpyA06</t>
+  </si>
+  <si>
+    <t>DGRbBgZMAomTb02q4ENgb</t>
+  </si>
+  <si>
+    <t>P7fvmms2LnsCKKeIUBJQi</t>
+  </si>
+  <si>
+    <t>32bxWc1DcDcvcvUxefQay</t>
+  </si>
+  <si>
+    <t>ET2sSNiCum5P5Z0pdDxI3</t>
+  </si>
+  <si>
+    <t>yDgOgfSjHy2n9E3vlfxtD</t>
+  </si>
+  <si>
+    <t>9kgPN7CRYKjxgrKPOGcQS</t>
+  </si>
+  <si>
+    <t>JRo9fILSaXgsQYSJ4CbeQ</t>
+  </si>
+  <si>
+    <t>qeLa85YhoM67fQKBqjoKM</t>
+  </si>
+  <si>
+    <t>_q2ffaRzaGBbhaeUHADDj</t>
+  </si>
+  <si>
+    <t>V1S5_kvTBhRU22n5Pyzxt</t>
+  </si>
+  <si>
+    <t>iRoTIc_RLQQNHWyL13vE5</t>
+  </si>
+  <si>
+    <t>1vZQi6HYWTqbhqdVFtaju</t>
+  </si>
+  <si>
+    <t>CBakH2XI8naLC1fNexKTa</t>
+  </si>
+  <si>
+    <t>bm1xvk3uZyOmIsN0LjwT5</t>
+  </si>
+  <si>
+    <t>5tbTtNvmzmg2SKyRdVj8y</t>
+  </si>
+  <si>
+    <t>xdUhNO5mDegsHVmotbpSE</t>
+  </si>
+  <si>
+    <t>zMcNwRT5Yymelfyp3vEny</t>
+  </si>
+  <si>
+    <t>TxULy7_cwKWyifEis00UO</t>
+  </si>
+  <si>
+    <t>9UmbeEuUIOVlHmGP6IM2j</t>
+  </si>
+  <si>
+    <t>fFpLZqUAZtjogZ6G6-s6h</t>
+  </si>
+  <si>
+    <t>uZDcyQWO7AyBiey7_UaRR</t>
+  </si>
+  <si>
+    <t>8ofEtYzXo26MzvnJQayzs</t>
+  </si>
+  <si>
+    <t>Q203ibqvQpEHbCa8P8su1</t>
+  </si>
+  <si>
+    <t>ZE53uHGM_obB7P8PQWeG7</t>
+  </si>
+  <si>
+    <t>p9Hc6PP0VmN7Od9tKgZik</t>
+  </si>
+  <si>
+    <t>KYue2qQMXulBzrCMjW-6J</t>
+  </si>
+  <si>
+    <t>jgQOsuaEv9Ccv0XjC1BNQ</t>
+  </si>
+  <si>
+    <t>6T7T4bzPs8MjG5KlNubNX</t>
+  </si>
+  <si>
+    <t>tQD5lF1J3TDxWxBKXBFl2</t>
+  </si>
+  <si>
+    <t>YCeKdNIrI3Q2K-dYeQjMG</t>
+  </si>
+  <si>
+    <t>_3yv7nlI43Z2CaPL9BD-J</t>
+  </si>
+  <si>
+    <t>NRH9PAdVqggIc4YtTpogD</t>
+  </si>
+  <si>
+    <t>EA-5N9VgzOlZdWc1lht6N</t>
+  </si>
+  <si>
+    <t>XNXj-UQCUaSRsxiUqkFp-</t>
+  </si>
+  <si>
+    <t>FPLJELWKbak1-6WdM8nO1</t>
+  </si>
+  <si>
+    <t>OiJ7tzDuaTge33IA0Rtb0</t>
+  </si>
+  <si>
+    <t>Z2pILOp4CK3mx6eJtpAWN</t>
+  </si>
+  <si>
+    <t>c3x36OP7awPNRflbNTVYe</t>
+  </si>
+  <si>
+    <t>EzOhbCzTHEYA35ftfwQky</t>
+  </si>
+  <si>
+    <t>-RIscOq1L44ojo1n9XAwq</t>
+  </si>
+  <si>
+    <t>BuEjsNK8HFyqpXKfxTKAp</t>
+  </si>
+  <si>
+    <t>SvEPu-oyElgY9z_H2Sv5c</t>
+  </si>
+  <si>
+    <t>CKKKtxGFSHXMY_8iNZFOI</t>
+  </si>
+  <si>
+    <t>AIEzqpQEocasZtUekrdhB</t>
+  </si>
+  <si>
+    <t>wCKIYFVm1qwuwNX6eo9Mc</t>
+  </si>
+  <si>
+    <t>TCjA-1dujyxCmiqwTVkU5</t>
+  </si>
+  <si>
+    <t>k01X9BjnkM2Lgc702tlgp</t>
+  </si>
+  <si>
+    <t>AbIsCJUF5mS_1uAbbNb2V</t>
+  </si>
+  <si>
+    <t>nyeIgPtkvRqNJMTk2tDjz</t>
+  </si>
+  <si>
+    <t>brwMj9XvOnzzlp9y8Z8Jv</t>
+  </si>
+  <si>
+    <t>C4B5CIw8Bec6IFhlzDxYF</t>
+  </si>
+  <si>
+    <t>5DaeCCZQRDKzFet0fxKJo</t>
+  </si>
+  <si>
+    <t>90B7koF0PsjNkbResSuHX</t>
+  </si>
+  <si>
+    <t>SCD4KJwcrcZL_4hqcI87i</t>
+  </si>
+  <si>
+    <t>UE4TWmq3phfGtaYDFtMf6</t>
+  </si>
+  <si>
+    <t>uyYHarTL_0YXmcIsPV09f</t>
+  </si>
+  <si>
+    <t>VIrqC5cEW0b4GKYfnvclg</t>
+  </si>
+  <si>
+    <t>i5ujPaHVQLNIl18wrBhho</t>
+  </si>
+  <si>
+    <t>uSPTeqNSPwYLE-meHHPsj</t>
+  </si>
+  <si>
+    <t>QbaSkoZs_72WhC8f4o-Wk</t>
+  </si>
+  <si>
+    <t>JUi9BFZnXxRCG8viJabS2</t>
+  </si>
+  <si>
+    <t>kFWHU0GuJ1T9l9WxaTfmx</t>
+  </si>
+  <si>
+    <t>tCrZmuNptvsz8STJlDD-N</t>
+  </si>
+  <si>
+    <t>eD9pKjOPoKVexzgbBY6pn</t>
+  </si>
+  <si>
+    <t>lBMYsDo-exOC5Euf_UNOS</t>
+  </si>
+  <si>
+    <t>4fR9JDU3Bd5tCA_fNOq__</t>
+  </si>
+  <si>
+    <t>wyceaL7_EW0G8dJhzsU7l</t>
+  </si>
+  <si>
+    <t>X7u7Kl4KVwikHlRXEp0yw</t>
+  </si>
+  <si>
+    <t>POoLiZCE5A4ucOcd9p7n7</t>
+  </si>
+  <si>
+    <t>2iYXWIa1Zg1Nhb3BpG0hY</t>
+  </si>
+  <si>
+    <t>E0NUmvZojP61bm3sFAqfE</t>
+  </si>
+  <si>
+    <t>7muy84Q_UMgH-zLH_uDuJ</t>
+  </si>
+  <si>
+    <t>DWSi3RW9dAinV83VpgehO</t>
+  </si>
+  <si>
+    <t>lInvEPz4qK0TT9yGhBA8k</t>
+  </si>
+  <si>
+    <t>fByovd7M-XSIwMtftIEb6</t>
+  </si>
+  <si>
+    <t>jonWj-gor1Z2jG7NnIwuf</t>
+  </si>
+  <si>
+    <t>K0UxwxeqrpXBRBElNOpeb</t>
+  </si>
+  <si>
+    <t>9T75hDFWNiMLZoPALJvGD</t>
+  </si>
+  <si>
+    <t>fz2FUgBCV9wVxvILv3cp1</t>
+  </si>
+  <si>
+    <t>BRq-0z8-Q9i6VDkvXjxTq</t>
+  </si>
+  <si>
+    <t>S0fZ9l-Y04VP8pd2_Qmxk</t>
+  </si>
+  <si>
+    <t>bx4PtVc08CiM80MkBpW3e</t>
+  </si>
+  <si>
+    <t>KY14BsoFfvetEkhv8dVGI</t>
+  </si>
+  <si>
+    <t>TcJwQ5bMJIhqzRvBqP-jh</t>
+  </si>
+  <si>
+    <t>G5deNFIk6VbjpO6ZA0u3B</t>
+  </si>
+  <si>
+    <t>S9tU_uzie0d1cZW-5pSgK</t>
+  </si>
+  <si>
+    <t>UAAr_E_kkVJbW6zGwnfu2</t>
+  </si>
+  <si>
+    <t>GeHZIist7vsA7Ihk7X8NG</t>
+  </si>
+  <si>
+    <t>iFCE0aCZW4BRqMMCbI5zc</t>
+  </si>
+  <si>
+    <t>4RaGBdYWRMjrjP0ehytFo</t>
+  </si>
+  <si>
+    <t>-MmGFyOb9ZAX8LJahFDtM</t>
+  </si>
+  <si>
+    <t>EsOENcAV729T8_M7q2P44</t>
+  </si>
+  <si>
+    <t>jjHhr6aDzugbyvanzPyiT</t>
+  </si>
+  <si>
+    <t>nEikjOCZQHKt7DH-XjR1R</t>
+  </si>
+  <si>
+    <t>bhtg8r4L7-sNat6xTlGQF</t>
+  </si>
+  <si>
+    <t>-mBknPkzxi4Usga9xRwfI</t>
+  </si>
+  <si>
+    <t>IYBIBewZR_Z40fYSq3xEs</t>
+  </si>
+  <si>
+    <t>6ngaTcloC__KC_zkU-rG2</t>
+  </si>
+  <si>
+    <t>QN1YM1DIUHdMzeZl2RtgC</t>
+  </si>
+  <si>
+    <t>Ju3RyUnC1F18RW90pDG4B</t>
+  </si>
+  <si>
+    <t>cwoZzAdgBDsUHqS2rj4IB</t>
+  </si>
+  <si>
+    <t>OpsrLBFWfD-kFQXBPq_qg</t>
+  </si>
+  <si>
+    <t>TPXlBMzz8a-iyG4BCg-h7</t>
+  </si>
+  <si>
+    <t>h3hfNO1bXn8FAGJpak395</t>
+  </si>
+  <si>
+    <t>8wGO51FgK2qsmbNzXLah-</t>
+  </si>
+  <si>
+    <t>_r6JzedIGxiMPVhLIEBWX</t>
+  </si>
+  <si>
+    <t>hkmIWxqhlg0hWrNEnzOqJ</t>
+  </si>
+  <si>
+    <t>pE6E-18J8bfhKZMGNXPYQ</t>
+  </si>
+  <si>
+    <t>QU9eaX_PPzwnNU8_H-aw1</t>
+  </si>
+  <si>
+    <t>kLZIC3UlTX0x2SElpCLor</t>
+  </si>
+  <si>
+    <t>sqSQA1rB1I6U1X5Q2BKf-</t>
+  </si>
+  <si>
+    <t>00wcdBv-BzHRjXQuV7ldK</t>
+  </si>
+  <si>
+    <t>w8gE2q-iRwAVdabLschxw</t>
+  </si>
+  <si>
+    <t>bU4n3-9OhCR_9rdfsULzt</t>
+  </si>
+  <si>
+    <t>Ur6EmLNz14J9BmNKU3OJg</t>
+  </si>
+  <si>
+    <t>o1MPJHc-mGGBGhx-Izd_q</t>
+  </si>
+  <si>
+    <t>R-VDpcWfu2fzwriktUVcS</t>
+  </si>
+  <si>
+    <t>ei9rpEu9M-q_YPZB_pOzP</t>
+  </si>
+  <si>
+    <t>fr_xSWyGHhWy6KRmHm9BV</t>
+  </si>
+  <si>
+    <t>fPF18xWXyq7pNSHQL6Lwq</t>
+  </si>
+  <si>
+    <t>mWqkjar0P3kqdXEbhwXVi</t>
+  </si>
+  <si>
+    <t>2urtJuX2FLRV6x2t1RYAy</t>
+  </si>
+  <si>
+    <t>FfVrTrfxWp6K9KKVh_K4c</t>
+  </si>
+  <si>
+    <t>A_GR1ezBNAds4J0-sMVf-</t>
+  </si>
+  <si>
+    <t>jxltyJGMgVySRl8UtqbGC</t>
+  </si>
+  <si>
+    <t>TN4PxsNB6If_piPUdHbIx</t>
+  </si>
+  <si>
+    <t>_tRDayvzPabY4uX7gHV-r</t>
+  </si>
+  <si>
+    <t>YECzefzxyvb_Xt09tqECs</t>
+  </si>
+  <si>
+    <t>lORfnRBIpRCb97YlbX9xT</t>
+  </si>
+  <si>
+    <t>HXQ-9ea3KInG386yCqmoz</t>
+  </si>
+  <si>
+    <t>FJ-EsscKX8XycOGiTzTyy</t>
+  </si>
+  <si>
+    <t>B9BSiu1FbbSSAo6_Ld-HF</t>
+  </si>
+  <si>
+    <t>_fjIBApyLOt2g0YhcfdGR</t>
+  </si>
+  <si>
+    <t>JTSTiNzMsOz4iXD9sun-w</t>
+  </si>
+  <si>
+    <t>GOBMeFAkJvy2KwCtQejJD</t>
+  </si>
+  <si>
+    <t>HxDHrk9cgX4JZpuPcqC3Z</t>
+  </si>
+  <si>
+    <t>IwTzYDl-FgC8gbPzIqGSH</t>
+  </si>
+  <si>
+    <t>qcKyXWZ1O99wCKRDUaBK1</t>
+  </si>
+  <si>
+    <t>pq9BnY7JIVYCb3-38l3Gc</t>
+  </si>
+  <si>
+    <t>hqfu0EmUyGcN2-0kHAt1N</t>
+  </si>
+  <si>
+    <t>cVlbUd7Pg6zkjaAGA9dUD</t>
+  </si>
+  <si>
+    <t>gGYwj6m8ssBk7sTxaxf8E</t>
+  </si>
+  <si>
+    <t>YWUm_sEbbtIgNPsb5JBZc</t>
+  </si>
+  <si>
+    <t>35Sf3Zx4_BHwKNwhyyhQk</t>
+  </si>
+  <si>
+    <t>RuLcG8loQEPmdV-peUrtu</t>
+  </si>
+  <si>
+    <t>lXwHjRfcLE8GyZtriReFw</t>
+  </si>
+  <si>
+    <t>C2V_Ci0tPS4GO7Mien_Cd</t>
+  </si>
+  <si>
+    <t>1O-grsrg5Ok6M2rYosr1T</t>
+  </si>
+  <si>
+    <t>1xugt7J9NS6Q3p9AVTF-2</t>
+  </si>
+  <si>
+    <t>e1iNadakMvhY_8IV8M8jd</t>
+  </si>
+  <si>
+    <t>jh3JOrjGNtONcdc-_D2w-</t>
+  </si>
+  <si>
+    <t>bUDROV_vDQcN8gFG446pR</t>
+  </si>
+  <si>
+    <t>7ipRSj1AVc9K42UInCeNc</t>
+  </si>
+  <si>
+    <t>F30VOqCYMsPtDioRmTXoK</t>
+  </si>
+  <si>
+    <t>WOg0FA0d9Y7MYHE1IA1C0</t>
+  </si>
+  <si>
+    <t>LyAm0G5E-4Rk5WdKuer5p</t>
+  </si>
+  <si>
+    <t>lNmFnR3jCpBRbRgK5jvob</t>
+  </si>
+  <si>
+    <t>rjCytUsAaedAr0tHNt2Xq</t>
+  </si>
+  <si>
+    <t>0_Ka0B7DsKmoRyVPoMx6U</t>
+  </si>
+  <si>
+    <t>UUpO2sjF7fqxX3mH93WZw</t>
+  </si>
+  <si>
+    <t>ttrKmFDsQNLEIDAagKo2c</t>
+  </si>
+  <si>
+    <t>u7_NLTqJJMTkFfpvZne6r</t>
+  </si>
+  <si>
+    <t>nv0edBEJ6RiIlqHcKqH16</t>
+  </si>
+  <si>
+    <t>X3_lSRNupQPrBnuPuSciu</t>
+  </si>
+  <si>
+    <t>FY3pSv01PjUaumCl5Cdfd</t>
+  </si>
+  <si>
+    <t>bqcsIe4rzx6OZx-ckvim2</t>
+  </si>
+  <si>
+    <t>TuVWHDhiOqFLtk9wbLKWB</t>
+  </si>
+  <si>
+    <t>DK2B-JlFN3tDbL8rsTATu</t>
+  </si>
+  <si>
+    <t>tUAwiOF18X3Mk0lVHPboV</t>
+  </si>
+  <si>
+    <t>6utfJ503dR6ds__kJYWaz</t>
+  </si>
+  <si>
+    <t>9lKLTAzdcpK9XrSAbBjVP</t>
+  </si>
+  <si>
+    <t>xKg4YqNvFFkCuo6Sps-Lu</t>
+  </si>
+  <si>
+    <t>CI0Vm5ta_RHpqOvI92UK1</t>
+  </si>
+  <si>
+    <t>7HOmuvOxWhrFs455H7kyf</t>
+  </si>
+  <si>
+    <t>fzf_jB1lR3FokxX9RgvHi</t>
+  </si>
+  <si>
+    <t>ZR4f8T9hN8ZuN3rjeYF5o</t>
+  </si>
+  <si>
+    <t>9cwSwqB9aVLRHiHR0MAsb</t>
+  </si>
+  <si>
+    <t>lbqP43TPPbYaej9iAJ8Nt</t>
+  </si>
+  <si>
+    <t>1iEPLnyhNBGBoFXOyy0Qr</t>
+  </si>
+  <si>
+    <t>h3J2h56XLuAP5EH-jn5UV</t>
+  </si>
+  <si>
+    <t>kDu4sZTgwiXvm9okDts0F</t>
+  </si>
+  <si>
+    <t>SEr6w63HMhjDet-pbnPBn</t>
+  </si>
+  <si>
+    <t>c2vMjMIGsYy3DLPSUIPNe</t>
+  </si>
+  <si>
+    <t>i6wtOosBeSbGzafFUNOTz</t>
+  </si>
+  <si>
+    <t>yZr6c1SanbyzRqhMccbHi</t>
+  </si>
+  <si>
+    <t>DhkzfJA9jXBtvK5cEGECl</t>
+  </si>
+  <si>
+    <t>NNF3Lx3-QkmL_OPfPAorB</t>
+  </si>
+  <si>
+    <t>qoKnXQFdVbwzTOIjEJcsm</t>
+  </si>
+  <si>
+    <t>4UafbHBuf2cnncQv1hlJV</t>
+  </si>
+  <si>
+    <t>xygMs3a-9zszs_emTrFmU</t>
+  </si>
+  <si>
+    <t>eo3Y5n2G_Zn6AY3NWpIJU</t>
+  </si>
+  <si>
+    <t>oomPBQj8f6I4NcJAXiWxH</t>
+  </si>
+  <si>
+    <t>6rMTiPeuMyI02Qn8TFOe6</t>
+  </si>
+  <si>
+    <t>sCRWvzN8-RC_JvDT1c6Y6</t>
+  </si>
+  <si>
+    <t>LWYhRjFvLupnpQ9LsBrrl</t>
+  </si>
+  <si>
+    <t>wnxQZQYyPn0fbl0KVGAld</t>
+  </si>
+  <si>
+    <t>1sZOH1cGxSAfdtB0st4I-</t>
+  </si>
+  <si>
+    <t>RCCMitkzVLkiGBzQbM8iX</t>
+  </si>
+  <si>
+    <t>6TwNVTA_M8YdKu6HPRI1N</t>
+  </si>
+  <si>
+    <t>wGKjSb7nyrCRX67ytZ-pT</t>
+  </si>
+  <si>
+    <t>KIdFGJQEJJEQBNZoYhLRz</t>
+  </si>
+  <si>
+    <t>rKst-vU9Xd8AHRPtaXMim</t>
+  </si>
+  <si>
+    <t>IO0CqNp6eAiynXlMGK5Ei</t>
+  </si>
+  <si>
+    <t>j8WwGI8Upkt404r_pfwp5</t>
+  </si>
+  <si>
+    <t>6yyR026U4tTStTl0RYQuw</t>
+  </si>
+  <si>
+    <t>Qw8hNNyP4hkkds5lmJ3EW</t>
+  </si>
+  <si>
+    <t>qYwPI7IxGGSxSe5ivuk6T</t>
+  </si>
+  <si>
+    <t>30Q8fJxq8pXejz8e4uQfS</t>
+  </si>
+  <si>
+    <t>5Sw0ZOKwojNI43STH51wl</t>
+  </si>
+  <si>
+    <t>WddapChlaWZ0nfhv0zQQr</t>
+  </si>
+  <si>
+    <t>N5fvmg0gbsaM-KZe3tRMW</t>
+  </si>
+  <si>
+    <t>GOs2y_onNIp_am77gzY-V</t>
+  </si>
+  <si>
+    <t>qC4rlNowrDxew4ulEBMQL</t>
+  </si>
+  <si>
+    <t>BRQZlKUQ6RMen45GdrwPO</t>
+  </si>
+  <si>
+    <t>-cEJicboNKVdri-n7E6ot</t>
+  </si>
+  <si>
+    <t>oT9gQFlGmFXxQD4teLNdZ</t>
+  </si>
+  <si>
+    <t>rqbvY9WTQE5I2fD0nFUmZ</t>
+  </si>
+  <si>
+    <t>jtaMq_rgrKBOSwkS4fhI2</t>
+  </si>
+  <si>
+    <t>6VPMs2c4dBGbgpEm21-Hy</t>
+  </si>
+  <si>
+    <t>aItA6amX2goo5-aVW7L18</t>
+  </si>
+  <si>
+    <t>enxbqzcUMezVAx_zp7aZY</t>
+  </si>
+  <si>
+    <t>T7XZ5dC6hBTBma1RqnlYM</t>
+  </si>
+  <si>
+    <t>Vpa1F6NRDGkSwCgKHen8x</t>
+  </si>
+  <si>
+    <t>OCbAWBw9RRnqDxz2Pj7Kg</t>
+  </si>
+  <si>
+    <t>5d_iKzeT7_YCd6X00az7v</t>
+  </si>
+  <si>
+    <t>Itp-xTNnYyyTSJ_oyHN-1</t>
+  </si>
+  <si>
+    <t>C68hic30ZT3njgUkbewSI</t>
+  </si>
+  <si>
+    <t>GmfAECNi7Tfl5bwvmhqv9</t>
+  </si>
+  <si>
+    <t>Dxsz3Kz_5of0HZkBsnKaz</t>
+  </si>
+  <si>
+    <t>7TWFKmazWdBIRwY0xNRVW</t>
+  </si>
+  <si>
+    <t>3ea9J79zub0xDdCkpY999</t>
+  </si>
+  <si>
+    <t>O2gNFYqBeS5Naf4x7IKs2</t>
+  </si>
+  <si>
+    <t>savJW25O1ahy9MYY1Uc8E</t>
+  </si>
+  <si>
+    <t>S-_AtOx4r8dMUslf8bm5B</t>
+  </si>
+  <si>
+    <t>rMulcLDTJVN7G3C8Ydq4X</t>
+  </si>
+  <si>
+    <t>ufVkNrPv0m0YGY_VrhS5q</t>
+  </si>
+  <si>
+    <t>7df83URaMFjcSHDYCx02w</t>
+  </si>
+  <si>
+    <t>mstXwodRGfVt9pX5dDRKG</t>
+  </si>
+  <si>
+    <t>CmZ8oPdmsZP7DMA85VeZK</t>
+  </si>
+  <si>
+    <t>6dL5Mxh_8emXBh4vm8qJg</t>
+  </si>
+  <si>
+    <t>PUtVkTVcqjmPkUu384Zrx</t>
+  </si>
+  <si>
+    <t>dPFcjS90pZ6GlZUchMJPx</t>
+  </si>
+  <si>
+    <t>263XtR5SGNM2UKvmo0Xu2</t>
+  </si>
+  <si>
+    <t>mCem5q2BJuzPe9z_jXcHW</t>
+  </si>
+  <si>
+    <t>TmCgOleW-tQkGQXVbDrGL</t>
+  </si>
+  <si>
+    <t>6HDac15wEiz6jU3nnaSQF</t>
+  </si>
+  <si>
+    <t>W6YXDshAYZ2TozfCwDYDc</t>
+  </si>
+  <si>
+    <t>p9rF93oO9rkUhCU65Mgv1</t>
+  </si>
+  <si>
+    <t>M3dfjCgSCYTKPkldjcKjX</t>
+  </si>
+  <si>
+    <t>Zp4oaXqrwdMkO3FXaNQfR</t>
+  </si>
+  <si>
+    <t>Egc0IlzTnyRZMwKoZnOKw</t>
+  </si>
+  <si>
+    <t>9uArdSztDNftt-gf5Jdl0</t>
+  </si>
+  <si>
+    <t>O0LigIuoOkKmLV7BB2fzQ</t>
+  </si>
+  <si>
+    <t>EOcRwQw7nVR5FExq96VMA</t>
+  </si>
+  <si>
+    <t>dgDGpSD7MWwm8Edbs8rlw</t>
+  </si>
+  <si>
+    <t>GAZGckyz2TBSzBhEmwEYd</t>
+  </si>
+  <si>
+    <t>q9jyy3sB9fQKwAgV4kilv</t>
+  </si>
+  <si>
+    <t>WMTfORIQJFSJqCIqok9xk</t>
+  </si>
+  <si>
+    <t>FUZe0z9NXbryq-QzN2HxV</t>
+  </si>
+  <si>
+    <t>zkeYuXtPSmsA8RxsxdLwp</t>
+  </si>
+  <si>
+    <t>wCupPHRU5K8H7z0iV25Zr</t>
+  </si>
+  <si>
+    <t>f2xQTKrOWuguQ6-L6W96v</t>
+  </si>
+  <si>
+    <t>4zEJqnDMcsiAClKUTz4jB</t>
+  </si>
+  <si>
+    <t>bVlX-vpuPtQrtjmuSCAEl</t>
+  </si>
+  <si>
+    <t>TkIgjsiWcCMM3ly6nac4i</t>
+  </si>
+  <si>
+    <t>rcysmoYvW7D2EkYxnbLwy</t>
+  </si>
+  <si>
+    <t>rZ_lrXg4m4sGWMqCe4mem</t>
+  </si>
+  <si>
+    <t>jSGvMHTO4pkwi-TEj0HoH</t>
+  </si>
+  <si>
+    <t>lIkfeO1fn4CI4UuDDsIJV</t>
+  </si>
+  <si>
+    <t>_6YwPJ8o6LQFT6q5Q7KNa</t>
+  </si>
+  <si>
+    <t>edDHyqDykAQjznwnSRnQG</t>
+  </si>
+  <si>
+    <t>5ed9cNzF9eg4nKoQ-Xen0</t>
+  </si>
+  <si>
+    <t>6hZqlC3olweVtkB51Y6b6</t>
+  </si>
+  <si>
+    <t>Dabjpb8b-00iughfWSmsH</t>
+  </si>
+  <si>
+    <t>mnVnaPoIkwluGBUuGRfzn</t>
+  </si>
+  <si>
+    <t>d3URFWPoY9iRMqWiGvNnY</t>
+  </si>
+  <si>
+    <t>70fKBqlyvfB24_anuF04H</t>
+  </si>
+  <si>
+    <t>vd5cpWRhXd7NhhtXRUpo5</t>
+  </si>
+  <si>
+    <t>HhbdHrZmRvuEXEDzonvMH</t>
+  </si>
+  <si>
+    <t>wIzUaNNihymWm03ZrbzXD</t>
+  </si>
+  <si>
+    <t>Thy5Bjywk7C9l72owGJ6s</t>
+  </si>
+  <si>
+    <t>wSj1o5zYSWPbsr1hcg0Qc</t>
+  </si>
+  <si>
+    <t>WkpuGVIkR-U2Qsbehf235</t>
+  </si>
+  <si>
+    <t>Xjcp1Grf5m3z7_5j-ZgJ-</t>
+  </si>
+  <si>
+    <t>1B1d-tt1rFVxhouUnIFeG</t>
+  </si>
+  <si>
+    <t>Uw2YiBhG0gvma6fOSN9Mn</t>
+  </si>
+  <si>
+    <t>UJjXTHId5l6XxzdQfQX9W</t>
+  </si>
+  <si>
+    <t>5wJ3ma0WxB1eZxlwW_NPe</t>
+  </si>
+  <si>
+    <t>w-nKkM86oUPFwjkY8oXz3</t>
+  </si>
+  <si>
+    <t>fVtpHb0eHwgyliBWetMly</t>
+  </si>
+  <si>
+    <t>hp6fbTt9pOBoKtx2cFm6B</t>
+  </si>
+  <si>
+    <t>p7i-p5N7DW6niKY6RyVfT</t>
+  </si>
+  <si>
+    <t>qnOPcpW0VYTRUFyP_1tZv</t>
+  </si>
+  <si>
+    <t>uJIzP4_o6X8nE8zgr4Cgg</t>
+  </si>
+  <si>
+    <t>XVUwTapET7ZRua-WxP_ap</t>
+  </si>
+  <si>
+    <t>tOZHS1T5mmRw4-feWDiQY</t>
+  </si>
+  <si>
+    <t>veaY6OGyPitlZ9H_tX7aX</t>
+  </si>
+  <si>
+    <t>l0HyHrt0n45seulMYc3Xu</t>
+  </si>
+  <si>
+    <t>B5N1FE1_eJhNRKnBycPqV</t>
+  </si>
+  <si>
+    <t>5luJpNddyTN4KZ0KSCc6j</t>
+  </si>
+  <si>
+    <t>eDhsujIMoLTQ0Iab1tWrK</t>
+  </si>
+  <si>
+    <t>n2TQVBoLnD-LGCK0DwKpG</t>
+  </si>
+  <si>
+    <t>f4CzHkxk4CmfBr9vASlz6</t>
+  </si>
+  <si>
+    <t>XT-VMGdDhOY61cs-PFG8t</t>
+  </si>
+  <si>
+    <t>ziWmqFD2DVqP6w0eXOLmN</t>
+  </si>
+  <si>
+    <t>U6NZ2gXAlaKxykvkmju17</t>
+  </si>
+  <si>
+    <t>tPVmv4KG54dQwQTblpwjY</t>
+  </si>
+  <si>
+    <t>JA9WcwXaEPIlteQGbyOkL</t>
+  </si>
+  <si>
+    <t>LhyAAeXDQ7zh7oL_17YM3</t>
+  </si>
+  <si>
+    <t>Z3D7XbzknM3oke3GU5aTD</t>
+  </si>
+  <si>
+    <t>QEzl66g6e04Dc3XJlWHno</t>
+  </si>
+  <si>
+    <t>sF-McfNXmTOT6zaRAn1ba</t>
+  </si>
+  <si>
+    <t>Qm8BAg6jL7iPLm4wQ-EwY</t>
+  </si>
+  <si>
+    <t>0w88IL4hrWguLsGG7Xue2</t>
+  </si>
+  <si>
+    <t>vYs8YlZ4351p6ltNzkDW2</t>
+  </si>
+  <si>
+    <t>sWCmDLZtfb6CZ7W0C1Tru</t>
+  </si>
+  <si>
+    <t>QnzMAqDnVnC37ljTTe6jZ</t>
+  </si>
+  <si>
+    <t>MoTCbXzSfxj4gDejJupoH</t>
+  </si>
+  <si>
+    <t>h91zvfhVljUctyRb7pgUe</t>
+  </si>
+  <si>
+    <t>Qzv7KQbnv1cgaR_eN8NCA</t>
+  </si>
+  <si>
+    <t>IRO9FxUv32DU4hRmr5NBA</t>
+  </si>
+  <si>
+    <t>QFwO3tEE6090oz-kNCZZR</t>
+  </si>
+  <si>
+    <t>nT11VAv0B2vlxGOEbzFi9</t>
+  </si>
+  <si>
+    <t>vB-R4jGWnU3L2sVkxMs7d</t>
+  </si>
+  <si>
+    <t>xIyYceNCohzfhaxgonUQo</t>
+  </si>
+  <si>
+    <t>K9NVeP2TtTvQK-b50Imlx</t>
+  </si>
+  <si>
+    <t>_DvstEA-06TTfzCjZdMYb</t>
+  </si>
+  <si>
+    <t>_4nF88m6piD8x-AlvXUZR</t>
+  </si>
+  <si>
+    <t>V5gerM9OmLwl1wJjgnb35</t>
+  </si>
+  <si>
+    <t>2b6BHLPc7CC3tw-p1wzp4</t>
+  </si>
+  <si>
+    <t>8ftL4CfSCIAmNl85z4KsK</t>
+  </si>
+  <si>
+    <t>ne2A_9HWfBQiwXOQOUjYw</t>
+  </si>
+  <si>
+    <t>So52c_XNqEKJUNe4nE6md</t>
+  </si>
+  <si>
+    <t>UzeF4eUY1kVPz3IIeeT6s</t>
+  </si>
+  <si>
+    <t>svNPcxvC0GSzBv0We-hPw</t>
+  </si>
+  <si>
+    <t>i1doJx5sCKVouv-FvSK6n</t>
+  </si>
+  <si>
+    <t>MiqeruvYB8lX3GzVFcsaK</t>
+  </si>
+  <si>
+    <t>50tWoI2g9m1vJ9YxzWbzM</t>
+  </si>
+  <si>
+    <t>yW729IsfqvGOmzf4qjWRY</t>
+  </si>
+  <si>
+    <t>Gu_vOaxOy-yWWH7WT3nrO</t>
+  </si>
+  <si>
+    <t>pXJnGSbUAmIlRo2J2vvIj</t>
+  </si>
+  <si>
+    <t>roeZYU2YzBO-oecboGjAL</t>
+  </si>
+  <si>
+    <t>qyjJkpOQdEeDPE0XAX_Zk</t>
+  </si>
+  <si>
+    <t>KXI2E5E7vzGTaXBNhAW8y</t>
+  </si>
+  <si>
+    <t>JM8u8lYwy0f-f-88m7pzG</t>
+  </si>
+  <si>
+    <t>OeJqeZKL6HYIaXsGr56Co</t>
+  </si>
+  <si>
+    <t>XCH69-Dhlz7vvscJkyvDA</t>
+  </si>
+  <si>
+    <t>3VbPKywCYYkTc0BWZjUkm</t>
+  </si>
+  <si>
+    <t>epVadrK8F_ALew6085CFd</t>
+  </si>
+  <si>
+    <t>9ucwyGH0XQD9O1gt2easB</t>
+  </si>
+  <si>
+    <t>-899Kn60gMFOPzrVI-hPr</t>
+  </si>
+  <si>
+    <t>Q-VLk9Gm3dD8OEWtxIUXZ</t>
+  </si>
+  <si>
+    <t>2Pe98623Gv2KZsQCVnlfx</t>
+  </si>
+  <si>
+    <t>4tSWdfs9k4pyJOy4-z2Uk</t>
+  </si>
+  <si>
+    <t>X5K5EGBQnR6LnbD0b_sK_</t>
+  </si>
+  <si>
+    <t>Jnea3CIUfrtYLGOuevdQQ</t>
+  </si>
+  <si>
+    <t>oX5S_IPDmQU_z9-c7Zker</t>
+  </si>
+  <si>
+    <t>nH4D63STssklxmLXDZdsz</t>
+  </si>
+  <si>
+    <t>xoNkSkqOmzhNTErJlGZ0r</t>
+  </si>
+  <si>
+    <t>TLR42-jU1SubcEg6l5zjA</t>
+  </si>
+  <si>
+    <t>-id9DJuB6K0bJZf8YTwvq</t>
+  </si>
+  <si>
+    <t>WC-7blyx2onXnSqfNnBgO</t>
+  </si>
+  <si>
+    <t>r5PTEvKpCQ0eTGalxUnNd</t>
+  </si>
+  <si>
+    <t>Xkxw1g7Bg9og3f8uSfOHY</t>
+  </si>
+  <si>
+    <t>EhFvJ3LLQVtN1An-wB7IF</t>
+  </si>
+  <si>
+    <t>u0jvBWD9KSJFg1jFSS3Os</t>
+  </si>
+  <si>
+    <t>wIXYo7SPZE2ok1izqCRD7</t>
+  </si>
+  <si>
+    <t>8UyOyJ7a8wX1JduNNIlUn</t>
+  </si>
+  <si>
+    <t>-TcNzW0gzUchzRvPrz0Yp</t>
+  </si>
+  <si>
+    <t>FPY8XOWUipXNdw8G1h1Y4</t>
+  </si>
+  <si>
+    <t>vwVQ1zE7Dp44UKZpvcXQJ</t>
+  </si>
+  <si>
+    <t>Oejr0JF0nh0Gag7Zqxbxx</t>
+  </si>
+  <si>
+    <t>zZM9nMMxa4ocGLWcCx88c</t>
+  </si>
+  <si>
+    <t>XTLBGtiXL6TORi0nKRg8o</t>
+  </si>
+  <si>
+    <t>0aD0ql_QjNKAb8sQ419Xo</t>
+  </si>
+  <si>
+    <t>ZP854FbooNoD6KHWxobbA</t>
+  </si>
+  <si>
+    <t>U2JqQ2Wpsy3y5zO2M1tXZ</t>
+  </si>
+  <si>
+    <t>gjc4pMVHXg39NvGkRbim1</t>
+  </si>
+  <si>
+    <t>tyov42lJctrINjAVu4Ps8</t>
+  </si>
+  <si>
+    <t>CYxvG9HjPu8sJesEhF8ma</t>
+  </si>
+  <si>
+    <t>UZOKTuGFsQXo3KtMN5dj8</t>
+  </si>
+  <si>
+    <t>MET321Hpej-7MRoPBvbI9</t>
+  </si>
+  <si>
+    <t>DltmLMYUwLnB9E3PN0zsm</t>
+  </si>
+  <si>
+    <t>d4JeswkFaDTCImjJBCtIN</t>
+  </si>
+  <si>
+    <t>ZLrBKbbeNBetaUgSchUYp</t>
+  </si>
+  <si>
+    <t>R0ciue33tWcmxj-tSntdm</t>
+  </si>
+  <si>
+    <t>dMIwUNTLPlwWOKldhExo2</t>
+  </si>
+  <si>
+    <t>ktj6CKfz0qYwKzamYEX55</t>
+  </si>
+  <si>
+    <t>NBGcXsjyoyo-r2OpSbdmU</t>
+  </si>
+  <si>
+    <t>oaikjAACqZIphuKfUhbmD</t>
+  </si>
+  <si>
+    <t>WyTLw5nBfHGn5kU9baM09</t>
+  </si>
+  <si>
+    <t>lWCPBatF7RamlZ5VMJbhJ</t>
+  </si>
+  <si>
+    <t>15r3D4OsTZ2ude0CUq-2-</t>
+  </si>
+  <si>
+    <t>wNImq-_UYaqO8JKluh0Lb</t>
+  </si>
+  <si>
+    <t>GL7fh0AqXlCcRdnWKCGrz</t>
+  </si>
+  <si>
+    <t>kl_U6onW8E1HnVAYJA72i</t>
+  </si>
+  <si>
+    <t>LI4YYxYSOqyj6c0YDvZrT</t>
+  </si>
+  <si>
+    <t>J2jippXyusX0Fgy5LgVfG</t>
+  </si>
+  <si>
+    <t>IXSn_j9h_mBho3HH3XvcY</t>
+  </si>
+  <si>
+    <t>s_Hjir-WwMH5c18dT3jiD</t>
+  </si>
+  <si>
+    <t>bAIXFsA5df6xfekM3kjSV</t>
+  </si>
+  <si>
+    <t>cX-hRhk0doJhEXMpqSDJk</t>
+  </si>
+  <si>
+    <t>-dNx2lNoikQbR0G4b-lXR</t>
+  </si>
+  <si>
+    <t>Hc9eLKJsIQiwzcmhYWHdi</t>
+  </si>
+  <si>
+    <t>WWG1rf_RuHDxvghetI7wY</t>
+  </si>
+  <si>
+    <t>UNeilWn6qeMklGL3tz9w7</t>
+  </si>
+  <si>
+    <t>V7Lvoclu2gQ9DBQjy-C7m</t>
+  </si>
+  <si>
+    <t>w-ELOfYDlVJNx7bPGhlhi</t>
+  </si>
+  <si>
+    <t>l-zv02CJio5H811eZhMYr</t>
+  </si>
+  <si>
+    <t>xq2yUZdLY8jO7KyH4DRwy</t>
+  </si>
+  <si>
+    <t>JEfeEwISC-C7wKZpHTBak</t>
+  </si>
+  <si>
+    <t>UpHF8Il83OizyiUGD6_p3</t>
+  </si>
+  <si>
+    <t>hiiLWmE9GHiAPEI2_yqp5</t>
+  </si>
+  <si>
+    <t>i5yCNhckiWHDVkLJAzgRX</t>
+  </si>
+  <si>
+    <t>R5QZaTHZdl8_FhmyR0zgv</t>
+  </si>
+  <si>
+    <t>pJCPnPG1Vo0jq6vraXTDr</t>
+  </si>
+  <si>
+    <t>zEVxG8sUdtHwbav7akijx</t>
+  </si>
+  <si>
+    <t>5vQDNZ0EswRYQnMh24mXn</t>
+  </si>
+  <si>
+    <t>RLg9KjKlMaX0zAqEAesfO</t>
+  </si>
+  <si>
+    <t>KI1p6t2Zi6HMUMx-4X9HM</t>
+  </si>
+  <si>
+    <t>70TPR9wt-JIVGe8j1-xCk</t>
+  </si>
+  <si>
+    <t>ZD7hUZLKRpS0Yri-JcGbE</t>
+  </si>
+  <si>
+    <t>UWkm-8xHz_MtHCU0FxLNH</t>
+  </si>
+  <si>
+    <t>1uML3RPo2IUuW7kzFCALS</t>
+  </si>
+  <si>
+    <t>QHVidx86gesgjpD40aacg</t>
+  </si>
+  <si>
+    <t>bsUHj4y-0gYP0xO9IOUnM</t>
+  </si>
+  <si>
+    <t>YJe5YjPqkQpnpepUio9Kc</t>
+  </si>
+  <si>
+    <t>DV82km5_HGkT-HWjhtL2D</t>
+  </si>
+  <si>
+    <t>wQougHDsV8V4sb-CFkpmK</t>
+  </si>
+  <si>
+    <t>ifSVZsPnJfzzAvbWA1FEg</t>
+  </si>
+  <si>
+    <t>JQ4oNnltOdl5IDwu3YLo_</t>
+  </si>
+  <si>
+    <t>o3xG98bJgclQPEbvsEqTO</t>
+  </si>
+  <si>
+    <t>PzXfgd-42eY440GXiXTp6</t>
+  </si>
+  <si>
+    <t>egxJDEn8wIytTswGts_ta</t>
+  </si>
+  <si>
+    <t>KQTsJXDEc80XxKRehBExz</t>
+  </si>
+  <si>
+    <t>Dr2LTrprLqTxAzKJg0IwH</t>
+  </si>
+  <si>
+    <t>IZc1aG888-3e3_Lm0nNvA</t>
+  </si>
+  <si>
+    <t>6cRWReUESVKpu77dD2D1O</t>
+  </si>
+  <si>
+    <t>anqYeh3iGxzCDMzUoHJ_p</t>
+  </si>
+  <si>
+    <t>akYp9Yclm-z8PyM4vTjc4</t>
+  </si>
+  <si>
+    <t>EKhGbbDFivIhV05oZ2Oow</t>
+  </si>
+  <si>
+    <t>suy6MXEyB59uS_1qi6xXD</t>
+  </si>
+  <si>
+    <t>b5eCuaHTm-j7mglT1-L3p</t>
+  </si>
+  <si>
+    <t>iJwCPRoWF_gi7obBYlDhW</t>
+  </si>
+  <si>
+    <t>meuuUYK9DxEqUKtwR61IP</t>
+  </si>
+  <si>
+    <t>-DO2Rs9kyJ0fXTVmQQ1kn</t>
+  </si>
+  <si>
+    <t>yC-vIyfWGHM2AQSzqUPmj</t>
+  </si>
+  <si>
+    <t>YjvNZoMtE2Pgghp4SrmdC</t>
+  </si>
+  <si>
+    <t>KWCpoySBQ0b946xtQOA5n</t>
+  </si>
+  <si>
+    <t>2rQBxgijR6ZE0tAAfPMZd</t>
+  </si>
+  <si>
+    <t>XgNY_A0-UfEu_qmbcRN7y</t>
+  </si>
+  <si>
+    <t>TQd7X-dj9LL-5ce6kAD6V</t>
+  </si>
+  <si>
+    <t>xAKRvnrtOBze_2nRjT6Cn</t>
+  </si>
+  <si>
+    <t>ZEH35-Z3Nsux7ramPKEVA</t>
+  </si>
+  <si>
+    <t>S0zonASv3eqD846zz0rIM</t>
+  </si>
+  <si>
+    <t>MmcuDPuGCK8Hr0ecmFMvB</t>
+  </si>
+  <si>
+    <t>Plek03selURH9NkazucDT</t>
+  </si>
+  <si>
+    <t>woMQs8Osq8ClY1Lsq1alv</t>
+  </si>
+  <si>
+    <t>71tlCYKgq3rP-nOD9IEl-</t>
+  </si>
+  <si>
+    <t>knJ7NKUUhc8Iy9HAwkl4w</t>
+  </si>
+  <si>
+    <t>j1NgcTmCEMfUSwiHv-hoT</t>
+  </si>
+  <si>
+    <t>8OIuTC3cDWZ9d2cJsa197</t>
+  </si>
+  <si>
+    <t>ica7tqhtZGZ4bsPlzA5XF</t>
+  </si>
+  <si>
+    <t>lhvtVqQqDo97LcM2hFIPZ</t>
+  </si>
+  <si>
+    <t>8erti8Csn5mNctTR2cwCk</t>
+  </si>
+  <si>
+    <t>yXa8iwermPQT0G9nYSCyx</t>
+  </si>
+  <si>
+    <t>ZcFis5J0pwCqI0S4D6kZn</t>
+  </si>
+  <si>
+    <t>HsyA-uppXVINSA8qQZHoB</t>
+  </si>
+  <si>
+    <t>OekNWNiszNvvNr064k25d</t>
+  </si>
+  <si>
+    <t>kRgl_mCKWYaHCrPmfTCV7</t>
+  </si>
+  <si>
+    <t>VIwahDKcqTIAgKnANMRAg</t>
+  </si>
+  <si>
+    <t>gCfT3W6PXEkpveSR0ytID</t>
+  </si>
+  <si>
+    <t>XtO8hVmz8ccsP5mwO-lBA</t>
+  </si>
+  <si>
+    <t>VJu49V9k0ZyN4tCkcLg58</t>
+  </si>
+  <si>
+    <t>9IB1OQoxSk-xU-hkah9Ex</t>
+  </si>
+  <si>
+    <t>7GQc0FnXNWOR8lg9_lCYh</t>
+  </si>
+  <si>
+    <t>caxXRMxpCWSCN2Gkl8ph2</t>
+  </si>
+  <si>
+    <t>lHpSGEDj4dS6wwCPmQTpI</t>
+  </si>
+  <si>
+    <t>3iZh2Y1c83w7xVk3Fe2et</t>
+  </si>
+  <si>
+    <t>JCKgkhy5nempuf9u0-CoK</t>
+  </si>
+  <si>
+    <t>EgXpKE13E24R5W7uvlACG</t>
+  </si>
+  <si>
+    <t>k9U5C53GuznrJvBvaYzH0</t>
+  </si>
+  <si>
+    <t>PS5aR1TNEZO7xCd23hRkn</t>
+  </si>
+  <si>
+    <t>1fr-MtLhRNBPABoGK6dml</t>
+  </si>
+  <si>
+    <t>L47p4Kl51Fha6wgEESRsO</t>
+  </si>
+  <si>
+    <t>7Nl09DMz77ivSA4QMe5nl</t>
+  </si>
+  <si>
+    <t>6CfKnsA3k_Yg-q0Uz8JAh</t>
+  </si>
+  <si>
+    <t>PvM6DGQ3_kzTBX2E8mX07</t>
+  </si>
+  <si>
+    <t>aowYboxDEVi4j7c-ZIx9R</t>
+  </si>
+  <si>
+    <t>B11p01ILOVIa1PBcUyrxn</t>
+  </si>
+  <si>
+    <t>45qK_wEigO9F5qiNhsa2d</t>
+  </si>
+  <si>
+    <t>dbGZGwzT-8VD0RZPvta7w</t>
+  </si>
+  <si>
+    <t>0dg1f12uHe-meUxougfar</t>
+  </si>
+  <si>
+    <t>eb1ojiVVNhCoJrj8BLpbi</t>
+  </si>
+  <si>
+    <t>7pt-D833jx46IVcEyM19q</t>
+  </si>
+  <si>
+    <t>pfP5Nky-uXH57v47NDT5M</t>
+  </si>
+  <si>
+    <t>3PL7eo5-I2o2wjcZNTO4f</t>
+  </si>
+  <si>
+    <t>EPznsCZoQX6pD014X_Py5</t>
+  </si>
+  <si>
+    <t>5eeJK5MCrHS6tFhdhMokS</t>
+  </si>
+  <si>
+    <t>1ZMT9Ez9eW2Gyk_lKiOfS</t>
+  </si>
+  <si>
+    <t>Dsx-FepYUmUhne-X9N9X5</t>
+  </si>
+  <si>
+    <t>pBxUQKp0Xrb8Jf2dHdHWa</t>
+  </si>
+  <si>
+    <t>xCmU0Kw68JJzQudRgccJ9</t>
+  </si>
+  <si>
+    <t>lhG3MZsJMMc67L41Ai0Ef</t>
+  </si>
+  <si>
+    <t>V26BLyqlwOfcV3fvbOhtA</t>
+  </si>
+  <si>
+    <t>CKnbmzeWux_iZREQbhwv7</t>
+  </si>
+  <si>
+    <t>ywMGdVj1o7GW584U4aZhZ</t>
+  </si>
+  <si>
+    <t>PpcNFm8ap5ZZboqMiN5D-</t>
+  </si>
+  <si>
+    <t>JCRIcANvR0BDrhzixKtwU</t>
+  </si>
+  <si>
+    <t>wWi1M9bbgyH5qlI9lWrXm</t>
+  </si>
+  <si>
+    <t>GC13dTwtVXzD0SvpdSyoY</t>
+  </si>
+  <si>
+    <t>roZBc3mkXnZIxuCpOrAW1</t>
+  </si>
+  <si>
+    <t>iES8O73MthF7gF-evA5e9</t>
+  </si>
+  <si>
+    <t>s6RPUeuFQTYo3LKRl6Pm8</t>
+  </si>
+  <si>
+    <t>808MekFZ8XWE5GaorU9eu</t>
+  </si>
+  <si>
+    <t>7m5sFjRMbUYOjL0o88xvP</t>
+  </si>
+  <si>
+    <t>145TGIkfeQqfd6o0IXcBW</t>
+  </si>
+  <si>
+    <t>_qb2biFkI58D_5Co2zsia</t>
+  </si>
+  <si>
+    <t>_AF73ANjVskcNWHRk9sVq</t>
+  </si>
+  <si>
+    <t>zSC6lx3vlE92i99R3axcZ</t>
+  </si>
+  <si>
+    <t>T8nsTpSnKSZCC546TeKLF</t>
+  </si>
+  <si>
+    <t>gobYg5d4SkcDz1GH7muZp</t>
+  </si>
+  <si>
+    <t>LDXs60-XZy-IRHvr0t1Y4</t>
+  </si>
+  <si>
+    <t>TFdd01_272sn2Z6PwjzVM</t>
+  </si>
+  <si>
+    <t>wNPZXyZH6NfYrvNW4sQHG</t>
+  </si>
+  <si>
+    <t>wRB8TCOqkYgA7Mpo9R9xd</t>
+  </si>
+  <si>
+    <t>frth4LBIwC5IW9RzYCfOu</t>
+  </si>
+  <si>
+    <t>49g-ZPrfyjp3dWFdgQRdn</t>
+  </si>
+  <si>
+    <t>890mCQ8fg6IKGUwMuG8uO</t>
+  </si>
+  <si>
+    <t>OYFR1BKOXZTOrP1fXaJiV</t>
+  </si>
+  <si>
+    <t>e45YLzlt51JBC9wBdoV7V</t>
+  </si>
+  <si>
+    <t>ZospcWGgKChgO8mscTHF2</t>
+  </si>
+  <si>
+    <t>h5WethTG3MF-6DsAFNxKL</t>
+  </si>
+  <si>
+    <t>FcIWqU3Jv06hZz5H7ghJH</t>
+  </si>
+  <si>
+    <t>qD08MVCtTMnLPVMHrt3Kv</t>
+  </si>
+  <si>
+    <t>yelcTD2OcOSToTgmUDP1W</t>
+  </si>
+  <si>
+    <t>A8z4VBP2Sgc3O1kZlx7jQ</t>
+  </si>
+  <si>
+    <t>fHd_kqEE-1DYiH6mU8V5v</t>
+  </si>
+  <si>
+    <t>7xnxhADCY9VbgbV6z34wl</t>
+  </si>
+  <si>
+    <t>gU0xqCsZRol0JiNb1KpIm</t>
+  </si>
+  <si>
+    <t>TZ4Ux8Mv7zrNI5Ue6C2sf</t>
+  </si>
+  <si>
+    <t>xbJlJn97-zpMRvqZ1Ig-x</t>
+  </si>
+  <si>
+    <t>xntu4cFP0ckA_X5ESeiN7</t>
+  </si>
+  <si>
+    <t>oObIZOY7ryuYiW-XE5ol5</t>
+  </si>
+  <si>
+    <t>GPVWhBPVSA54vchAjJiQ9</t>
+  </si>
+  <si>
+    <t>R-64gz7P9CEb9SBDQi3zx</t>
+  </si>
+  <si>
+    <t>r9SAaTk5d7alLVzoPc-kd</t>
+  </si>
+  <si>
+    <t>kDntE2qGl31dyCNKn5jGR</t>
+  </si>
+  <si>
+    <t>krjLwtyJUDi8Yf3NAdiCn</t>
+  </si>
+  <si>
+    <t>TOUWTR7vPxiRtnVtlUWoR</t>
+  </si>
+  <si>
+    <t>VSXA3eZRehCZHY2Wj3fs5</t>
+  </si>
+  <si>
+    <t>MiueK6HzQeowzGvMTxr_B</t>
+  </si>
+  <si>
+    <t>dbovJ3CkNpRp33WRax-_Z</t>
+  </si>
+  <si>
+    <t>vejopfZARdkf21Z_uN8hr</t>
+  </si>
+  <si>
+    <t>a6sc6HvV4KowQE1J0vYFM</t>
+  </si>
+  <si>
+    <t>JuPv4lEO_HWcxdQFjC3IW</t>
+  </si>
+  <si>
+    <t>lNa4YwWheLQ3dO3zdP0Vu</t>
+  </si>
+  <si>
+    <t>A8ERsRjW2Xw3rpvEUfyqU</t>
+  </si>
+  <si>
+    <t>dHf4qqBKU7I97CNx8T5Sn</t>
+  </si>
+  <si>
+    <t>k_O1Xwmxkn4eMT38_rZqM</t>
+  </si>
+  <si>
+    <t>6DoCrUdt3ThvJKxsBXZC5</t>
+  </si>
+  <si>
+    <t>9TrgLZjTVVD_t__DjtD7h</t>
+  </si>
+  <si>
+    <t>5FGBcO4NxITbTn1Avxs3j</t>
+  </si>
+  <si>
+    <t>GpsefhjfuaUlmKQsBj3_3</t>
+  </si>
+  <si>
+    <t>-EXscbn0-fy2lg6wy22Jt</t>
+  </si>
+  <si>
+    <t>tgTW8yL4TLsUk7_1ECkZ2</t>
+  </si>
+  <si>
+    <t>tC4eZzhepu74nufqUu0pg</t>
+  </si>
+  <si>
+    <t>hu6c9PtwFxllN05cA309Y</t>
+  </si>
+  <si>
+    <t>QYj66aBwaq9WFuRMyR-MZ</t>
+  </si>
+  <si>
+    <t>VjKCEQjVSJ3lMkD3na8oG</t>
+  </si>
+  <si>
+    <t>BIy2FOv7rtFWuEcxYpogI</t>
+  </si>
+  <si>
+    <t>VgNP5hLM2UFLYB4LXvpM0</t>
+  </si>
+  <si>
+    <t>WyQMoCMGld6P7rGA3-MQC</t>
+  </si>
+  <si>
+    <t>BjkLPyNDJDTkdfX7Pelh7</t>
+  </si>
+  <si>
+    <t>LVraE6mcB74CfGE9I1MQG</t>
+  </si>
+  <si>
+    <t>rPNP0M95HyFqx4GyYMIbZ</t>
+  </si>
+  <si>
+    <t>LDu3aIr_mwIYgJmUk6nTq</t>
+  </si>
+  <si>
+    <t>vetrPHh7r5XnwwA16bHH1</t>
+  </si>
+  <si>
+    <t>nBzzSHIeWHtL3Ny9Y3b6u</t>
+  </si>
+  <si>
+    <t>uTIHfVfhh56umnkAzRMtE</t>
+  </si>
+  <si>
+    <t>bxEyqN9f571BzGFLqVgyJ</t>
+  </si>
+  <si>
+    <t>guwLgx6eGYMbCK4mCcB8B</t>
+  </si>
+  <si>
+    <t>mTtDA175kNsnctWgOyQMq</t>
+  </si>
+  <si>
+    <t>VjeOGITROl5XnTG94CQD4</t>
+  </si>
+  <si>
+    <t>DDE3A0XNEEaaMc1GQGMVO</t>
+  </si>
+  <si>
+    <t>wyWgh0tj7GNHMglGMhtw_</t>
+  </si>
+  <si>
+    <t>bZqba0EhWau3161oPqcL9</t>
+  </si>
+  <si>
+    <t>4B9lzPH5LngCaOv2cmJ70</t>
+  </si>
+  <si>
+    <t>-Cg44ePS6y3ySr9tScp1a</t>
+  </si>
+  <si>
+    <t>PtQMVKqiS2AW2gAUMtS2u</t>
+  </si>
+  <si>
+    <t>PfWKY3-qig7o-5HTWWPkJ</t>
+  </si>
+  <si>
+    <t>ndos6sb58-sAgqUTkTQnX</t>
+  </si>
+  <si>
+    <t>2UubMcHL1agfhjeJkSB4Y</t>
+  </si>
+  <si>
+    <t>qYWcp1K09ZQBvoHRjnP91</t>
+  </si>
+  <si>
+    <t>u3VolF3BUkmDepQZ0RBtI</t>
+  </si>
+  <si>
+    <t>OFLfcsA2K0HJhtbJXVEnJ</t>
+  </si>
+  <si>
+    <t>Ar3RvsYxmPsMFGRI_01TX</t>
+  </si>
+  <si>
+    <t>6s21wAOq7gfK2i2nsQKUC</t>
+  </si>
+  <si>
+    <t>m1Z0caC2DLpgw51_4hbkh</t>
+  </si>
+  <si>
+    <t>WAQRoQdfwwSer0n-tCDtZ</t>
+  </si>
+  <si>
+    <t>S0TrVbBl91xP12SHEXr2Q</t>
+  </si>
+  <si>
+    <t>rmw8Hn66_6pzkVUt-AyqK</t>
+  </si>
+  <si>
+    <t>S5lKldNDv2EoObcrs7wo8</t>
+  </si>
+  <si>
+    <t>etTNQJNNnUEyXdxuG-hgt</t>
+  </si>
+  <si>
+    <t>pmqfetgiGSCGl8EhgfQBA</t>
+  </si>
+  <si>
+    <t>E0JP7hYmBDN_2N5zAPnov</t>
+  </si>
+  <si>
+    <t>MW_HVOPn_liTFizeyFPsK</t>
+  </si>
+  <si>
+    <t>6FK7B6aMuNkjftumBwtAJ</t>
+  </si>
+  <si>
+    <t>fAY7E-L7oGZnW_s8OIkEa</t>
+  </si>
+  <si>
+    <t>anhC3bSAtD6n3RSne9xdq</t>
+  </si>
+  <si>
+    <t>_iI4Ntq3Yz7qvK585J1wU</t>
+  </si>
+  <si>
+    <t>tEr2mAwAJB-aWTEAvfMN6</t>
+  </si>
+  <si>
+    <t>zdhLhPyhBD3Ox-x7T2Emx</t>
+  </si>
+  <si>
+    <t>TetdvDDiavVqI4d1ldnAu</t>
+  </si>
+  <si>
+    <t>zwK8oWHkuzWxbK_dQTE92</t>
+  </si>
+  <si>
+    <t>_cu4OIi6VAxNh8ROeBUC8</t>
+  </si>
+  <si>
+    <t>gdmS7m5uN8BKHAcy6eC-I</t>
+  </si>
+  <si>
+    <t>DirR8iBudnjofb_DO2-70</t>
+  </si>
+  <si>
+    <t>5tNfL-na9tHtoA9g-pfkC</t>
+  </si>
+  <si>
+    <t>ruaeM7PBUX7IyWrqjbiOH</t>
+  </si>
+  <si>
+    <t>8pVEdMMoGqVu-psVt92Xi</t>
+  </si>
+  <si>
+    <t>yZeksvxekiLE-EtVxLIP0</t>
+  </si>
+  <si>
+    <t>0ifjfTow9n7ADYGp28SeT</t>
+  </si>
+  <si>
+    <t>a-vn5NTHmlYue4JMz3Azt</t>
+  </si>
+  <si>
+    <t>IOClLTYdVp9ch5P5ITIrD</t>
+  </si>
+  <si>
+    <t>71hrUhcYLBDb7aPrW_pE2</t>
+  </si>
+  <si>
+    <t>2mggVpoALphXjZ2dL4RWW</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="7">
     <font>
       <sz val="11"/>
@@ -1537,52 +5888,52 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="14">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="5" fontId="5" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="6" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyProtection="1" borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -1591,10 +5942,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1750,7 +6101,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -1759,13 +6110,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1775,7 +6126,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -1784,7 +6135,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1793,7 +6144,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1803,12 +6154,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -1839,7 +6190,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -1858,7 +6209,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -1871,7 +6222,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
@@ -1879,8 +6230,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="28.140625" customWidth="1"/>
-    <col min="2" max="2" width="108" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="108.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1973,39 +6324,39 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
-    <hyperlink ref="B5" r:id="rId4"/>
-    <hyperlink ref="B6" r:id="rId5"/>
-    <hyperlink ref="B7" r:id="rId6"/>
-    <hyperlink ref="B8" r:id="rId7"/>
-    <hyperlink ref="B9" r:id="rId8"/>
-    <hyperlink ref="B10" r:id="rId9"/>
-    <hyperlink ref="B11" r:id="rId10"/>
+    <hyperlink r:id="rId1" ref="B2"/>
+    <hyperlink r:id="rId2" ref="B3"/>
+    <hyperlink r:id="rId3" ref="B4"/>
+    <hyperlink r:id="rId4" ref="B5"/>
+    <hyperlink r:id="rId5" ref="B6"/>
+    <hyperlink r:id="rId6" ref="B7"/>
+    <hyperlink r:id="rId7" ref="B8"/>
+    <hyperlink r:id="rId8" ref="B9"/>
+    <hyperlink r:id="rId9" ref="B10"/>
+    <hyperlink r:id="rId10" ref="B11"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L51"/>
+  <dimension ref="A1:M51"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="4" width="17.28515625" style="3"/>
-    <col min="5" max="5" width="25.85546875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" style="3"/>
-    <col min="7" max="7" width="27.42578125" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="17.28515625" style="3"/>
+    <col min="1" max="4" style="3" width="17.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="25.85546875" collapsed="true"/>
+    <col min="6" max="6" style="3" width="17.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="27.42578125" collapsed="true"/>
+    <col min="8" max="16384" style="3" width="17.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="30.75" thickBot="1">
+    <row ht="30.75" r="1" spans="1:12" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -2043,9 +6394,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="44.25" thickBot="1">
-      <c r="A2" s="4">
-        <v>1</v>
+    <row ht="44.25" r="2" spans="1:12" thickBot="1">
+      <c r="A2" s="4" t="s">
+        <v>1865</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>14</v>
@@ -2081,9 +6432,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="44.25" thickBot="1">
-      <c r="A3" s="4">
-        <v>2</v>
+    <row ht="44.25" r="3" spans="1:12" thickBot="1">
+      <c r="A3" s="4" t="s">
+        <v>1866</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>24</v>
@@ -2119,9 +6470,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="58.5" thickBot="1">
-      <c r="A4" s="7">
-        <v>3</v>
+    <row ht="58.5" r="4" spans="1:12" thickBot="1">
+      <c r="A4" s="7" t="s">
+        <v>1867</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>33</v>
@@ -2157,9 +6508,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="58.5" thickBot="1">
-      <c r="A5" s="4">
-        <v>4</v>
+    <row ht="58.5" r="5" spans="1:12" thickBot="1">
+      <c r="A5" s="4" t="s">
+        <v>1868</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>42</v>
@@ -2195,9 +6546,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="44.25" thickBot="1">
-      <c r="A6" s="4">
-        <v>5</v>
+    <row ht="44.25" r="6" spans="1:12" thickBot="1">
+      <c r="A6" s="4" t="s">
+        <v>1869</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>51</v>
@@ -2233,9 +6584,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="44.25" thickBot="1">
-      <c r="A7" s="7">
-        <v>6</v>
+    <row ht="44.25" r="7" spans="1:12" thickBot="1">
+      <c r="A7" s="7" t="s">
+        <v>1870</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>60</v>
@@ -2271,9 +6622,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="44.25" thickBot="1">
-      <c r="A8" s="4">
-        <v>7</v>
+    <row ht="44.25" r="8" spans="1:12" thickBot="1">
+      <c r="A8" s="4" t="s">
+        <v>1871</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>69</v>
@@ -2309,9 +6660,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="44.25" thickBot="1">
-      <c r="A9" s="4">
-        <v>8</v>
+    <row ht="44.25" r="9" spans="1:12" thickBot="1">
+      <c r="A9" s="4" t="s">
+        <v>1872</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>78</v>
@@ -2347,9 +6698,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="58.5" thickBot="1">
-      <c r="A10" s="7">
-        <v>9</v>
+    <row ht="58.5" r="10" spans="1:12" thickBot="1">
+      <c r="A10" s="7" t="s">
+        <v>1873</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>87</v>
@@ -2385,9 +6736,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="58.5" thickBot="1">
-      <c r="A11" s="4">
-        <v>10</v>
+    <row ht="58.5" r="11" spans="1:12" thickBot="1">
+      <c r="A11" s="4" t="s">
+        <v>1874</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>96</v>
@@ -2423,9 +6774,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="58.5" thickBot="1">
-      <c r="A12" s="4">
-        <v>11</v>
+    <row ht="58.5" r="12" spans="1:12" thickBot="1">
+      <c r="A12" s="4" t="s">
+        <v>1875</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>105</v>
@@ -2461,9 +6812,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="44.25" thickBot="1">
-      <c r="A13" s="7">
-        <v>12</v>
+    <row ht="44.25" r="13" spans="1:12" thickBot="1">
+      <c r="A13" s="7" t="s">
+        <v>1876</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>114</v>
@@ -2499,9 +6850,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="44.25" thickBot="1">
-      <c r="A14" s="4">
-        <v>13</v>
+    <row ht="44.25" r="14" spans="1:12" thickBot="1">
+      <c r="A14" s="4" t="s">
+        <v>1877</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>123</v>
@@ -2537,9 +6888,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="44.25" thickBot="1">
-      <c r="A15" s="4">
-        <v>14</v>
+    <row ht="44.25" r="15" spans="1:12" thickBot="1">
+      <c r="A15" s="4" t="s">
+        <v>1878</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>131</v>
@@ -2575,9 +6926,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="44.25" thickBot="1">
-      <c r="A16" s="7">
-        <v>15</v>
+    <row ht="44.25" r="16" spans="1:12" thickBot="1">
+      <c r="A16" s="7" t="s">
+        <v>1879</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>139</v>
@@ -2613,9 +6964,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="44.25" thickBot="1">
-      <c r="A17" s="4">
-        <v>16</v>
+    <row ht="44.25" r="17" spans="1:12" thickBot="1">
+      <c r="A17" s="4" t="s">
+        <v>1880</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>148</v>
@@ -2651,9 +7002,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="44.25" thickBot="1">
-      <c r="A18" s="4">
-        <v>17</v>
+    <row ht="44.25" r="18" spans="1:12" thickBot="1">
+      <c r="A18" s="4" t="s">
+        <v>1881</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>156</v>
@@ -2689,9 +7040,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="44.25" thickBot="1">
-      <c r="A19" s="7">
-        <v>18</v>
+    <row ht="44.25" r="19" spans="1:12" thickBot="1">
+      <c r="A19" s="7" t="s">
+        <v>1882</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>165</v>
@@ -2727,9 +7078,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="44.25" thickBot="1">
-      <c r="A20" s="4">
-        <v>19</v>
+    <row ht="44.25" r="20" spans="1:12" thickBot="1">
+      <c r="A20" s="4" t="s">
+        <v>1883</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>173</v>
@@ -2765,9 +7116,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="44.25" thickBot="1">
-      <c r="A21" s="4">
-        <v>20</v>
+    <row ht="44.25" r="21" spans="1:12" thickBot="1">
+      <c r="A21" s="4" t="s">
+        <v>1884</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>181</v>
@@ -2803,9 +7154,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="44.25" thickBot="1">
-      <c r="A22" s="7">
-        <v>21</v>
+    <row ht="44.25" r="22" spans="1:12" thickBot="1">
+      <c r="A22" s="7" t="s">
+        <v>1885</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>190</v>
@@ -2841,9 +7192,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="58.5" thickBot="1">
-      <c r="A23" s="4">
-        <v>22</v>
+    <row ht="58.5" r="23" spans="1:12" thickBot="1">
+      <c r="A23" s="4" t="s">
+        <v>1886</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>199</v>
@@ -2879,9 +7230,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="44.25" thickBot="1">
-      <c r="A24" s="4">
-        <v>23</v>
+    <row ht="44.25" r="24" spans="1:12" thickBot="1">
+      <c r="A24" s="4" t="s">
+        <v>1887</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>207</v>
@@ -2917,9 +7268,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="58.5" thickBot="1">
-      <c r="A25" s="7">
-        <v>24</v>
+    <row ht="58.5" r="25" spans="1:12" thickBot="1">
+      <c r="A25" s="7" t="s">
+        <v>1888</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>216</v>
@@ -2955,9 +7306,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="58.5" thickBot="1">
-      <c r="A26" s="4">
-        <v>25</v>
+    <row ht="58.5" r="26" spans="1:12" thickBot="1">
+      <c r="A26" s="4" t="s">
+        <v>1889</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>225</v>
@@ -2993,9 +7344,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="58.5" thickBot="1">
-      <c r="A27" s="4">
-        <v>26</v>
+    <row ht="58.5" r="27" spans="1:12" thickBot="1">
+      <c r="A27" s="4" t="s">
+        <v>1890</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>234</v>
@@ -3031,9 +7382,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="44.25" thickBot="1">
-      <c r="A28" s="7">
-        <v>27</v>
+    <row ht="44.25" r="28" spans="1:12" thickBot="1">
+      <c r="A28" s="7" t="s">
+        <v>1891</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>243</v>
@@ -3069,9 +7420,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="58.5" thickBot="1">
-      <c r="A29" s="4">
-        <v>28</v>
+    <row ht="58.5" r="29" spans="1:12" thickBot="1">
+      <c r="A29" s="4" t="s">
+        <v>1892</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>251</v>
@@ -3107,9 +7458,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="44.25" thickBot="1">
-      <c r="A30" s="4">
-        <v>29</v>
+    <row ht="44.25" r="30" spans="1:12" thickBot="1">
+      <c r="A30" s="4" t="s">
+        <v>1893</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>259</v>
@@ -3145,9 +7496,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="58.5" thickBot="1">
-      <c r="A31" s="7">
-        <v>30</v>
+    <row ht="58.5" r="31" spans="1:12" thickBot="1">
+      <c r="A31" s="7" t="s">
+        <v>1894</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>268</v>
@@ -3183,9 +7534,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="44.25" thickBot="1">
-      <c r="A32" s="4">
-        <v>31</v>
+    <row ht="44.25" r="32" spans="1:12" thickBot="1">
+      <c r="A32" s="4" t="s">
+        <v>1895</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>276</v>
@@ -3221,9 +7572,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="58.5" thickBot="1">
-      <c r="A33" s="4">
-        <v>32</v>
+    <row ht="58.5" r="33" spans="1:12" thickBot="1">
+      <c r="A33" s="4" t="s">
+        <v>1896</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>284</v>
@@ -3259,9 +7610,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="44.25" thickBot="1">
-      <c r="A34" s="7">
-        <v>33</v>
+    <row ht="44.25" r="34" spans="1:12" thickBot="1">
+      <c r="A34" s="7" t="s">
+        <v>1897</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>292</v>
@@ -3297,9 +7648,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="58.5" thickBot="1">
-      <c r="A35" s="4">
-        <v>34</v>
+    <row ht="58.5" r="35" spans="1:12" thickBot="1">
+      <c r="A35" s="4" t="s">
+        <v>1898</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>301</v>
@@ -3335,9 +7686,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="58.5" thickBot="1">
-      <c r="A36" s="4">
-        <v>35</v>
+    <row ht="58.5" r="36" spans="1:12" thickBot="1">
+      <c r="A36" s="4" t="s">
+        <v>1899</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>310</v>
@@ -3373,9 +7724,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="44.25" thickBot="1">
-      <c r="A37" s="7">
-        <v>36</v>
+    <row ht="44.25" r="37" spans="1:12" thickBot="1">
+      <c r="A37" s="7" t="s">
+        <v>1900</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>319</v>
@@ -3411,9 +7762,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="44.25" thickBot="1">
-      <c r="A38" s="4">
-        <v>37</v>
+    <row ht="44.25" r="38" spans="1:12" thickBot="1">
+      <c r="A38" s="4" t="s">
+        <v>1901</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>327</v>
@@ -3449,9 +7800,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="58.5" thickBot="1">
-      <c r="A39" s="4">
-        <v>38</v>
+    <row ht="58.5" r="39" spans="1:12" thickBot="1">
+      <c r="A39" s="4" t="s">
+        <v>1902</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>336</v>
@@ -3487,9 +7838,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="44.25" thickBot="1">
-      <c r="A40" s="7">
-        <v>39</v>
+    <row ht="44.25" r="40" spans="1:12" thickBot="1">
+      <c r="A40" s="7" t="s">
+        <v>1903</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>344</v>
@@ -3525,9 +7876,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="44.25" thickBot="1">
-      <c r="A41" s="4">
-        <v>40</v>
+    <row ht="44.25" r="41" spans="1:12" thickBot="1">
+      <c r="A41" s="4" t="s">
+        <v>1904</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>352</v>
@@ -3563,9 +7914,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="58.5" thickBot="1">
-      <c r="A42" s="4">
-        <v>41</v>
+    <row ht="58.5" r="42" spans="1:12" thickBot="1">
+      <c r="A42" s="4" t="s">
+        <v>1905</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>360</v>
@@ -3601,9 +7952,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="44.25" thickBot="1">
-      <c r="A43" s="7">
-        <v>42</v>
+    <row ht="44.25" r="43" spans="1:12" thickBot="1">
+      <c r="A43" s="7" t="s">
+        <v>1906</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>368</v>
@@ -3639,9 +7990,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="58.5" thickBot="1">
-      <c r="A44" s="4">
-        <v>43</v>
+    <row ht="58.5" r="44" spans="1:12" thickBot="1">
+      <c r="A44" s="4" t="s">
+        <v>1907</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>377</v>
@@ -3677,9 +8028,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="58.5" thickBot="1">
-      <c r="A45" s="4">
-        <v>44</v>
+    <row ht="58.5" r="45" spans="1:12" thickBot="1">
+      <c r="A45" s="4" t="s">
+        <v>1908</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>386</v>
@@ -3715,9 +8066,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="44.25" thickBot="1">
-      <c r="A46" s="7">
-        <v>45</v>
+    <row ht="44.25" r="46" spans="1:12" thickBot="1">
+      <c r="A46" s="7" t="s">
+        <v>1909</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>394</v>
@@ -3753,9 +8104,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="58.5" thickBot="1">
-      <c r="A47" s="4">
-        <v>46</v>
+    <row ht="58.5" r="47" spans="1:12" thickBot="1">
+      <c r="A47" s="4" t="s">
+        <v>1910</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>402</v>
@@ -3791,9 +8142,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="44.25" thickBot="1">
-      <c r="A48" s="4">
-        <v>47</v>
+    <row ht="44.25" r="48" spans="1:12" thickBot="1">
+      <c r="A48" s="4" t="s">
+        <v>1911</v>
       </c>
       <c r="B48" s="5" t="s">
         <v>410</v>
@@ -3829,9 +8180,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="44.25" thickBot="1">
-      <c r="A49" s="7">
-        <v>48</v>
+    <row ht="44.25" r="49" spans="1:12" thickBot="1">
+      <c r="A49" s="7" t="s">
+        <v>1912</v>
       </c>
       <c r="B49" s="5" t="s">
         <v>418</v>
@@ -3867,9 +8218,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="44.25" thickBot="1">
-      <c r="A50" s="4">
-        <v>49</v>
+    <row ht="44.25" r="50" spans="1:12" thickBot="1">
+      <c r="A50" s="4" t="s">
+        <v>1913</v>
       </c>
       <c r="B50" s="5" t="s">
         <v>427</v>
@@ -3905,9 +8256,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="44.25" thickBot="1">
-      <c r="A51" s="4">
-        <v>50</v>
+    <row ht="44.25" r="51" spans="1:12" thickBot="1">
+      <c r="A51" s="4" t="s">
+        <v>1914</v>
       </c>
       <c r="B51" s="5" t="s">
         <v>436</v>
@@ -3944,7 +8295,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" r:id="rId1" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/FinalProject/data/pet-store-data.xlsx
+++ b/FinalProject/data/pet-store-data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet name="cart_items" sheetId="1" r:id="rId1"/>
     <sheet name="users" sheetId="2" r:id="rId2"/>
+    <sheet name="users_without_password" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
   <oleSize ref="A1:H20"/>
@@ -16,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1137" uniqueCount="565">
   <si>
     <t>ITEM_ID</t>
   </si>
@@ -1413,154 +1414,304 @@
     <t>https://petstore.octoperf.com/actions/Catalog.action?viewItem=&amp;itemId=EST-13</t>
   </si>
   <si>
-    <t>vetrPHh7r5XnwwA16bHH1</t>
-  </si>
-  <si>
-    <t>nBzzSHIeWHtL3Ny9Y3b6u</t>
-  </si>
-  <si>
-    <t>uTIHfVfhh56umnkAzRMtE</t>
-  </si>
-  <si>
-    <t>bxEyqN9f571BzGFLqVgyJ</t>
-  </si>
-  <si>
-    <t>guwLgx6eGYMbCK4mCcB8B</t>
-  </si>
-  <si>
-    <t>mTtDA175kNsnctWgOyQMq</t>
-  </si>
-  <si>
-    <t>VjeOGITROl5XnTG94CQD4</t>
-  </si>
-  <si>
-    <t>DDE3A0XNEEaaMc1GQGMVO</t>
-  </si>
-  <si>
-    <t>wyWgh0tj7GNHMglGMhtw_</t>
-  </si>
-  <si>
-    <t>bZqba0EhWau3161oPqcL9</t>
-  </si>
-  <si>
-    <t>4B9lzPH5LngCaOv2cmJ70</t>
-  </si>
-  <si>
-    <t>-Cg44ePS6y3ySr9tScp1a</t>
-  </si>
-  <si>
-    <t>PtQMVKqiS2AW2gAUMtS2u</t>
-  </si>
-  <si>
-    <t>PfWKY3-qig7o-5HTWWPkJ</t>
-  </si>
-  <si>
-    <t>ndos6sb58-sAgqUTkTQnX</t>
-  </si>
-  <si>
-    <t>2UubMcHL1agfhjeJkSB4Y</t>
-  </si>
-  <si>
-    <t>qYWcp1K09ZQBvoHRjnP91</t>
-  </si>
-  <si>
-    <t>u3VolF3BUkmDepQZ0RBtI</t>
-  </si>
-  <si>
-    <t>OFLfcsA2K0HJhtbJXVEnJ</t>
-  </si>
-  <si>
-    <t>Ar3RvsYxmPsMFGRI_01TX</t>
-  </si>
-  <si>
-    <t>6s21wAOq7gfK2i2nsQKUC</t>
-  </si>
-  <si>
-    <t>m1Z0caC2DLpgw51_4hbkh</t>
-  </si>
-  <si>
-    <t>WAQRoQdfwwSer0n-tCDtZ</t>
-  </si>
-  <si>
-    <t>S0TrVbBl91xP12SHEXr2Q</t>
-  </si>
-  <si>
-    <t>rmw8Hn66_6pzkVUt-AyqK</t>
-  </si>
-  <si>
-    <t>S5lKldNDv2EoObcrs7wo8</t>
-  </si>
-  <si>
-    <t>etTNQJNNnUEyXdxuG-hgt</t>
-  </si>
-  <si>
-    <t>pmqfetgiGSCGl8EhgfQBA</t>
-  </si>
-  <si>
-    <t>E0JP7hYmBDN_2N5zAPnov</t>
-  </si>
-  <si>
-    <t>MW_HVOPn_liTFizeyFPsK</t>
-  </si>
-  <si>
-    <t>6FK7B6aMuNkjftumBwtAJ</t>
-  </si>
-  <si>
-    <t>fAY7E-L7oGZnW_s8OIkEa</t>
-  </si>
-  <si>
-    <t>anhC3bSAtD6n3RSne9xdq</t>
-  </si>
-  <si>
-    <t>_iI4Ntq3Yz7qvK585J1wU</t>
-  </si>
-  <si>
-    <t>tEr2mAwAJB-aWTEAvfMN6</t>
-  </si>
-  <si>
-    <t>zdhLhPyhBD3Ox-x7T2Emx</t>
-  </si>
-  <si>
-    <t>TetdvDDiavVqI4d1ldnAu</t>
-  </si>
-  <si>
-    <t>zwK8oWHkuzWxbK_dQTE92</t>
-  </si>
-  <si>
-    <t>_cu4OIi6VAxNh8ROeBUC8</t>
-  </si>
-  <si>
-    <t>gdmS7m5uN8BKHAcy6eC-I</t>
-  </si>
-  <si>
-    <t>DirR8iBudnjofb_DO2-70</t>
-  </si>
-  <si>
-    <t>5tNfL-na9tHtoA9g-pfkC</t>
-  </si>
-  <si>
-    <t>ruaeM7PBUX7IyWrqjbiOH</t>
-  </si>
-  <si>
-    <t>8pVEdMMoGqVu-psVt92Xi</t>
-  </si>
-  <si>
-    <t>yZeksvxekiLE-EtVxLIP0</t>
-  </si>
-  <si>
-    <t>0ifjfTow9n7ADYGp28SeT</t>
-  </si>
-  <si>
-    <t>a-vn5NTHmlYue4JMz3Azt</t>
-  </si>
-  <si>
-    <t>IOClLTYdVp9ch5P5ITIrD</t>
-  </si>
-  <si>
-    <t>71hrUhcYLBDb7aPrW_pE2</t>
-  </si>
-  <si>
-    <t>2mggVpoALphXjZ2dL4RWW</t>
+    <t>ABbpPrZJgWLHecLjJl5dy</t>
+  </si>
+  <si>
+    <t>mnrR8JB_klTm8DZM5eTls</t>
+  </si>
+  <si>
+    <t>VxFjJMN-eI9Byvu3nZYZW</t>
+  </si>
+  <si>
+    <t>s32MkZ7vTlqeUz4URVHQE</t>
+  </si>
+  <si>
+    <t>rlZJ0S6ymM9wC66CbuoAh</t>
+  </si>
+  <si>
+    <t>YjbJFYZzc_dd1cobMiWu_</t>
+  </si>
+  <si>
+    <t>GvLSJj_WuROsX8Tnv0rEA</t>
+  </si>
+  <si>
+    <t>XftNPrpXSW0Qc_Mc1fmfe</t>
+  </si>
+  <si>
+    <t>VFNdKXfoa3P9XsGwpaXGP</t>
+  </si>
+  <si>
+    <t>ggJt4SlVDK-TUsTMjyb5K</t>
+  </si>
+  <si>
+    <t>ogiX32BJopnUFW4iw3j57</t>
+  </si>
+  <si>
+    <t>v4s6alZ_tMh4fq7MPufCV</t>
+  </si>
+  <si>
+    <t>5a4cbTAu30-C0QQtioxTV</t>
+  </si>
+  <si>
+    <t>-mia5tcLoEhe8JVCmrJiV</t>
+  </si>
+  <si>
+    <t>HFRnFi145Ak9D0Ue5XrbH</t>
+  </si>
+  <si>
+    <t>vs1-HYNusjhj62iRLjOQw</t>
+  </si>
+  <si>
+    <t>WraAVP6-O-w801i6c2HO1</t>
+  </si>
+  <si>
+    <t>XN7kiVCQWbKed76nBk7VH</t>
+  </si>
+  <si>
+    <t>EXI2L7zZbJr3ao57w7lQf</t>
+  </si>
+  <si>
+    <t>1bmisEZ0wifiGV2pNxexH</t>
+  </si>
+  <si>
+    <t>xZ0iVVcipbchwoqcA66WD</t>
+  </si>
+  <si>
+    <t>QuZdoi1k0Mi8xkFGHkun4</t>
+  </si>
+  <si>
+    <t>vLPfi5t4Y31o5NJP3YUzX</t>
+  </si>
+  <si>
+    <t>JlGhuUJlhNeWsNlQr5sX9</t>
+  </si>
+  <si>
+    <t>Vqe4D8gmvhPsFJ3q1ucFe</t>
+  </si>
+  <si>
+    <t>SkMzxT9_hxladNwW5s3cn</t>
+  </si>
+  <si>
+    <t>yXMM4LOU-UL4PUBQku5GY</t>
+  </si>
+  <si>
+    <t>zQ8KAFrq0cbSho2VXJVCp</t>
+  </si>
+  <si>
+    <t>EU3HT_I4rrgh_Yc5TjJyK</t>
+  </si>
+  <si>
+    <t>Br1AU8vbkd2ZVTK2LYHR_</t>
+  </si>
+  <si>
+    <t>1Ccle0PAD2qQM6hLmjQlD</t>
+  </si>
+  <si>
+    <t>RSSlXeY5cGICHkNEOa0gA</t>
+  </si>
+  <si>
+    <t>UfcHZqro2yPi72496hTaO</t>
+  </si>
+  <si>
+    <t>PPmAtOwjZRoFBNpGy-wuq</t>
+  </si>
+  <si>
+    <t>tOYiw-PvKQfE25nyIKJNP</t>
+  </si>
+  <si>
+    <t>TDTWVKfm--yRq65QVGvJ6</t>
+  </si>
+  <si>
+    <t>9EUJznKj-asTUtS_jDnMZ</t>
+  </si>
+  <si>
+    <t>5PRJfR8-nAPazZs9o8MaP</t>
+  </si>
+  <si>
+    <t>I8_0BD13TcOWAYk745JMs</t>
+  </si>
+  <si>
+    <t>ogOleczG-X4pt8NepM6AR</t>
+  </si>
+  <si>
+    <t>hLZhZdmR1ARqGXvkgFagg</t>
+  </si>
+  <si>
+    <t>jXbvII0IVe1WCHw5Hf-Wc</t>
+  </si>
+  <si>
+    <t>v9iuWQ3FaSgZ0XufCUGvC</t>
+  </si>
+  <si>
+    <t>ZYAY5CGix06gc6z6fT-wC</t>
+  </si>
+  <si>
+    <t>jwts_HfppIm4DJN-oWAeA</t>
+  </si>
+  <si>
+    <t>mF6pviiRrtkKF4e-wsqRh</t>
+  </si>
+  <si>
+    <t>TUd8fEwjuggbkYAj361xS</t>
+  </si>
+  <si>
+    <t>AnbaKNjMCCiNhivViWppO</t>
+  </si>
+  <si>
+    <t>vmpzk8TYITOSUzZj_xgyB</t>
+  </si>
+  <si>
+    <t>hrqn7qAinDQwBHuGQebAb</t>
+  </si>
+  <si>
+    <t>eH0IrLwD37oLQuIt9UZsH</t>
+  </si>
+  <si>
+    <t>eUmLcHrOxRF37jI1UAM1t</t>
+  </si>
+  <si>
+    <t>LotA1DbhYQSwvI1yqPU4L</t>
+  </si>
+  <si>
+    <t>B2KA_hiyIYAR9KzfhN0L4</t>
+  </si>
+  <si>
+    <t>ogmWyovezRITiXYwmFewx</t>
+  </si>
+  <si>
+    <t>5ZOWxhjG40iXsBHSlD65V</t>
+  </si>
+  <si>
+    <t>gJcu7zL1pxt8PYU2EU76M</t>
+  </si>
+  <si>
+    <t>lKUlBD72YkoBcIUv3VfRK</t>
+  </si>
+  <si>
+    <t>38RugvUNBydvTlmheTvT8</t>
+  </si>
+  <si>
+    <t>lI267LtIvkDsu3LtbVxU2</t>
+  </si>
+  <si>
+    <t>qd90bl1vNijZIzy-T6Tkk</t>
+  </si>
+  <si>
+    <t>fbplhm552lpsDoos-F81d</t>
+  </si>
+  <si>
+    <t>JCgt3RANHC_Ts3aTahySI</t>
+  </si>
+  <si>
+    <t>zWuiekBlFTATKJohoR_WD</t>
+  </si>
+  <si>
+    <t>9pLrqfmwvuCFSxgQ1R2L5</t>
+  </si>
+  <si>
+    <t>Pk3XcezcGRdtu7VIk0VUD</t>
+  </si>
+  <si>
+    <t>hsLToIR1JY-vxIrppZWKf</t>
+  </si>
+  <si>
+    <t>_nhcqYWbrEc6X3nbICmmA</t>
+  </si>
+  <si>
+    <t>doWtq9K9BSNlCBobFGLtH</t>
+  </si>
+  <si>
+    <t>fh92EbG9WN6F90eyRhHAw</t>
+  </si>
+  <si>
+    <t>tJ3lvCHnBNqPt3QSCqOuP</t>
+  </si>
+  <si>
+    <t>j4C2oI8ZF9BOTabkvmOiH</t>
+  </si>
+  <si>
+    <t>R9UfX3cffu82RwM-6o0Mh</t>
+  </si>
+  <si>
+    <t>Pg1YOFuFdr9neiafFVgmv</t>
+  </si>
+  <si>
+    <t>NYgxewKag8ZaeBljrD0Py</t>
+  </si>
+  <si>
+    <t>DdJpCwHRuNRQvduc2PG7v</t>
+  </si>
+  <si>
+    <t>v3to55rnqkCut6kD27sCK</t>
+  </si>
+  <si>
+    <t>5nbWXy-Rls4fC5-4vpC3u</t>
+  </si>
+  <si>
+    <t>lVXduHpSclHoEl81NzG1Y</t>
+  </si>
+  <si>
+    <t>l_N7U1Z3DJCQdPVdZ-2rK</t>
+  </si>
+  <si>
+    <t>HiB8pPMk0FV3OwSqgdw8r</t>
+  </si>
+  <si>
+    <t>RYY0WUjxcKs85ZRLR2xQk</t>
+  </si>
+  <si>
+    <t>gUommyV3l5qmLWgJFMj_t</t>
+  </si>
+  <si>
+    <t>GV8Uv9cK43JDpVApUT-Mt</t>
+  </si>
+  <si>
+    <t>-ONfkNqgUktCDACHGOOzB</t>
+  </si>
+  <si>
+    <t>9R9CR_Y2YhjwfYSwfifYp</t>
+  </si>
+  <si>
+    <t>bQphyd-yBvpxPx5shyAA_</t>
+  </si>
+  <si>
+    <t>5CL0vUAHd2ZkyM4bhfSLY</t>
+  </si>
+  <si>
+    <t>quYtV0J3lLarex2meO-Ic</t>
+  </si>
+  <si>
+    <t>2vybb9QpBjKwMFIU7myhq</t>
+  </si>
+  <si>
+    <t>tcfZV3CjHo-_mjbMBDslw</t>
+  </si>
+  <si>
+    <t>r6zIYSEhK2sUDS9tcMSec</t>
+  </si>
+  <si>
+    <t>MyJyK1MWSXVJZz6tgNLMf</t>
+  </si>
+  <si>
+    <t>HP-HVAXLT-7PJs5UIIUWc</t>
+  </si>
+  <si>
+    <t>SOp3CKHqNFm5HKlTJMPAO</t>
+  </si>
+  <si>
+    <t>EpVs80DYUki6wPoGk0kF4</t>
+  </si>
+  <si>
+    <t>pwyEbcbN6_gy11uhgz8uF</t>
+  </si>
+  <si>
+    <t>xa2ciMjPr7IkoC6lHxmoF</t>
+  </si>
+  <si>
+    <t>7IMjkSglqHmXrKHwRdu3O</t>
+  </si>
+  <si>
+    <t>ImWUAe6XeCtnEhCyNbfoF</t>
   </si>
 </sst>
 </file>
@@ -2206,6 +2357,1967 @@
     </row>
     <row r="2" spans="1:12" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
+        <v>515</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="9">
+        <v>33101</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>516</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="9">
+        <v>23308</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="K4" s="9">
+        <v>26739</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="K5" s="9">
+        <v>74468</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="K6" s="9">
+        <v>28160</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="K7" s="9">
+        <v>15545</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>521</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="K8" s="9">
+        <v>65080</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="K9" s="9">
+        <v>82718</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="K10" s="9">
+        <v>10273</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>524</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="K11" s="9">
+        <v>58651</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="K12" s="9">
+        <v>46851</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
+        <v>526</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="K13" s="9">
+        <v>15601</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>527</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="K14" s="9">
+        <v>47992</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="K15" s="9">
+        <v>78338</v>
+      </c>
+      <c r="L15" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="K16" s="9">
+        <v>76465</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>530</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="K17" s="9">
+        <v>38369</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="K18" s="9">
+        <v>18449</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="K19" s="9">
+        <v>52640</v>
+      </c>
+      <c r="L19" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>533</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="K20" s="9">
+        <v>15250</v>
+      </c>
+      <c r="L20" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>534</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="J21" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="K21" s="9">
+        <v>93718</v>
+      </c>
+      <c r="L21" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="K22" s="9">
+        <v>56016</v>
+      </c>
+      <c r="L22" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>536</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="J23" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="K23" s="9">
+        <v>45222</v>
+      </c>
+      <c r="L23" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>537</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="J24" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="K24" s="9">
+        <v>10597</v>
+      </c>
+      <c r="L24" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="J25" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="K25" s="9">
+        <v>39581</v>
+      </c>
+      <c r="L25" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>539</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="J26" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="K26" s="9">
+        <v>5069</v>
+      </c>
+      <c r="L26" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
+        <v>540</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="J27" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="K27" s="9">
+        <v>28723</v>
+      </c>
+      <c r="L27" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="J28" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="K28" s="9">
+        <v>38478</v>
+      </c>
+      <c r="L28" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>542</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="J29" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="K29" s="9">
+        <v>28144</v>
+      </c>
+      <c r="L29" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
+        <v>543</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="J30" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="K30" s="9">
+        <v>40062</v>
+      </c>
+      <c r="L30" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="J31" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="K31" s="9">
+        <v>35073</v>
+      </c>
+      <c r="L31" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
+        <v>545</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="J32" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="K32" s="9">
+        <v>24464</v>
+      </c>
+      <c r="L32" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="4" t="s">
+        <v>546</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="J33" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="K33" s="9">
+        <v>19529</v>
+      </c>
+      <c r="L33" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="I34" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="J34" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="K34" s="9">
+        <v>44645</v>
+      </c>
+      <c r="L34" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="4" t="s">
+        <v>548</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="J35" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="K35" s="9">
+        <v>95120</v>
+      </c>
+      <c r="L35" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="4" t="s">
+        <v>549</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="I36" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="J36" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="K36" s="9">
+        <v>43548</v>
+      </c>
+      <c r="L36" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="I37" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="J37" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="K37" s="9">
+        <v>31790</v>
+      </c>
+      <c r="L37" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="I38" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="J38" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="K38" s="9">
+        <v>11531</v>
+      </c>
+      <c r="L38" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="4" t="s">
+        <v>552</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="I39" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="J39" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="K39" s="9">
+        <v>61468</v>
+      </c>
+      <c r="L39" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="H40" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="I40" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="J40" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="K40" s="9">
+        <v>20223</v>
+      </c>
+      <c r="L40" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="4" t="s">
+        <v>554</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="H41" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="I41" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="J41" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="K41" s="9">
+        <v>48636</v>
+      </c>
+      <c r="L41" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="4" t="s">
+        <v>555</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="H42" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="I42" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="J42" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="K42" s="9">
+        <v>30140</v>
+      </c>
+      <c r="L42" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="H43" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="I43" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="J43" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="K43" s="9">
+        <v>85381</v>
+      </c>
+      <c r="L43" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="E44" s="10" t="s">
+        <v>380</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="H44" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="I44" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="J44" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="K44" s="9">
+        <v>57073</v>
+      </c>
+      <c r="L44" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="H45" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="I45" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J45" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="K45" s="9">
+        <v>65612</v>
+      </c>
+      <c r="L45" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="H46" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="I46" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="J46" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="K46" s="9">
+        <v>67448</v>
+      </c>
+      <c r="L46" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="4" t="s">
+        <v>560</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="G47" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="H47" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="I47" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="J47" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="K47" s="9">
+        <v>59405</v>
+      </c>
+      <c r="L47" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="4" t="s">
+        <v>561</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="H48" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="I48" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="J48" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="K48" s="9">
+        <v>92563</v>
+      </c>
+      <c r="L48" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="G49" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="H49" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="I49" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="J49" s="8" t="s">
+        <v>426</v>
+      </c>
+      <c r="K49" s="9">
+        <v>94271</v>
+      </c>
+      <c r="L49" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="4" t="s">
+        <v>563</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="G50" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="H50" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="I50" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="J50" s="8" t="s">
+        <v>435</v>
+      </c>
+      <c r="K50" s="9">
+        <v>77230</v>
+      </c>
+      <c r="L50" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="4" t="s">
+        <v>564</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="G51" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="H51" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="I51" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="J51" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="K51" s="9">
+        <v>34712</v>
+      </c>
+      <c r="L51" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L51"/>
+  <sheetViews>
+    <sheetView topLeftCell="A43" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E52" sqref="E52"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="4" width="17.28515625" style="3" collapsed="1"/>
+    <col min="5" max="5" width="25.85546875" style="3" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="17.28515625" style="3" collapsed="1"/>
+    <col min="7" max="7" width="27.42578125" style="3" customWidth="1" collapsed="1"/>
+    <col min="8" max="16384" width="17.28515625" style="3" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
         <v>465</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -2246,9 +4358,7 @@
       <c r="A3" s="4" t="s">
         <v>466</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>24</v>
-      </c>
+      <c r="B3" s="5"/>
       <c r="C3" s="6" t="s">
         <v>25</v>
       </c>
@@ -2436,9 +4546,7 @@
       <c r="A8" s="4" t="s">
         <v>471</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>69</v>
-      </c>
+      <c r="B8" s="5"/>
       <c r="C8" s="6" t="s">
         <v>70</v>
       </c>
@@ -2512,9 +4620,7 @@
       <c r="A10" s="7" t="s">
         <v>473</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>87</v>
-      </c>
+      <c r="B10" s="5"/>
       <c r="C10" s="6" t="s">
         <v>88</v>
       </c>
@@ -2622,7 +4728,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>476</v>
       </c>
@@ -2698,7 +4804,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>478</v>
       </c>
@@ -2774,7 +4880,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>480</v>
       </c>
@@ -3044,9 +5150,7 @@
       <c r="A24" s="4" t="s">
         <v>487</v>
       </c>
-      <c r="B24" s="5" t="s">
-        <v>207</v>
-      </c>
+      <c r="B24" s="5"/>
       <c r="C24" s="6" t="s">
         <v>208</v>
       </c>
@@ -3382,7 +5486,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>496</v>
       </c>
@@ -3496,7 +5600,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>499</v>
       </c>
@@ -3652,9 +5756,7 @@
       <c r="A40" s="7" t="s">
         <v>503</v>
       </c>
-      <c r="B40" s="5" t="s">
-        <v>344</v>
-      </c>
+      <c r="B40" s="5"/>
       <c r="C40" s="6" t="s">
         <v>345</v>
       </c>
@@ -3766,9 +5868,7 @@
       <c r="A43" s="7" t="s">
         <v>506</v>
       </c>
-      <c r="B43" s="5" t="s">
-        <v>368</v>
-      </c>
+      <c r="B43" s="5"/>
       <c r="C43" s="6" t="s">
         <v>369</v>
       </c>
@@ -3880,9 +5980,7 @@
       <c r="A46" s="7" t="s">
         <v>509</v>
       </c>
-      <c r="B46" s="5" t="s">
-        <v>394</v>
-      </c>
+      <c r="B46" s="5"/>
       <c r="C46" s="6" t="s">
         <v>395</v>
       </c>
@@ -3952,13 +6050,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
         <v>511</v>
       </c>
-      <c r="B48" s="5" t="s">
-        <v>410</v>
-      </c>
+      <c r="B48" s="5"/>
       <c r="C48" s="6" t="s">
         <v>411</v>
       </c>
@@ -4032,9 +6128,7 @@
       <c r="A50" s="4" t="s">
         <v>513</v>
       </c>
-      <c r="B50" s="5" t="s">
-        <v>427</v>
-      </c>
+      <c r="B50" s="5"/>
       <c r="C50" s="6" t="s">
         <v>428</v>
       </c>

--- a/FinalProject/data/pet-store-data.xlsx
+++ b/FinalProject/data/pet-store-data.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21225" windowHeight="6720"/>
+    <workbookView windowHeight="6720" windowWidth="21225" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="cart_items" sheetId="1" r:id="rId1"/>
-    <sheet name="users" sheetId="2" r:id="rId2"/>
-    <sheet name="users_without_password" sheetId="3" r:id="rId3"/>
+    <sheet name="cart_items" r:id="rId1" sheetId="1"/>
+    <sheet name="users" r:id="rId2" sheetId="2"/>
+    <sheet name="users_without_password" r:id="rId3" sheetId="3"/>
   </sheets>
   <calcPr calcId="0"/>
   <oleSize ref="A1:H20"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1137" uniqueCount="565">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1237" uniqueCount="665">
   <si>
     <t>ITEM_ID</t>
   </si>
@@ -1712,12 +1712,313 @@
   </si>
   <si>
     <t>ImWUAe6XeCtnEhCyNbfoF</t>
+  </si>
+  <si>
+    <t>KOr2g5a-kRZ0zCFb-jdc1</t>
+  </si>
+  <si>
+    <t>a-j7uxhDbrnsFm_O9Z4Q1</t>
+  </si>
+  <si>
+    <t>Eey4h2UJ6wwVzbVz-C_M-</t>
+  </si>
+  <si>
+    <t>5t9U044r6b_1yWEWlKush</t>
+  </si>
+  <si>
+    <t>vtjdT0AJlodnIMJfaCaQ4</t>
+  </si>
+  <si>
+    <t>Q4nKHAMIPzxyVFNIFehXp</t>
+  </si>
+  <si>
+    <t>CLmLNghFbuEvJQQiL3tYV</t>
+  </si>
+  <si>
+    <t>rt0JxUq7Qlf4XYOC3-A6t</t>
+  </si>
+  <si>
+    <t>JKyawi3YdfHxZ3XCSz7QD</t>
+  </si>
+  <si>
+    <t>sVBF9jt56CAXPc-2CUTRO</t>
+  </si>
+  <si>
+    <t>xJ3Hnj4sBXDVNLYyEv7Cb</t>
+  </si>
+  <si>
+    <t>tJ2bYSYXWvOdnsK6QtMI0</t>
+  </si>
+  <si>
+    <t>y-glnc00ZYe4Y-j92Z_Dh</t>
+  </si>
+  <si>
+    <t>j1S2JAdZ1azcL8tboc7sG</t>
+  </si>
+  <si>
+    <t>CVFcu1nn_i9muvqthxWO5</t>
+  </si>
+  <si>
+    <t>YGI-0Z1_57jKYVKiRjaB-</t>
+  </si>
+  <si>
+    <t>auM6xEdZBVJnBA7_VgvaV</t>
+  </si>
+  <si>
+    <t>aycv0JaLNuhpSiNN60VZ1</t>
+  </si>
+  <si>
+    <t>lcuoU02W_74C8AtJ8bUgp</t>
+  </si>
+  <si>
+    <t>W-aRsbsJFfqXBThGVnusb</t>
+  </si>
+  <si>
+    <t>BZB4VaCAIwX6kdBD0AUq5</t>
+  </si>
+  <si>
+    <t>ypInKFjyJJYk1vlUTCFvm</t>
+  </si>
+  <si>
+    <t>VkLErW1q7eKdpPgdEZF18</t>
+  </si>
+  <si>
+    <t>PqTw1znzF9Q76Nfxv94-U</t>
+  </si>
+  <si>
+    <t>i_elVyPFVSihs9EPmbxqt</t>
+  </si>
+  <si>
+    <t>GyuLAJPveI16bxvRznG7R</t>
+  </si>
+  <si>
+    <t>3i13nF_mcNkk25EacbGC5</t>
+  </si>
+  <si>
+    <t>w6wpIvboptwCAE2JQO2pD</t>
+  </si>
+  <si>
+    <t>fx5LD9PfLbuuo6EngMxCD</t>
+  </si>
+  <si>
+    <t>7KZ61CocLhEXn0IcCZPuL</t>
+  </si>
+  <si>
+    <t>UEUfOucgHrpt_OPB_pOhC</t>
+  </si>
+  <si>
+    <t>D_GvWb9a519a0wtFaHF4x</t>
+  </si>
+  <si>
+    <t>Fq391eEmUSM3byfelaOe_</t>
+  </si>
+  <si>
+    <t>WIHKslV5mFxIiPculdEIJ</t>
+  </si>
+  <si>
+    <t>l2TtKKzzvZxptkHcC3XUw</t>
+  </si>
+  <si>
+    <t>9uET5TRcb5sLjR41VfqCq</t>
+  </si>
+  <si>
+    <t>stz6-aEaD7hJtSrDTy5Zc</t>
+  </si>
+  <si>
+    <t>-ApLhlHbpU1WonpbP_4D6</t>
+  </si>
+  <si>
+    <t>9ShLZ4EQk93Yzksa6LBbC</t>
+  </si>
+  <si>
+    <t>xjdRfsh_UJEudPpgxiqBa</t>
+  </si>
+  <si>
+    <t>oUxs_aStgrVvH6EDkVubt</t>
+  </si>
+  <si>
+    <t>EWyyX34AkZsQCoMJnKJ6n</t>
+  </si>
+  <si>
+    <t>kNn4gKnrlc0-rc3163Fxx</t>
+  </si>
+  <si>
+    <t>LTwDdypKKrOMhf0PU6Zfy</t>
+  </si>
+  <si>
+    <t>2Bm0NyU7llsq9mJAiCjBS</t>
+  </si>
+  <si>
+    <t>21X06qKXyIne8b9-hWW4l</t>
+  </si>
+  <si>
+    <t>tQKjpBHlmQCGJ_1Npz4f2</t>
+  </si>
+  <si>
+    <t>uWCRG8A5cfuzGfs6exD-u</t>
+  </si>
+  <si>
+    <t>EJOVkOfVfhC2PSNU87i6L</t>
+  </si>
+  <si>
+    <t>aDdftgGaFzuUylG_xZMYU</t>
+  </si>
+  <si>
+    <t>foC-Hw8NPr1C2eR6reIGf</t>
+  </si>
+  <si>
+    <t>wx4hW5eEbb2NMzN-xIlKC</t>
+  </si>
+  <si>
+    <t>IYuFI1wQzZc7vf5SQ94CE</t>
+  </si>
+  <si>
+    <t>y_lSNCasm-_djbXGeB3HR</t>
+  </si>
+  <si>
+    <t>mISvDHVoHi4s_HHHGTDPG</t>
+  </si>
+  <si>
+    <t>CcDwjjXMFsEwdgWRsZHrm</t>
+  </si>
+  <si>
+    <t>aKs4iVAgP_mEGFduybANU</t>
+  </si>
+  <si>
+    <t>Uokkm_Qhrjj3m4Ra0pAcg</t>
+  </si>
+  <si>
+    <t>AtZsmIu7sj65UzQsBhB49</t>
+  </si>
+  <si>
+    <t>3tHxwGsYK15IIjvZ7K1_o</t>
+  </si>
+  <si>
+    <t>diLBul_6dgORxSyh6Mcan</t>
+  </si>
+  <si>
+    <t>ZmfzweNHYk4K8lm0y89H5</t>
+  </si>
+  <si>
+    <t>30D7ndoXF6lwJjrBAjLoJ</t>
+  </si>
+  <si>
+    <t>x8gFS-8ALaJLMqcentDiu</t>
+  </si>
+  <si>
+    <t>XcgYjF_lfFSvTcECAFCNy</t>
+  </si>
+  <si>
+    <t>XUpQ4Z97DdBTvmxn3W_NK</t>
+  </si>
+  <si>
+    <t>BgPyf20uxt_NDA89WxMgq</t>
+  </si>
+  <si>
+    <t>ZmGse9GDIQ5yE-o542Kab</t>
+  </si>
+  <si>
+    <t>R8JBZrA1aJJiWXV8DWXD1</t>
+  </si>
+  <si>
+    <t>49ep6iH6_IEIxM5NUpOSz</t>
+  </si>
+  <si>
+    <t>jtcANAsfdR30irzL6oWVv</t>
+  </si>
+  <si>
+    <t>IrClY-OANceqURYkIoDa8</t>
+  </si>
+  <si>
+    <t>9oSPEYr8UzYVQ57fj0P_x</t>
+  </si>
+  <si>
+    <t>LIcjbTwnXYDDfegPngsYQ</t>
+  </si>
+  <si>
+    <t>SYnm38DKb-gY4CV4gRLlj</t>
+  </si>
+  <si>
+    <t>SqfIzkqVecdsfWTWD64BI</t>
+  </si>
+  <si>
+    <t>bU2XlbQi1JqNVRVCmx5lR</t>
+  </si>
+  <si>
+    <t>4Lu9xkmhc5QkeEDXIeayK</t>
+  </si>
+  <si>
+    <t>YNZMf4Bp6433ioAFh2v8c</t>
+  </si>
+  <si>
+    <t>V8NuPIF66noNHDbLAu9Cv</t>
+  </si>
+  <si>
+    <t>BQIuo8Gs5a20KkFFM4-r0</t>
+  </si>
+  <si>
+    <t>owOuO-wTR8j4SeQ2tz8e4</t>
+  </si>
+  <si>
+    <t>1r6CJ2nZlr-Yj9sL7fq6L</t>
+  </si>
+  <si>
+    <t>uL7XmyoALrQriwjeZDmRu</t>
+  </si>
+  <si>
+    <t>wPr3kCdL_nKC0MsJDUSWD</t>
+  </si>
+  <si>
+    <t>xri5gsWBS-y4xrPD5hXKJ</t>
+  </si>
+  <si>
+    <t>J0rCIquPhPDDLadLR1bBU</t>
+  </si>
+  <si>
+    <t>2vVakBdRLU4WEi8APnUA0</t>
+  </si>
+  <si>
+    <t>P92gL6dG3IgPqtiAxYgT1</t>
+  </si>
+  <si>
+    <t>2jSZZiGUb3gua1-xaf82H</t>
+  </si>
+  <si>
+    <t>Z6ep-STSsnjuvhaCRDII3</t>
+  </si>
+  <si>
+    <t>ppWUY04qYArYI28b3RPtl</t>
+  </si>
+  <si>
+    <t>PkQ7FE7s-tqPyHIU3HCFH</t>
+  </si>
+  <si>
+    <t>ZME_pnMUHvRWySq5L0rZA</t>
+  </si>
+  <si>
+    <t>xzFH495aZeTWIMCdRx8Wj</t>
+  </si>
+  <si>
+    <t>QRP6VVOzhjArvADtdQtu0</t>
+  </si>
+  <si>
+    <t>UGEic9ik4ChVAdpkOxaHr</t>
+  </si>
+  <si>
+    <t>ScTzlca0u38x47W_nEFPp</t>
+  </si>
+  <si>
+    <t>H2N10_i_g5_cRMLR9b9sz</t>
+  </si>
+  <si>
+    <t>OqLKydfct2Ju_XJ9j1zF4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1839,52 +2140,52 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="14">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="5" fontId="5" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="6" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyProtection="1" borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1901,10 +2202,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1939,7 +2240,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1974,7 +2275,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2062,7 +2363,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -2071,13 +2372,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -2087,7 +2388,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -2096,7 +2397,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -2105,7 +2406,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -2115,12 +2416,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -2151,7 +2452,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -2170,7 +2471,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -2182,8 +2483,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
@@ -2191,8 +2492,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="108" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="108.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -2285,39 +2586,39 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
-    <hyperlink ref="B5" r:id="rId4"/>
-    <hyperlink ref="B6" r:id="rId5"/>
-    <hyperlink ref="B7" r:id="rId6"/>
-    <hyperlink ref="B8" r:id="rId7"/>
-    <hyperlink ref="B9" r:id="rId8"/>
-    <hyperlink ref="B10" r:id="rId9"/>
-    <hyperlink ref="B11" r:id="rId10"/>
+    <hyperlink r:id="rId1" ref="B2"/>
+    <hyperlink r:id="rId2" ref="B3"/>
+    <hyperlink r:id="rId3" ref="B4"/>
+    <hyperlink r:id="rId4" ref="B5"/>
+    <hyperlink r:id="rId5" ref="B6"/>
+    <hyperlink r:id="rId6" ref="B7"/>
+    <hyperlink r:id="rId7" ref="B8"/>
+    <hyperlink r:id="rId8" ref="B9"/>
+    <hyperlink r:id="rId9" ref="B10"/>
+    <hyperlink r:id="rId10" ref="B11"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L51"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M51"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="85" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScaleNormal="85">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="17.28515625" style="3" collapsed="1"/>
-    <col min="5" max="5" width="25.85546875" style="3" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17.28515625" style="3" collapsed="1"/>
-    <col min="7" max="7" width="27.42578125" style="3" customWidth="1" collapsed="1"/>
-    <col min="8" max="16384" width="17.28515625" style="3" collapsed="1"/>
+    <col min="1" max="4" style="3" width="17.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="25.85546875" collapsed="true"/>
+    <col min="6" max="6" style="3" width="17.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="27.42578125" collapsed="true"/>
+    <col min="8" max="16384" style="3" width="17.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="1" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -2355,9 +2656,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="29.25" r="2" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>515</v>
+        <v>615</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>14</v>
@@ -2393,9 +2694,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="30" r="3" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>516</v>
+        <v>616</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>24</v>
@@ -2431,9 +2732,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="30" r="4" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>517</v>
+        <v>617</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>33</v>
@@ -2469,9 +2770,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="30" r="5" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>518</v>
+        <v>618</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>42</v>
@@ -2507,9 +2808,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="29.25" r="6" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>519</v>
+        <v>619</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>51</v>
@@ -2545,9 +2846,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="30" r="7" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>520</v>
+        <v>620</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>60</v>
@@ -2583,9 +2884,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="29.25" r="8" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>521</v>
+        <v>621</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>69</v>
@@ -2621,9 +2922,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="30" r="9" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>522</v>
+        <v>622</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>78</v>
@@ -2659,9 +2960,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="30" r="10" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>523</v>
+        <v>623</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>87</v>
@@ -2697,9 +2998,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="30" r="11" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>524</v>
+        <v>624</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>96</v>
@@ -2735,9 +3036,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="30" r="12" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>525</v>
+        <v>625</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>105</v>
@@ -2773,9 +3074,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="30" r="13" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>526</v>
+        <v>626</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>114</v>
@@ -2811,9 +3112,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="29.25" r="14" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>527</v>
+        <v>627</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>123</v>
@@ -2849,9 +3150,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="30" r="15" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>528</v>
+        <v>628</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>131</v>
@@ -2887,9 +3188,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="30" r="16" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
-        <v>529</v>
+        <v>629</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>139</v>
@@ -2925,9 +3226,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="30" r="17" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>530</v>
+        <v>630</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>148</v>
@@ -2963,9 +3264,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="29.25" r="18" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>531</v>
+        <v>631</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>156</v>
@@ -3001,9 +3302,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="30" r="19" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
-        <v>532</v>
+        <v>632</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>165</v>
@@ -3039,9 +3340,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="29.25" r="20" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>533</v>
+        <v>633</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>173</v>
@@ -3077,9 +3378,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="29.25" r="21" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>534</v>
+        <v>634</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>181</v>
@@ -3115,9 +3416,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="30" r="22" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
-        <v>535</v>
+        <v>635</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>190</v>
@@ -3153,9 +3454,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="30" r="23" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>536</v>
+        <v>636</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>199</v>
@@ -3191,9 +3492,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="29.25" r="24" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>537</v>
+        <v>637</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>207</v>
@@ -3229,9 +3530,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="30" r="25" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
-        <v>538</v>
+        <v>638</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>216</v>
@@ -3267,9 +3568,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="29.25" r="26" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>539</v>
+        <v>639</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>225</v>
@@ -3305,9 +3606,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="30" r="27" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>540</v>
+        <v>640</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>234</v>
@@ -3343,9 +3644,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="30" r="28" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
-        <v>541</v>
+        <v>641</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>243</v>
@@ -3381,9 +3682,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="30" r="29" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>542</v>
+        <v>642</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>251</v>
@@ -3419,9 +3720,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="30" r="30" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>543</v>
+        <v>643</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>259</v>
@@ -3457,9 +3758,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="30" r="31" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
-        <v>544</v>
+        <v>644</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>268</v>
@@ -3495,9 +3796,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="29.25" r="32" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
-        <v>545</v>
+        <v>645</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>276</v>
@@ -3533,9 +3834,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="30" r="33" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>546</v>
+        <v>646</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>284</v>
@@ -3571,9 +3872,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="30" r="34" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
-        <v>547</v>
+        <v>647</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>292</v>
@@ -3609,9 +3910,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="30" r="35" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
-        <v>548</v>
+        <v>648</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>301</v>
@@ -3647,9 +3948,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="43.5" r="36" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
-        <v>549</v>
+        <v>649</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>310</v>
@@ -3685,9 +3986,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="30" r="37" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>319</v>
@@ -3723,9 +4024,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="43.5" r="38" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
-        <v>551</v>
+        <v>651</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>327</v>
@@ -3761,9 +4062,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="30" r="39" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
-        <v>552</v>
+        <v>652</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>336</v>
@@ -3799,9 +4100,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="30" r="40" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
-        <v>553</v>
+        <v>653</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>344</v>
@@ -3837,9 +4138,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="30" r="41" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
-        <v>554</v>
+        <v>654</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>352</v>
@@ -3875,9 +4176,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="30" r="42" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
-        <v>555</v>
+        <v>655</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>360</v>
@@ -3913,9 +4214,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="30" r="43" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
-        <v>556</v>
+        <v>656</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>368</v>
@@ -3951,9 +4252,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="30" r="44" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
-        <v>557</v>
+        <v>657</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>377</v>
@@ -3989,9 +4290,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="30" r="45" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
-        <v>558</v>
+        <v>658</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>386</v>
@@ -4027,9 +4328,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="30" r="46" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="7" t="s">
-        <v>559</v>
+        <v>659</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>394</v>
@@ -4065,9 +4366,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="30" r="47" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
-        <v>560</v>
+        <v>660</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>402</v>
@@ -4103,9 +4404,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="29.25" r="48" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
-        <v>561</v>
+        <v>661</v>
       </c>
       <c r="B48" s="5" t="s">
         <v>410</v>
@@ -4141,9 +4442,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="30" r="49" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="7" t="s">
-        <v>562</v>
+        <v>662</v>
       </c>
       <c r="B49" s="5" t="s">
         <v>418</v>
@@ -4179,9 +4480,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="30" r="50" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
-        <v>563</v>
+        <v>663</v>
       </c>
       <c r="B50" s="5" t="s">
         <v>427</v>
@@ -4217,9 +4518,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="30" r="51" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
-        <v>564</v>
+        <v>664</v>
       </c>
       <c r="B51" s="5" t="s">
         <v>436</v>
@@ -4256,29 +4557,29 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" r:id="rId1" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L51"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M51"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0" zoomScaleNormal="85">
       <selection activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="17.28515625" style="3" collapsed="1"/>
-    <col min="5" max="5" width="25.85546875" style="3" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17.28515625" style="3" collapsed="1"/>
-    <col min="7" max="7" width="27.42578125" style="3" customWidth="1" collapsed="1"/>
-    <col min="8" max="16384" width="17.28515625" style="3" collapsed="1"/>
+    <col min="1" max="4" style="3" width="17.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="25.85546875" collapsed="true"/>
+    <col min="6" max="6" style="3" width="17.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="27.42578125" collapsed="true"/>
+    <col min="8" max="16384" style="3" width="17.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="1" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -4316,7 +4617,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="29.25" r="2" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>465</v>
       </c>
@@ -4354,7 +4655,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="30" r="3" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>466</v>
       </c>
@@ -4390,7 +4691,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="30" r="4" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>467</v>
       </c>
@@ -4428,7 +4729,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="30" r="5" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>468</v>
       </c>
@@ -4466,7 +4767,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="29.25" r="6" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>469</v>
       </c>
@@ -4504,7 +4805,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="30" r="7" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>470</v>
       </c>
@@ -4542,7 +4843,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="29.25" r="8" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>471</v>
       </c>
@@ -4578,7 +4879,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="30" r="9" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>472</v>
       </c>
@@ -4616,7 +4917,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="30" r="10" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>473</v>
       </c>
@@ -4652,7 +4953,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="30" r="11" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>474</v>
       </c>
@@ -4690,7 +4991,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="30" r="12" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>475</v>
       </c>
@@ -4728,7 +5029,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="30" r="13" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>476</v>
       </c>
@@ -4766,7 +5067,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="29.25" r="14" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>477</v>
       </c>
@@ -4804,7 +5105,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="43.5" r="15" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>478</v>
       </c>
@@ -4842,7 +5143,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="30" r="16" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>479</v>
       </c>
@@ -4880,7 +5181,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="43.5" r="17" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>480</v>
       </c>
@@ -4918,7 +5219,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="29.25" r="18" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>481</v>
       </c>
@@ -4956,7 +5257,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="30" r="19" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>482</v>
       </c>
@@ -4994,7 +5295,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="29.25" r="20" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>483</v>
       </c>
@@ -5032,7 +5333,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="29.25" r="21" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>484</v>
       </c>
@@ -5070,7 +5371,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="30" r="22" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>485</v>
       </c>
@@ -5108,7 +5409,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="30" r="23" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>486</v>
       </c>
@@ -5146,7 +5447,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="29.25" r="24" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>487</v>
       </c>
@@ -5182,7 +5483,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="30" r="25" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>488</v>
       </c>
@@ -5220,7 +5521,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="29.25" r="26" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>489</v>
       </c>
@@ -5258,7 +5559,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="30" r="27" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>490</v>
       </c>
@@ -5296,7 +5597,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="30" r="28" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>491</v>
       </c>
@@ -5334,7 +5635,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="30" r="29" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>492</v>
       </c>
@@ -5372,7 +5673,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="30" r="30" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>493</v>
       </c>
@@ -5410,7 +5711,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="30" r="31" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
         <v>494</v>
       </c>
@@ -5448,7 +5749,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="29.25" r="32" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>495</v>
       </c>
@@ -5486,7 +5787,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="30" r="33" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>496</v>
       </c>
@@ -5524,7 +5825,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="30" r="34" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
         <v>497</v>
       </c>
@@ -5562,7 +5863,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="30" r="35" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>498</v>
       </c>
@@ -5600,7 +5901,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="43.5" r="36" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>499</v>
       </c>
@@ -5638,7 +5939,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="30" r="37" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
         <v>500</v>
       </c>
@@ -5676,7 +5977,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="30" r="38" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>501</v>
       </c>
@@ -5714,7 +6015,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="30" r="39" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>502</v>
       </c>
@@ -5752,7 +6053,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="30" r="40" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
         <v>503</v>
       </c>
@@ -5788,7 +6089,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="30" r="41" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>504</v>
       </c>
@@ -5826,7 +6127,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="30" r="42" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>505</v>
       </c>
@@ -5864,7 +6165,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="30" r="43" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
         <v>506</v>
       </c>
@@ -5900,7 +6201,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="30" r="44" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>507</v>
       </c>
@@ -5938,7 +6239,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="30" r="45" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
         <v>508</v>
       </c>
@@ -5976,7 +6277,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="30" r="46" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="7" t="s">
         <v>509</v>
       </c>
@@ -6012,7 +6313,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="30" r="47" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
         <v>510</v>
       </c>
@@ -6050,7 +6351,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="29.25" r="48" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
         <v>511</v>
       </c>
@@ -6086,7 +6387,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="30" r="49" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="7" t="s">
         <v>512</v>
       </c>
@@ -6124,7 +6425,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="30" r="50" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
         <v>513</v>
       </c>
@@ -6160,7 +6461,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="30" r="51" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
         <v>514</v>
       </c>
@@ -6199,7 +6500,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" r:id="rId1" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/FinalProject/data/pet-store-data.xlsx
+++ b/FinalProject/data/pet-store-data.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView windowHeight="6720" windowWidth="21225" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21225" windowHeight="6720" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="cart_items" r:id="rId1" sheetId="1"/>
-    <sheet name="users" r:id="rId2" sheetId="2"/>
-    <sheet name="users_without_password" r:id="rId3" sheetId="3"/>
+    <sheet name="cart_items" sheetId="1" r:id="rId1"/>
+    <sheet name="users" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:H20"/>
+  <oleSize ref="A1:J12"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1237" uniqueCount="665">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="465">
   <si>
     <t>ITEM_ID</t>
   </si>
@@ -1412,613 +1411,12 @@
   </si>
   <si>
     <t>https://petstore.octoperf.com/actions/Catalog.action?viewItem=&amp;itemId=EST-13</t>
-  </si>
-  <si>
-    <t>ABbpPrZJgWLHecLjJl5dy</t>
-  </si>
-  <si>
-    <t>mnrR8JB_klTm8DZM5eTls</t>
-  </si>
-  <si>
-    <t>VxFjJMN-eI9Byvu3nZYZW</t>
-  </si>
-  <si>
-    <t>s32MkZ7vTlqeUz4URVHQE</t>
-  </si>
-  <si>
-    <t>rlZJ0S6ymM9wC66CbuoAh</t>
-  </si>
-  <si>
-    <t>YjbJFYZzc_dd1cobMiWu_</t>
-  </si>
-  <si>
-    <t>GvLSJj_WuROsX8Tnv0rEA</t>
-  </si>
-  <si>
-    <t>XftNPrpXSW0Qc_Mc1fmfe</t>
-  </si>
-  <si>
-    <t>VFNdKXfoa3P9XsGwpaXGP</t>
-  </si>
-  <si>
-    <t>ggJt4SlVDK-TUsTMjyb5K</t>
-  </si>
-  <si>
-    <t>ogiX32BJopnUFW4iw3j57</t>
-  </si>
-  <si>
-    <t>v4s6alZ_tMh4fq7MPufCV</t>
-  </si>
-  <si>
-    <t>5a4cbTAu30-C0QQtioxTV</t>
-  </si>
-  <si>
-    <t>-mia5tcLoEhe8JVCmrJiV</t>
-  </si>
-  <si>
-    <t>HFRnFi145Ak9D0Ue5XrbH</t>
-  </si>
-  <si>
-    <t>vs1-HYNusjhj62iRLjOQw</t>
-  </si>
-  <si>
-    <t>WraAVP6-O-w801i6c2HO1</t>
-  </si>
-  <si>
-    <t>XN7kiVCQWbKed76nBk7VH</t>
-  </si>
-  <si>
-    <t>EXI2L7zZbJr3ao57w7lQf</t>
-  </si>
-  <si>
-    <t>1bmisEZ0wifiGV2pNxexH</t>
-  </si>
-  <si>
-    <t>xZ0iVVcipbchwoqcA66WD</t>
-  </si>
-  <si>
-    <t>QuZdoi1k0Mi8xkFGHkun4</t>
-  </si>
-  <si>
-    <t>vLPfi5t4Y31o5NJP3YUzX</t>
-  </si>
-  <si>
-    <t>JlGhuUJlhNeWsNlQr5sX9</t>
-  </si>
-  <si>
-    <t>Vqe4D8gmvhPsFJ3q1ucFe</t>
-  </si>
-  <si>
-    <t>SkMzxT9_hxladNwW5s3cn</t>
-  </si>
-  <si>
-    <t>yXMM4LOU-UL4PUBQku5GY</t>
-  </si>
-  <si>
-    <t>zQ8KAFrq0cbSho2VXJVCp</t>
-  </si>
-  <si>
-    <t>EU3HT_I4rrgh_Yc5TjJyK</t>
-  </si>
-  <si>
-    <t>Br1AU8vbkd2ZVTK2LYHR_</t>
-  </si>
-  <si>
-    <t>1Ccle0PAD2qQM6hLmjQlD</t>
-  </si>
-  <si>
-    <t>RSSlXeY5cGICHkNEOa0gA</t>
-  </si>
-  <si>
-    <t>UfcHZqro2yPi72496hTaO</t>
-  </si>
-  <si>
-    <t>PPmAtOwjZRoFBNpGy-wuq</t>
-  </si>
-  <si>
-    <t>tOYiw-PvKQfE25nyIKJNP</t>
-  </si>
-  <si>
-    <t>TDTWVKfm--yRq65QVGvJ6</t>
-  </si>
-  <si>
-    <t>9EUJznKj-asTUtS_jDnMZ</t>
-  </si>
-  <si>
-    <t>5PRJfR8-nAPazZs9o8MaP</t>
-  </si>
-  <si>
-    <t>I8_0BD13TcOWAYk745JMs</t>
-  </si>
-  <si>
-    <t>ogOleczG-X4pt8NepM6AR</t>
-  </si>
-  <si>
-    <t>hLZhZdmR1ARqGXvkgFagg</t>
-  </si>
-  <si>
-    <t>jXbvII0IVe1WCHw5Hf-Wc</t>
-  </si>
-  <si>
-    <t>v9iuWQ3FaSgZ0XufCUGvC</t>
-  </si>
-  <si>
-    <t>ZYAY5CGix06gc6z6fT-wC</t>
-  </si>
-  <si>
-    <t>jwts_HfppIm4DJN-oWAeA</t>
-  </si>
-  <si>
-    <t>mF6pviiRrtkKF4e-wsqRh</t>
-  </si>
-  <si>
-    <t>TUd8fEwjuggbkYAj361xS</t>
-  </si>
-  <si>
-    <t>AnbaKNjMCCiNhivViWppO</t>
-  </si>
-  <si>
-    <t>vmpzk8TYITOSUzZj_xgyB</t>
-  </si>
-  <si>
-    <t>hrqn7qAinDQwBHuGQebAb</t>
-  </si>
-  <si>
-    <t>eH0IrLwD37oLQuIt9UZsH</t>
-  </si>
-  <si>
-    <t>eUmLcHrOxRF37jI1UAM1t</t>
-  </si>
-  <si>
-    <t>LotA1DbhYQSwvI1yqPU4L</t>
-  </si>
-  <si>
-    <t>B2KA_hiyIYAR9KzfhN0L4</t>
-  </si>
-  <si>
-    <t>ogmWyovezRITiXYwmFewx</t>
-  </si>
-  <si>
-    <t>5ZOWxhjG40iXsBHSlD65V</t>
-  </si>
-  <si>
-    <t>gJcu7zL1pxt8PYU2EU76M</t>
-  </si>
-  <si>
-    <t>lKUlBD72YkoBcIUv3VfRK</t>
-  </si>
-  <si>
-    <t>38RugvUNBydvTlmheTvT8</t>
-  </si>
-  <si>
-    <t>lI267LtIvkDsu3LtbVxU2</t>
-  </si>
-  <si>
-    <t>qd90bl1vNijZIzy-T6Tkk</t>
-  </si>
-  <si>
-    <t>fbplhm552lpsDoos-F81d</t>
-  </si>
-  <si>
-    <t>JCgt3RANHC_Ts3aTahySI</t>
-  </si>
-  <si>
-    <t>zWuiekBlFTATKJohoR_WD</t>
-  </si>
-  <si>
-    <t>9pLrqfmwvuCFSxgQ1R2L5</t>
-  </si>
-  <si>
-    <t>Pk3XcezcGRdtu7VIk0VUD</t>
-  </si>
-  <si>
-    <t>hsLToIR1JY-vxIrppZWKf</t>
-  </si>
-  <si>
-    <t>_nhcqYWbrEc6X3nbICmmA</t>
-  </si>
-  <si>
-    <t>doWtq9K9BSNlCBobFGLtH</t>
-  </si>
-  <si>
-    <t>fh92EbG9WN6F90eyRhHAw</t>
-  </si>
-  <si>
-    <t>tJ3lvCHnBNqPt3QSCqOuP</t>
-  </si>
-  <si>
-    <t>j4C2oI8ZF9BOTabkvmOiH</t>
-  </si>
-  <si>
-    <t>R9UfX3cffu82RwM-6o0Mh</t>
-  </si>
-  <si>
-    <t>Pg1YOFuFdr9neiafFVgmv</t>
-  </si>
-  <si>
-    <t>NYgxewKag8ZaeBljrD0Py</t>
-  </si>
-  <si>
-    <t>DdJpCwHRuNRQvduc2PG7v</t>
-  </si>
-  <si>
-    <t>v3to55rnqkCut6kD27sCK</t>
-  </si>
-  <si>
-    <t>5nbWXy-Rls4fC5-4vpC3u</t>
-  </si>
-  <si>
-    <t>lVXduHpSclHoEl81NzG1Y</t>
-  </si>
-  <si>
-    <t>l_N7U1Z3DJCQdPVdZ-2rK</t>
-  </si>
-  <si>
-    <t>HiB8pPMk0FV3OwSqgdw8r</t>
-  </si>
-  <si>
-    <t>RYY0WUjxcKs85ZRLR2xQk</t>
-  </si>
-  <si>
-    <t>gUommyV3l5qmLWgJFMj_t</t>
-  </si>
-  <si>
-    <t>GV8Uv9cK43JDpVApUT-Mt</t>
-  </si>
-  <si>
-    <t>-ONfkNqgUktCDACHGOOzB</t>
-  </si>
-  <si>
-    <t>9R9CR_Y2YhjwfYSwfifYp</t>
-  </si>
-  <si>
-    <t>bQphyd-yBvpxPx5shyAA_</t>
-  </si>
-  <si>
-    <t>5CL0vUAHd2ZkyM4bhfSLY</t>
-  </si>
-  <si>
-    <t>quYtV0J3lLarex2meO-Ic</t>
-  </si>
-  <si>
-    <t>2vybb9QpBjKwMFIU7myhq</t>
-  </si>
-  <si>
-    <t>tcfZV3CjHo-_mjbMBDslw</t>
-  </si>
-  <si>
-    <t>r6zIYSEhK2sUDS9tcMSec</t>
-  </si>
-  <si>
-    <t>MyJyK1MWSXVJZz6tgNLMf</t>
-  </si>
-  <si>
-    <t>HP-HVAXLT-7PJs5UIIUWc</t>
-  </si>
-  <si>
-    <t>SOp3CKHqNFm5HKlTJMPAO</t>
-  </si>
-  <si>
-    <t>EpVs80DYUki6wPoGk0kF4</t>
-  </si>
-  <si>
-    <t>pwyEbcbN6_gy11uhgz8uF</t>
-  </si>
-  <si>
-    <t>xa2ciMjPr7IkoC6lHxmoF</t>
-  </si>
-  <si>
-    <t>7IMjkSglqHmXrKHwRdu3O</t>
-  </si>
-  <si>
-    <t>ImWUAe6XeCtnEhCyNbfoF</t>
-  </si>
-  <si>
-    <t>KOr2g5a-kRZ0zCFb-jdc1</t>
-  </si>
-  <si>
-    <t>a-j7uxhDbrnsFm_O9Z4Q1</t>
-  </si>
-  <si>
-    <t>Eey4h2UJ6wwVzbVz-C_M-</t>
-  </si>
-  <si>
-    <t>5t9U044r6b_1yWEWlKush</t>
-  </si>
-  <si>
-    <t>vtjdT0AJlodnIMJfaCaQ4</t>
-  </si>
-  <si>
-    <t>Q4nKHAMIPzxyVFNIFehXp</t>
-  </si>
-  <si>
-    <t>CLmLNghFbuEvJQQiL3tYV</t>
-  </si>
-  <si>
-    <t>rt0JxUq7Qlf4XYOC3-A6t</t>
-  </si>
-  <si>
-    <t>JKyawi3YdfHxZ3XCSz7QD</t>
-  </si>
-  <si>
-    <t>sVBF9jt56CAXPc-2CUTRO</t>
-  </si>
-  <si>
-    <t>xJ3Hnj4sBXDVNLYyEv7Cb</t>
-  </si>
-  <si>
-    <t>tJ2bYSYXWvOdnsK6QtMI0</t>
-  </si>
-  <si>
-    <t>y-glnc00ZYe4Y-j92Z_Dh</t>
-  </si>
-  <si>
-    <t>j1S2JAdZ1azcL8tboc7sG</t>
-  </si>
-  <si>
-    <t>CVFcu1nn_i9muvqthxWO5</t>
-  </si>
-  <si>
-    <t>YGI-0Z1_57jKYVKiRjaB-</t>
-  </si>
-  <si>
-    <t>auM6xEdZBVJnBA7_VgvaV</t>
-  </si>
-  <si>
-    <t>aycv0JaLNuhpSiNN60VZ1</t>
-  </si>
-  <si>
-    <t>lcuoU02W_74C8AtJ8bUgp</t>
-  </si>
-  <si>
-    <t>W-aRsbsJFfqXBThGVnusb</t>
-  </si>
-  <si>
-    <t>BZB4VaCAIwX6kdBD0AUq5</t>
-  </si>
-  <si>
-    <t>ypInKFjyJJYk1vlUTCFvm</t>
-  </si>
-  <si>
-    <t>VkLErW1q7eKdpPgdEZF18</t>
-  </si>
-  <si>
-    <t>PqTw1znzF9Q76Nfxv94-U</t>
-  </si>
-  <si>
-    <t>i_elVyPFVSihs9EPmbxqt</t>
-  </si>
-  <si>
-    <t>GyuLAJPveI16bxvRznG7R</t>
-  </si>
-  <si>
-    <t>3i13nF_mcNkk25EacbGC5</t>
-  </si>
-  <si>
-    <t>w6wpIvboptwCAE2JQO2pD</t>
-  </si>
-  <si>
-    <t>fx5LD9PfLbuuo6EngMxCD</t>
-  </si>
-  <si>
-    <t>7KZ61CocLhEXn0IcCZPuL</t>
-  </si>
-  <si>
-    <t>UEUfOucgHrpt_OPB_pOhC</t>
-  </si>
-  <si>
-    <t>D_GvWb9a519a0wtFaHF4x</t>
-  </si>
-  <si>
-    <t>Fq391eEmUSM3byfelaOe_</t>
-  </si>
-  <si>
-    <t>WIHKslV5mFxIiPculdEIJ</t>
-  </si>
-  <si>
-    <t>l2TtKKzzvZxptkHcC3XUw</t>
-  </si>
-  <si>
-    <t>9uET5TRcb5sLjR41VfqCq</t>
-  </si>
-  <si>
-    <t>stz6-aEaD7hJtSrDTy5Zc</t>
-  </si>
-  <si>
-    <t>-ApLhlHbpU1WonpbP_4D6</t>
-  </si>
-  <si>
-    <t>9ShLZ4EQk93Yzksa6LBbC</t>
-  </si>
-  <si>
-    <t>xjdRfsh_UJEudPpgxiqBa</t>
-  </si>
-  <si>
-    <t>oUxs_aStgrVvH6EDkVubt</t>
-  </si>
-  <si>
-    <t>EWyyX34AkZsQCoMJnKJ6n</t>
-  </si>
-  <si>
-    <t>kNn4gKnrlc0-rc3163Fxx</t>
-  </si>
-  <si>
-    <t>LTwDdypKKrOMhf0PU6Zfy</t>
-  </si>
-  <si>
-    <t>2Bm0NyU7llsq9mJAiCjBS</t>
-  </si>
-  <si>
-    <t>21X06qKXyIne8b9-hWW4l</t>
-  </si>
-  <si>
-    <t>tQKjpBHlmQCGJ_1Npz4f2</t>
-  </si>
-  <si>
-    <t>uWCRG8A5cfuzGfs6exD-u</t>
-  </si>
-  <si>
-    <t>EJOVkOfVfhC2PSNU87i6L</t>
-  </si>
-  <si>
-    <t>aDdftgGaFzuUylG_xZMYU</t>
-  </si>
-  <si>
-    <t>foC-Hw8NPr1C2eR6reIGf</t>
-  </si>
-  <si>
-    <t>wx4hW5eEbb2NMzN-xIlKC</t>
-  </si>
-  <si>
-    <t>IYuFI1wQzZc7vf5SQ94CE</t>
-  </si>
-  <si>
-    <t>y_lSNCasm-_djbXGeB3HR</t>
-  </si>
-  <si>
-    <t>mISvDHVoHi4s_HHHGTDPG</t>
-  </si>
-  <si>
-    <t>CcDwjjXMFsEwdgWRsZHrm</t>
-  </si>
-  <si>
-    <t>aKs4iVAgP_mEGFduybANU</t>
-  </si>
-  <si>
-    <t>Uokkm_Qhrjj3m4Ra0pAcg</t>
-  </si>
-  <si>
-    <t>AtZsmIu7sj65UzQsBhB49</t>
-  </si>
-  <si>
-    <t>3tHxwGsYK15IIjvZ7K1_o</t>
-  </si>
-  <si>
-    <t>diLBul_6dgORxSyh6Mcan</t>
-  </si>
-  <si>
-    <t>ZmfzweNHYk4K8lm0y89H5</t>
-  </si>
-  <si>
-    <t>30D7ndoXF6lwJjrBAjLoJ</t>
-  </si>
-  <si>
-    <t>x8gFS-8ALaJLMqcentDiu</t>
-  </si>
-  <si>
-    <t>XcgYjF_lfFSvTcECAFCNy</t>
-  </si>
-  <si>
-    <t>XUpQ4Z97DdBTvmxn3W_NK</t>
-  </si>
-  <si>
-    <t>BgPyf20uxt_NDA89WxMgq</t>
-  </si>
-  <si>
-    <t>ZmGse9GDIQ5yE-o542Kab</t>
-  </si>
-  <si>
-    <t>R8JBZrA1aJJiWXV8DWXD1</t>
-  </si>
-  <si>
-    <t>49ep6iH6_IEIxM5NUpOSz</t>
-  </si>
-  <si>
-    <t>jtcANAsfdR30irzL6oWVv</t>
-  </si>
-  <si>
-    <t>IrClY-OANceqURYkIoDa8</t>
-  </si>
-  <si>
-    <t>9oSPEYr8UzYVQ57fj0P_x</t>
-  </si>
-  <si>
-    <t>LIcjbTwnXYDDfegPngsYQ</t>
-  </si>
-  <si>
-    <t>SYnm38DKb-gY4CV4gRLlj</t>
-  </si>
-  <si>
-    <t>SqfIzkqVecdsfWTWD64BI</t>
-  </si>
-  <si>
-    <t>bU2XlbQi1JqNVRVCmx5lR</t>
-  </si>
-  <si>
-    <t>4Lu9xkmhc5QkeEDXIeayK</t>
-  </si>
-  <si>
-    <t>YNZMf4Bp6433ioAFh2v8c</t>
-  </si>
-  <si>
-    <t>V8NuPIF66noNHDbLAu9Cv</t>
-  </si>
-  <si>
-    <t>BQIuo8Gs5a20KkFFM4-r0</t>
-  </si>
-  <si>
-    <t>owOuO-wTR8j4SeQ2tz8e4</t>
-  </si>
-  <si>
-    <t>1r6CJ2nZlr-Yj9sL7fq6L</t>
-  </si>
-  <si>
-    <t>uL7XmyoALrQriwjeZDmRu</t>
-  </si>
-  <si>
-    <t>wPr3kCdL_nKC0MsJDUSWD</t>
-  </si>
-  <si>
-    <t>xri5gsWBS-y4xrPD5hXKJ</t>
-  </si>
-  <si>
-    <t>J0rCIquPhPDDLadLR1bBU</t>
-  </si>
-  <si>
-    <t>2vVakBdRLU4WEi8APnUA0</t>
-  </si>
-  <si>
-    <t>P92gL6dG3IgPqtiAxYgT1</t>
-  </si>
-  <si>
-    <t>2jSZZiGUb3gua1-xaf82H</t>
-  </si>
-  <si>
-    <t>Z6ep-STSsnjuvhaCRDII3</t>
-  </si>
-  <si>
-    <t>ppWUY04qYArYI28b3RPtl</t>
-  </si>
-  <si>
-    <t>PkQ7FE7s-tqPyHIU3HCFH</t>
-  </si>
-  <si>
-    <t>ZME_pnMUHvRWySq5L0rZA</t>
-  </si>
-  <si>
-    <t>xzFH495aZeTWIMCdRx8Wj</t>
-  </si>
-  <si>
-    <t>QRP6VVOzhjArvADtdQtu0</t>
-  </si>
-  <si>
-    <t>UGEic9ik4ChVAdpkOxaHr</t>
-  </si>
-  <si>
-    <t>ScTzlca0u38x47W_nEFPp</t>
-  </si>
-  <si>
-    <t>H2N10_i_g5_cRMLR9b9sz</t>
-  </si>
-  <si>
-    <t>OqLKydfct2Ju_XJ9j1zF4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2140,52 +1538,52 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="14">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="5" fontId="5" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="6" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyProtection="1" borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2202,10 +1600,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -2240,7 +1638,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2275,7 +1673,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2363,7 +1761,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -2372,13 +1770,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -2388,7 +1786,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -2397,7 +1795,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -2406,7 +1804,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -2416,12 +1814,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -2452,7 +1850,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -2471,7 +1869,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -2483,17 +1881,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="28.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="108.0" collapsed="true"/>
+    <col min="1" max="1" width="28.140625" customWidth="1"/>
+    <col min="2" max="2" width="108" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -2586,39 +1984,39 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="B2"/>
-    <hyperlink r:id="rId2" ref="B3"/>
-    <hyperlink r:id="rId3" ref="B4"/>
-    <hyperlink r:id="rId4" ref="B5"/>
-    <hyperlink r:id="rId5" ref="B6"/>
-    <hyperlink r:id="rId6" ref="B7"/>
-    <hyperlink r:id="rId7" ref="B8"/>
-    <hyperlink r:id="rId8" ref="B9"/>
-    <hyperlink r:id="rId9" ref="B10"/>
-    <hyperlink r:id="rId10" ref="B11"/>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="B5" r:id="rId4"/>
+    <hyperlink ref="B6" r:id="rId5"/>
+    <hyperlink ref="B7" r:id="rId6"/>
+    <hyperlink ref="B8" r:id="rId7"/>
+    <hyperlink ref="B9" r:id="rId8"/>
+    <hyperlink ref="B10" r:id="rId9"/>
+    <hyperlink ref="B11" r:id="rId10"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M51"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L51"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScaleNormal="85">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" style="3" width="17.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="3" width="25.85546875" collapsed="true"/>
-    <col min="6" max="6" style="3" width="17.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="3" width="27.42578125" collapsed="true"/>
-    <col min="8" max="16384" style="3" width="17.28515625" collapsed="true"/>
+    <col min="1" max="4" width="17.28515625" style="3"/>
+    <col min="5" max="5" width="25.85546875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" style="3"/>
+    <col min="7" max="7" width="27.42578125" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="17.28515625" style="3"/>
   </cols>
   <sheetData>
-    <row ht="15.75" r="1" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -2656,9 +2054,9 @@
         <v>13</v>
       </c>
     </row>
-    <row ht="29.25" r="2" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>615</v>
+    <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4">
+        <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>14</v>
@@ -2694,9 +2092,9 @@
         <v>23</v>
       </c>
     </row>
-    <row ht="30" r="3" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>616</v>
+    <row r="3" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
+        <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>24</v>
@@ -2732,9 +2130,9 @@
         <v>23</v>
       </c>
     </row>
-    <row ht="30" r="4" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
-        <v>617</v>
+    <row r="4" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="7">
+        <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>33</v>
@@ -2770,9 +2168,9 @@
         <v>23</v>
       </c>
     </row>
-    <row ht="30" r="5" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>618</v>
+    <row r="5" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>42</v>
@@ -2808,9 +2206,9 @@
         <v>23</v>
       </c>
     </row>
-    <row ht="29.25" r="6" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>619</v>
+    <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>51</v>
@@ -2846,9 +2244,9 @@
         <v>23</v>
       </c>
     </row>
-    <row ht="30" r="7" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
-        <v>620</v>
+    <row r="7" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="7">
+        <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>60</v>
@@ -2884,9 +2282,9 @@
         <v>23</v>
       </c>
     </row>
-    <row ht="29.25" r="8" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>621</v>
+    <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>69</v>
@@ -2922,9 +2320,9 @@
         <v>23</v>
       </c>
     </row>
-    <row ht="30" r="9" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>622</v>
+    <row r="9" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>78</v>
@@ -2960,9 +2358,9 @@
         <v>23</v>
       </c>
     </row>
-    <row ht="30" r="10" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
-        <v>623</v>
+    <row r="10" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="7">
+        <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>87</v>
@@ -2998,9 +2396,9 @@
         <v>23</v>
       </c>
     </row>
-    <row ht="30" r="11" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
-        <v>624</v>
+    <row r="11" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
+        <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>96</v>
@@ -3036,9 +2434,9 @@
         <v>23</v>
       </c>
     </row>
-    <row ht="30" r="12" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
-        <v>625</v>
+    <row r="12" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
+        <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>105</v>
@@ -3074,9 +2472,9 @@
         <v>23</v>
       </c>
     </row>
-    <row ht="30" r="13" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
-        <v>626</v>
+    <row r="13" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="7">
+        <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>114</v>
@@ -3112,9 +2510,9 @@
         <v>23</v>
       </c>
     </row>
-    <row ht="29.25" r="14" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
-        <v>627</v>
+    <row r="14" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
+        <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>123</v>
@@ -3150,9 +2548,9 @@
         <v>23</v>
       </c>
     </row>
-    <row ht="30" r="15" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
-        <v>628</v>
+    <row r="15" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
+        <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>131</v>
@@ -3188,9 +2586,9 @@
         <v>23</v>
       </c>
     </row>
-    <row ht="30" r="16" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="7" t="s">
-        <v>629</v>
+    <row r="16" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="7">
+        <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>139</v>
@@ -3226,9 +2624,9 @@
         <v>23</v>
       </c>
     </row>
-    <row ht="30" r="17" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
-        <v>630</v>
+    <row r="17" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
+        <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>148</v>
@@ -3264,9 +2662,9 @@
         <v>23</v>
       </c>
     </row>
-    <row ht="29.25" r="18" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
-        <v>631</v>
+    <row r="18" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
+        <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>156</v>
@@ -3302,9 +2700,9 @@
         <v>23</v>
       </c>
     </row>
-    <row ht="30" r="19" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="7" t="s">
-        <v>632</v>
+    <row r="19" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="7">
+        <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>165</v>
@@ -3340,9 +2738,9 @@
         <v>23</v>
       </c>
     </row>
-    <row ht="29.25" r="20" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
-        <v>633</v>
+    <row r="20" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="4">
+        <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>173</v>
@@ -3378,9 +2776,9 @@
         <v>23</v>
       </c>
     </row>
-    <row ht="29.25" r="21" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
-        <v>634</v>
+    <row r="21" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
+        <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>181</v>
@@ -3416,9 +2814,9 @@
         <v>23</v>
       </c>
     </row>
-    <row ht="30" r="22" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="7" t="s">
-        <v>635</v>
+    <row r="22" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="7">
+        <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>190</v>
@@ -3454,9 +2852,9 @@
         <v>23</v>
       </c>
     </row>
-    <row ht="30" r="23" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
-        <v>636</v>
+    <row r="23" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="4">
+        <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>199</v>
@@ -3492,9 +2890,9 @@
         <v>23</v>
       </c>
     </row>
-    <row ht="29.25" r="24" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
-        <v>637</v>
+    <row r="24" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="4">
+        <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>207</v>
@@ -3530,9 +2928,9 @@
         <v>23</v>
       </c>
     </row>
-    <row ht="30" r="25" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="7" t="s">
-        <v>638</v>
+    <row r="25" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="7">
+        <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>216</v>
@@ -3568,9 +2966,9 @@
         <v>23</v>
       </c>
     </row>
-    <row ht="29.25" r="26" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="4" t="s">
-        <v>639</v>
+    <row r="26" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="4">
+        <v>25</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>225</v>
@@ -3606,9 +3004,9 @@
         <v>23</v>
       </c>
     </row>
-    <row ht="30" r="27" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="4" t="s">
-        <v>640</v>
+    <row r="27" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="4">
+        <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>234</v>
@@ -3644,9 +3042,9 @@
         <v>23</v>
       </c>
     </row>
-    <row ht="30" r="28" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="7" t="s">
-        <v>641</v>
+    <row r="28" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="7">
+        <v>27</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>243</v>
@@ -3682,9 +3080,9 @@
         <v>23</v>
       </c>
     </row>
-    <row ht="30" r="29" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="4" t="s">
-        <v>642</v>
+    <row r="29" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="4">
+        <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>251</v>
@@ -3720,9 +3118,9 @@
         <v>23</v>
       </c>
     </row>
-    <row ht="30" r="30" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="4" t="s">
-        <v>643</v>
+    <row r="30" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="4">
+        <v>29</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>259</v>
@@ -3758,9 +3156,9 @@
         <v>23</v>
       </c>
     </row>
-    <row ht="30" r="31" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="7" t="s">
-        <v>644</v>
+    <row r="31" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="7">
+        <v>30</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>268</v>
@@ -3796,9 +3194,9 @@
         <v>23</v>
       </c>
     </row>
-    <row ht="29.25" r="32" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="4" t="s">
-        <v>645</v>
+    <row r="32" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="4">
+        <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>276</v>
@@ -3834,9 +3232,9 @@
         <v>23</v>
       </c>
     </row>
-    <row ht="30" r="33" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="4" t="s">
-        <v>646</v>
+    <row r="33" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="4">
+        <v>32</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>284</v>
@@ -3872,9 +3270,9 @@
         <v>23</v>
       </c>
     </row>
-    <row ht="30" r="34" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="7" t="s">
-        <v>647</v>
+    <row r="34" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="7">
+        <v>33</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>292</v>
@@ -3910,9 +3308,9 @@
         <v>23</v>
       </c>
     </row>
-    <row ht="30" r="35" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="4" t="s">
-        <v>648</v>
+    <row r="35" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="4">
+        <v>34</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>301</v>
@@ -3948,9 +3346,9 @@
         <v>23</v>
       </c>
     </row>
-    <row ht="43.5" r="36" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="4" t="s">
-        <v>649</v>
+    <row r="36" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="4">
+        <v>35</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>310</v>
@@ -3986,9 +3384,9 @@
         <v>23</v>
       </c>
     </row>
-    <row ht="30" r="37" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="7" t="s">
-        <v>650</v>
+    <row r="37" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="7">
+        <v>36</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>319</v>
@@ -4024,9 +3422,9 @@
         <v>23</v>
       </c>
     </row>
-    <row ht="43.5" r="38" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="4" t="s">
-        <v>651</v>
+    <row r="38" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="4">
+        <v>37</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>327</v>
@@ -4062,9 +3460,9 @@
         <v>23</v>
       </c>
     </row>
-    <row ht="30" r="39" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="4" t="s">
-        <v>652</v>
+    <row r="39" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="4">
+        <v>38</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>336</v>
@@ -4100,9 +3498,9 @@
         <v>23</v>
       </c>
     </row>
-    <row ht="30" r="40" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="7" t="s">
-        <v>653</v>
+    <row r="40" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="7">
+        <v>39</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>344</v>
@@ -4138,9 +3536,9 @@
         <v>23</v>
       </c>
     </row>
-    <row ht="30" r="41" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="4" t="s">
-        <v>654</v>
+    <row r="41" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="4">
+        <v>40</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>352</v>
@@ -4176,9 +3574,9 @@
         <v>23</v>
       </c>
     </row>
-    <row ht="30" r="42" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="4" t="s">
-        <v>655</v>
+    <row r="42" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="4">
+        <v>41</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>360</v>
@@ -4214,9 +3612,9 @@
         <v>23</v>
       </c>
     </row>
-    <row ht="30" r="43" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="7" t="s">
-        <v>656</v>
+    <row r="43" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="7">
+        <v>42</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>368</v>
@@ -4252,9 +3650,9 @@
         <v>23</v>
       </c>
     </row>
-    <row ht="30" r="44" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="4" t="s">
-        <v>657</v>
+    <row r="44" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="4">
+        <v>43</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>377</v>
@@ -4290,9 +3688,9 @@
         <v>23</v>
       </c>
     </row>
-    <row ht="30" r="45" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="4" t="s">
-        <v>658</v>
+    <row r="45" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="4">
+        <v>44</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>386</v>
@@ -4328,9 +3726,9 @@
         <v>23</v>
       </c>
     </row>
-    <row ht="30" r="46" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="7" t="s">
-        <v>659</v>
+    <row r="46" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="7">
+        <v>45</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>394</v>
@@ -4366,9 +3764,9 @@
         <v>23</v>
       </c>
     </row>
-    <row ht="30" r="47" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="4" t="s">
-        <v>660</v>
+    <row r="47" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="4">
+        <v>46</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>402</v>
@@ -4404,9 +3802,9 @@
         <v>23</v>
       </c>
     </row>
-    <row ht="29.25" r="48" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="4" t="s">
-        <v>661</v>
+    <row r="48" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="4">
+        <v>47</v>
       </c>
       <c r="B48" s="5" t="s">
         <v>410</v>
@@ -4442,9 +3840,9 @@
         <v>23</v>
       </c>
     </row>
-    <row ht="30" r="49" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="7" t="s">
-        <v>662</v>
+    <row r="49" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="7">
+        <v>48</v>
       </c>
       <c r="B49" s="5" t="s">
         <v>418</v>
@@ -4480,9 +3878,9 @@
         <v>23</v>
       </c>
     </row>
-    <row ht="30" r="50" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="4" t="s">
-        <v>663</v>
+    <row r="50" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="4">
+        <v>49</v>
       </c>
       <c r="B50" s="5" t="s">
         <v>427</v>
@@ -4518,9 +3916,9 @@
         <v>23</v>
       </c>
     </row>
-    <row ht="30" r="51" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="4" t="s">
-        <v>664</v>
+    <row r="51" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="4">
+        <v>50</v>
       </c>
       <c r="B51" s="5" t="s">
         <v>436</v>
@@ -4557,1950 +3955,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" r:id="rId1" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M51"/>
-  <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0" zoomScaleNormal="85">
-      <selection activeCell="E52" sqref="E52"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="4" style="3" width="17.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="3" width="25.85546875" collapsed="true"/>
-    <col min="6" max="6" style="3" width="17.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="3" width="27.42578125" collapsed="true"/>
-    <col min="8" max="16384" style="3" width="17.28515625" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row ht="15.75" r="1" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row ht="29.25" r="2" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>465</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" s="9">
-        <v>33101</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row ht="30" r="3" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>466</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="K3" s="9">
-        <v>23308</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row ht="30" r="4" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
-        <v>467</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="K4" s="9">
-        <v>26739</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row ht="30" r="5" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>468</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="K5" s="9">
-        <v>74468</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row ht="29.25" r="6" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>469</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="K6" s="9">
-        <v>28160</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row ht="30" r="7" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
-        <v>470</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="K7" s="9">
-        <v>15545</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row ht="29.25" r="8" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>471</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="K8" s="9">
-        <v>65080</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row ht="30" r="9" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>472</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="J9" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="K9" s="9">
-        <v>82718</v>
-      </c>
-      <c r="L9" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row ht="30" r="10" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
-        <v>473</v>
-      </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="J10" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="K10" s="9">
-        <v>10273</v>
-      </c>
-      <c r="L10" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row ht="30" r="11" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
-        <v>474</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="J11" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="K11" s="9">
-        <v>58651</v>
-      </c>
-      <c r="L11" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row ht="30" r="12" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
-        <v>475</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="J12" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="K12" s="9">
-        <v>46851</v>
-      </c>
-      <c r="L12" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row ht="30" r="13" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
-        <v>476</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="J13" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="K13" s="9">
-        <v>15601</v>
-      </c>
-      <c r="L13" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row ht="29.25" r="14" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
-        <v>477</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="J14" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="K14" s="9">
-        <v>47992</v>
-      </c>
-      <c r="L14" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row ht="43.5" r="15" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
-        <v>478</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="J15" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="K15" s="9">
-        <v>78338</v>
-      </c>
-      <c r="L15" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row ht="30" r="16" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="7" t="s">
-        <v>479</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="J16" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="K16" s="9">
-        <v>76465</v>
-      </c>
-      <c r="L16" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row ht="43.5" r="17" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
-        <v>480</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="J17" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="K17" s="9">
-        <v>38369</v>
-      </c>
-      <c r="L17" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row ht="29.25" r="18" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
-        <v>481</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="J18" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="K18" s="9">
-        <v>18449</v>
-      </c>
-      <c r="L18" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row ht="30" r="19" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="7" t="s">
-        <v>482</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="J19" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="K19" s="9">
-        <v>52640</v>
-      </c>
-      <c r="L19" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row ht="29.25" r="20" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
-        <v>483</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="J20" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="K20" s="9">
-        <v>15250</v>
-      </c>
-      <c r="L20" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row ht="29.25" r="21" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
-        <v>484</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="J21" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="K21" s="9">
-        <v>93718</v>
-      </c>
-      <c r="L21" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row ht="30" r="22" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="7" t="s">
-        <v>485</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="H22" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="I22" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="J22" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="K22" s="9">
-        <v>56016</v>
-      </c>
-      <c r="L22" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row ht="30" r="23" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
-        <v>486</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="H23" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="I23" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="J23" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="K23" s="9">
-        <v>45222</v>
-      </c>
-      <c r="L23" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row ht="29.25" r="24" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="I24" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="J24" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="K24" s="9">
-        <v>10597</v>
-      </c>
-      <c r="L24" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row ht="30" r="25" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="7" t="s">
-        <v>488</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="I25" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="J25" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="K25" s="9">
-        <v>39581</v>
-      </c>
-      <c r="L25" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row ht="29.25" r="26" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="4" t="s">
-        <v>489</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="H26" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="I26" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="J26" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="K26" s="9">
-        <v>5069</v>
-      </c>
-      <c r="L26" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row ht="30" r="27" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="4" t="s">
-        <v>490</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="I27" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="J27" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="K27" s="9">
-        <v>28723</v>
-      </c>
-      <c r="L27" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row ht="30" r="28" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="7" t="s">
-        <v>491</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="H28" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="I28" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="J28" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="K28" s="9">
-        <v>38478</v>
-      </c>
-      <c r="L28" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row ht="30" r="29" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="4" t="s">
-        <v>492</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="E29" s="10" t="s">
-        <v>254</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="H29" s="6" t="s">
-        <v>257</v>
-      </c>
-      <c r="I29" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="J29" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="K29" s="9">
-        <v>28144</v>
-      </c>
-      <c r="L29" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row ht="30" r="30" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="4" t="s">
-        <v>493</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="H30" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="I30" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="J30" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="K30" s="9">
-        <v>40062</v>
-      </c>
-      <c r="L30" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row ht="30" r="31" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="7" t="s">
-        <v>494</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>270</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="G31" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="H31" s="6" t="s">
-        <v>274</v>
-      </c>
-      <c r="I31" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="J31" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="K31" s="9">
-        <v>35073</v>
-      </c>
-      <c r="L31" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row ht="29.25" r="32" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="4" t="s">
-        <v>495</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="H32" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="I32" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="J32" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="K32" s="9">
-        <v>24464</v>
-      </c>
-      <c r="L32" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row ht="30" r="33" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="4" t="s">
-        <v>496</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>288</v>
-      </c>
-      <c r="G33" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="H33" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="I33" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="J33" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="K33" s="9">
-        <v>19529</v>
-      </c>
-      <c r="L33" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row ht="30" r="34" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="7" t="s">
-        <v>497</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>293</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>294</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="F34" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="G34" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="H34" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="I34" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="J34" s="8" t="s">
-        <v>300</v>
-      </c>
-      <c r="K34" s="9">
-        <v>44645</v>
-      </c>
-      <c r="L34" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row ht="30" r="35" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="4" t="s">
-        <v>498</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>302</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>303</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>305</v>
-      </c>
-      <c r="G35" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="H35" s="6" t="s">
-        <v>307</v>
-      </c>
-      <c r="I35" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="J35" s="8" t="s">
-        <v>309</v>
-      </c>
-      <c r="K35" s="9">
-        <v>95120</v>
-      </c>
-      <c r="L35" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row ht="43.5" r="36" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="4" t="s">
-        <v>499</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="F36" s="6" t="s">
-        <v>314</v>
-      </c>
-      <c r="G36" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="H36" s="6" t="s">
-        <v>316</v>
-      </c>
-      <c r="I36" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="J36" s="8" t="s">
-        <v>318</v>
-      </c>
-      <c r="K36" s="9">
-        <v>43548</v>
-      </c>
-      <c r="L36" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row ht="30" r="37" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="7" t="s">
-        <v>500</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>319</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>320</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>321</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="F37" s="6" t="s">
-        <v>323</v>
-      </c>
-      <c r="G37" s="6" t="s">
-        <v>324</v>
-      </c>
-      <c r="H37" s="6" t="s">
-        <v>325</v>
-      </c>
-      <c r="I37" s="5" t="s">
-        <v>326</v>
-      </c>
-      <c r="J37" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="K37" s="9">
-        <v>31790</v>
-      </c>
-      <c r="L37" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row ht="30" r="38" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="4" t="s">
-        <v>501</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>327</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>328</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>329</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="F38" s="6" t="s">
-        <v>331</v>
-      </c>
-      <c r="G38" s="6" t="s">
-        <v>332</v>
-      </c>
-      <c r="H38" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="I38" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="J38" s="8" t="s">
-        <v>335</v>
-      </c>
-      <c r="K38" s="9">
-        <v>11531</v>
-      </c>
-      <c r="L38" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row ht="30" r="39" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="4" t="s">
-        <v>502</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>337</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>338</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="F39" s="6" t="s">
-        <v>340</v>
-      </c>
-      <c r="G39" s="6" t="s">
-        <v>341</v>
-      </c>
-      <c r="H39" s="6" t="s">
-        <v>342</v>
-      </c>
-      <c r="I39" s="5" t="s">
-        <v>343</v>
-      </c>
-      <c r="J39" s="8" t="s">
-        <v>335</v>
-      </c>
-      <c r="K39" s="9">
-        <v>61468</v>
-      </c>
-      <c r="L39" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row ht="30" r="40" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="7" t="s">
-        <v>503</v>
-      </c>
-      <c r="B40" s="5"/>
-      <c r="C40" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="E40" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="F40" s="6" t="s">
-        <v>348</v>
-      </c>
-      <c r="G40" s="6" t="s">
-        <v>349</v>
-      </c>
-      <c r="H40" s="6" t="s">
-        <v>350</v>
-      </c>
-      <c r="I40" s="5" t="s">
-        <v>351</v>
-      </c>
-      <c r="J40" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="K40" s="9">
-        <v>20223</v>
-      </c>
-      <c r="L40" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row ht="30" r="41" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="4" t="s">
-        <v>504</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>352</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>353</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>354</v>
-      </c>
-      <c r="E41" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="F41" s="6" t="s">
-        <v>356</v>
-      </c>
-      <c r="G41" s="6" t="s">
-        <v>357</v>
-      </c>
-      <c r="H41" s="6" t="s">
-        <v>358</v>
-      </c>
-      <c r="I41" s="5" t="s">
-        <v>359</v>
-      </c>
-      <c r="J41" s="8" t="s">
-        <v>300</v>
-      </c>
-      <c r="K41" s="9">
-        <v>48636</v>
-      </c>
-      <c r="L41" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row ht="30" r="42" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="4" t="s">
-        <v>505</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>360</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>361</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>362</v>
-      </c>
-      <c r="E42" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="F42" s="6" t="s">
-        <v>364</v>
-      </c>
-      <c r="G42" s="6" t="s">
-        <v>365</v>
-      </c>
-      <c r="H42" s="6" t="s">
-        <v>366</v>
-      </c>
-      <c r="I42" s="5" t="s">
-        <v>367</v>
-      </c>
-      <c r="J42" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="K42" s="9">
-        <v>30140</v>
-      </c>
-      <c r="L42" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row ht="30" r="43" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="7" t="s">
-        <v>506</v>
-      </c>
-      <c r="B43" s="5"/>
-      <c r="C43" s="6" t="s">
-        <v>369</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>370</v>
-      </c>
-      <c r="E43" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="F43" s="6" t="s">
-        <v>372</v>
-      </c>
-      <c r="G43" s="6" t="s">
-        <v>373</v>
-      </c>
-      <c r="H43" s="6" t="s">
-        <v>374</v>
-      </c>
-      <c r="I43" s="5" t="s">
-        <v>375</v>
-      </c>
-      <c r="J43" s="8" t="s">
-        <v>376</v>
-      </c>
-      <c r="K43" s="9">
-        <v>85381</v>
-      </c>
-      <c r="L43" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row ht="30" r="44" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="4" t="s">
-        <v>507</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>377</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>378</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>379</v>
-      </c>
-      <c r="E44" s="10" t="s">
-        <v>380</v>
-      </c>
-      <c r="F44" s="6" t="s">
-        <v>381</v>
-      </c>
-      <c r="G44" s="6" t="s">
-        <v>382</v>
-      </c>
-      <c r="H44" s="6" t="s">
-        <v>383</v>
-      </c>
-      <c r="I44" s="5" t="s">
-        <v>384</v>
-      </c>
-      <c r="J44" s="8" t="s">
-        <v>385</v>
-      </c>
-      <c r="K44" s="9">
-        <v>57073</v>
-      </c>
-      <c r="L44" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row ht="30" r="45" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="4" t="s">
-        <v>508</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>386</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>387</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>388</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="F45" s="6" t="s">
-        <v>390</v>
-      </c>
-      <c r="G45" s="6" t="s">
-        <v>391</v>
-      </c>
-      <c r="H45" s="6" t="s">
-        <v>392</v>
-      </c>
-      <c r="I45" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J45" s="8" t="s">
-        <v>393</v>
-      </c>
-      <c r="K45" s="9">
-        <v>65612</v>
-      </c>
-      <c r="L45" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row ht="30" r="46" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="7" t="s">
-        <v>509</v>
-      </c>
-      <c r="B46" s="5"/>
-      <c r="C46" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>396</v>
-      </c>
-      <c r="E46" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="F46" s="6" t="s">
-        <v>398</v>
-      </c>
-      <c r="G46" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="H46" s="6" t="s">
-        <v>400</v>
-      </c>
-      <c r="I46" s="5" t="s">
-        <v>401</v>
-      </c>
-      <c r="J46" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="K46" s="9">
-        <v>67448</v>
-      </c>
-      <c r="L46" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row ht="30" r="47" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="4" t="s">
-        <v>510</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>402</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>404</v>
-      </c>
-      <c r="E47" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="F47" s="6" t="s">
-        <v>406</v>
-      </c>
-      <c r="G47" s="6" t="s">
-        <v>407</v>
-      </c>
-      <c r="H47" s="6" t="s">
-        <v>408</v>
-      </c>
-      <c r="I47" s="5" t="s">
-        <v>409</v>
-      </c>
-      <c r="J47" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="K47" s="9">
-        <v>59405</v>
-      </c>
-      <c r="L47" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row ht="29.25" r="48" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="4" t="s">
-        <v>511</v>
-      </c>
-      <c r="B48" s="5"/>
-      <c r="C48" s="6" t="s">
-        <v>411</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>412</v>
-      </c>
-      <c r="E48" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="F48" s="6" t="s">
-        <v>414</v>
-      </c>
-      <c r="G48" s="6" t="s">
-        <v>415</v>
-      </c>
-      <c r="H48" s="6" t="s">
-        <v>416</v>
-      </c>
-      <c r="I48" s="5" t="s">
-        <v>417</v>
-      </c>
-      <c r="J48" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="K48" s="9">
-        <v>92563</v>
-      </c>
-      <c r="L48" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row ht="30" r="49" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="7" t="s">
-        <v>512</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>418</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>419</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>420</v>
-      </c>
-      <c r="E49" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="F49" s="6" t="s">
-        <v>422</v>
-      </c>
-      <c r="G49" s="6" t="s">
-        <v>423</v>
-      </c>
-      <c r="H49" s="6" t="s">
-        <v>424</v>
-      </c>
-      <c r="I49" s="5" t="s">
-        <v>425</v>
-      </c>
-      <c r="J49" s="8" t="s">
-        <v>426</v>
-      </c>
-      <c r="K49" s="9">
-        <v>94271</v>
-      </c>
-      <c r="L49" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row ht="30" r="50" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="4" t="s">
-        <v>513</v>
-      </c>
-      <c r="B50" s="5"/>
-      <c r="C50" s="6" t="s">
-        <v>428</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>429</v>
-      </c>
-      <c r="E50" s="7" t="s">
-        <v>430</v>
-      </c>
-      <c r="F50" s="6" t="s">
-        <v>431</v>
-      </c>
-      <c r="G50" s="6" t="s">
-        <v>432</v>
-      </c>
-      <c r="H50" s="6" t="s">
-        <v>433</v>
-      </c>
-      <c r="I50" s="5" t="s">
-        <v>434</v>
-      </c>
-      <c r="J50" s="8" t="s">
-        <v>435</v>
-      </c>
-      <c r="K50" s="9">
-        <v>77230</v>
-      </c>
-      <c r="L50" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row ht="30" r="51" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="4" t="s">
-        <v>514</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>436</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>437</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>438</v>
-      </c>
-      <c r="E51" s="7" t="s">
-        <v>439</v>
-      </c>
-      <c r="F51" s="6" t="s">
-        <v>440</v>
-      </c>
-      <c r="G51" s="6" t="s">
-        <v>441</v>
-      </c>
-      <c r="H51" s="6" t="s">
-        <v>442</v>
-      </c>
-      <c r="I51" s="5" t="s">
-        <v>443</v>
-      </c>
-      <c r="J51" s="8" t="s">
-        <v>444</v>
-      </c>
-      <c r="K51" s="9">
-        <v>34712</v>
-      </c>
-      <c r="L51" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" r:id="rId1" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/FinalProject/data/pet-store-data.xlsx
+++ b/FinalProject/data/pet-store-data.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21225" windowHeight="6720" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="cart_items" sheetId="1" r:id="rId1"/>
     <sheet name="users" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <oleSize ref="A1:J12"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -1416,8 +1415,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1584,14 +1583,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1638,7 +1629,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1670,10 +1661,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1705,7 +1695,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1881,20 +1870,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="28.140625" customWidth="1"/>
     <col min="2" max="2" width="108" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1902,7 +1891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" s="12" t="s">
         <v>445</v>
       </c>
@@ -1910,7 +1899,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="12" t="s">
         <v>447</v>
       </c>
@@ -1918,7 +1907,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" s="12" t="s">
         <v>449</v>
       </c>
@@ -1926,7 +1915,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" s="12" t="s">
         <v>452</v>
       </c>
@@ -1934,7 +1923,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" s="12" t="s">
         <v>454</v>
       </c>
@@ -1942,7 +1931,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" s="12" t="s">
         <v>455</v>
       </c>
@@ -1950,7 +1939,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" s="12" t="s">
         <v>458</v>
       </c>
@@ -1958,7 +1947,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9" s="12" t="s">
         <v>460</v>
       </c>
@@ -1966,7 +1955,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10" s="12" t="s">
         <v>462</v>
       </c>
@@ -1974,7 +1963,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11" s="12" t="s">
         <v>463</v>
       </c>
@@ -2000,14 +1989,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="4" width="17.28515625" style="3"/>
     <col min="5" max="5" width="25.85546875" style="3" customWidth="1"/>
@@ -2016,7 +2005,7 @@
     <col min="8" max="16384" width="17.28515625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="30.75" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -2054,7 +2043,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="44.25" thickBot="1">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -2092,7 +2081,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="44.25" thickBot="1">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -2130,7 +2119,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="58.5" thickBot="1">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -2168,7 +2157,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="58.5" thickBot="1">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -2206,7 +2195,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="44.25" thickBot="1">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -2244,7 +2233,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="44.25" thickBot="1">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -2282,7 +2271,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="44.25" thickBot="1">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -2320,7 +2309,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" ht="44.25" thickBot="1">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -2358,7 +2347,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" ht="58.5" thickBot="1">
       <c r="A10" s="7">
         <v>9</v>
       </c>
@@ -2396,7 +2385,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" ht="58.5" thickBot="1">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -2434,7 +2423,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" ht="58.5" thickBot="1">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -2472,7 +2461,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" ht="44.25" thickBot="1">
       <c r="A13" s="7">
         <v>12</v>
       </c>
@@ -2510,7 +2499,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" ht="44.25" thickBot="1">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -2548,7 +2537,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" ht="44.25" thickBot="1">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -2586,7 +2575,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" ht="44.25" thickBot="1">
       <c r="A16" s="7">
         <v>15</v>
       </c>
@@ -2624,7 +2613,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" ht="44.25" thickBot="1">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -2662,7 +2651,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" ht="44.25" thickBot="1">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -2700,7 +2689,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" ht="44.25" thickBot="1">
       <c r="A19" s="7">
         <v>18</v>
       </c>
@@ -2738,7 +2727,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" ht="44.25" thickBot="1">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -2776,7 +2765,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" ht="44.25" thickBot="1">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -2814,7 +2803,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" ht="44.25" thickBot="1">
       <c r="A22" s="7">
         <v>21</v>
       </c>
@@ -2852,7 +2841,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" ht="58.5" thickBot="1">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -2890,7 +2879,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" ht="44.25" thickBot="1">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -2928,7 +2917,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" ht="58.5" thickBot="1">
       <c r="A25" s="7">
         <v>24</v>
       </c>
@@ -2966,7 +2955,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" ht="58.5" thickBot="1">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -3004,7 +2993,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" ht="58.5" thickBot="1">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -3042,7 +3031,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" ht="44.25" thickBot="1">
       <c r="A28" s="7">
         <v>27</v>
       </c>
@@ -3080,7 +3069,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" ht="58.5" thickBot="1">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -3118,7 +3107,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" ht="44.25" thickBot="1">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -3156,7 +3145,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" ht="58.5" thickBot="1">
       <c r="A31" s="7">
         <v>30</v>
       </c>
@@ -3194,7 +3183,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" ht="44.25" thickBot="1">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -3232,7 +3221,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" ht="58.5" thickBot="1">
       <c r="A33" s="4">
         <v>32</v>
       </c>
@@ -3270,7 +3259,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" ht="44.25" thickBot="1">
       <c r="A34" s="7">
         <v>33</v>
       </c>
@@ -3308,7 +3297,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" ht="58.5" thickBot="1">
       <c r="A35" s="4">
         <v>34</v>
       </c>
@@ -3346,7 +3335,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" ht="58.5" thickBot="1">
       <c r="A36" s="4">
         <v>35</v>
       </c>
@@ -3384,7 +3373,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" ht="44.25" thickBot="1">
       <c r="A37" s="7">
         <v>36</v>
       </c>
@@ -3422,7 +3411,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" ht="44.25" thickBot="1">
       <c r="A38" s="4">
         <v>37</v>
       </c>
@@ -3460,7 +3449,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" ht="58.5" thickBot="1">
       <c r="A39" s="4">
         <v>38</v>
       </c>
@@ -3498,7 +3487,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" ht="44.25" thickBot="1">
       <c r="A40" s="7">
         <v>39</v>
       </c>
@@ -3536,7 +3525,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" ht="44.25" thickBot="1">
       <c r="A41" s="4">
         <v>40</v>
       </c>
@@ -3574,7 +3563,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" ht="58.5" thickBot="1">
       <c r="A42" s="4">
         <v>41</v>
       </c>
@@ -3612,7 +3601,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" ht="44.25" thickBot="1">
       <c r="A43" s="7">
         <v>42</v>
       </c>
@@ -3650,7 +3639,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" ht="58.5" thickBot="1">
       <c r="A44" s="4">
         <v>43</v>
       </c>
@@ -3688,7 +3677,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" ht="58.5" thickBot="1">
       <c r="A45" s="4">
         <v>44</v>
       </c>
@@ -3726,7 +3715,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" ht="44.25" thickBot="1">
       <c r="A46" s="7">
         <v>45</v>
       </c>
@@ -3764,7 +3753,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" ht="58.5" thickBot="1">
       <c r="A47" s="4">
         <v>46</v>
       </c>
@@ -3802,7 +3791,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" ht="44.25" thickBot="1">
       <c r="A48" s="4">
         <v>47</v>
       </c>
@@ -3840,7 +3829,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" ht="44.25" thickBot="1">
       <c r="A49" s="7">
         <v>48</v>
       </c>
@@ -3878,7 +3867,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" ht="44.25" thickBot="1">
       <c r="A50" s="4">
         <v>49</v>
       </c>
@@ -3916,7 +3905,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" ht="44.25" thickBot="1">
       <c r="A51" s="4">
         <v>50</v>
       </c>
